--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK291"/>
+  <dimension ref="A1:BK292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59624,6 +59624,209 @@
         <v>9</v>
       </c>
     </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="n">
+        <v>2710955</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E292" s="2" t="n">
+        <v>45037.66666666666</v>
+      </c>
+      <c r="F292" t="n">
+        <v>30</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>RCD Espanyol</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="I292" t="n">
+        <v>0</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0</v>
+      </c>
+      <c r="L292" t="n">
+        <v>0</v>
+      </c>
+      <c r="M292" t="n">
+        <v>0</v>
+      </c>
+      <c r="N292" t="n">
+        <v>0</v>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q292" t="n">
+        <v>6</v>
+      </c>
+      <c r="R292" t="n">
+        <v>4</v>
+      </c>
+      <c r="S292" t="n">
+        <v>10</v>
+      </c>
+      <c r="T292" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U292" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V292" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W292" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X292" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y292" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z292" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA292" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB292" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC292" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD292" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE292" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF292" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG292" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH292" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI292" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ292" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK292" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL292" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM292" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN292" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO292" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP292" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ292" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR292" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS292" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT292" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU292" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV292" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW292" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX292" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY292" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ292" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="BA292" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB292" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC292" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD292" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BE292" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF292" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG292" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH292" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI292" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ292" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK292" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK299"/>
+  <dimension ref="A1:BK301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.6</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT13" t="n">
         <v>0.73</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT15" t="n">
         <v>1.4</v>
@@ -4151,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.8</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>1.33</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU27" t="n">
         <v>1.13</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT33" t="n">
         <v>0.73</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT36" t="n">
         <v>2.47</v>
@@ -8617,7 +8617,7 @@
         <v>1.4</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU40" t="n">
         <v>1.71</v>
@@ -10647,7 +10647,7 @@
         <v>1.8</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU50" t="n">
         <v>1.69</v>
@@ -11253,7 +11253,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT53" t="n">
         <v>0.29</v>
@@ -12068,7 +12068,7 @@
         <v>1.67</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU57" t="n">
         <v>1.76</v>
@@ -13286,7 +13286,7 @@
         <v>1.2</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU63" t="n">
         <v>1.06</v>
@@ -13689,7 +13689,7 @@
         <v>2.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT65" t="n">
         <v>2</v>
@@ -13892,7 +13892,7 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT66" t="n">
         <v>2.47</v>
@@ -15719,7 +15719,7 @@
         <v>3</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT75" t="n">
         <v>1.47</v>
@@ -16534,7 +16534,7 @@
         <v>1.87</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU79" t="n">
         <v>1.66</v>
@@ -17143,7 +17143,7 @@
         <v>1.53</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU82" t="n">
         <v>1.93</v>
@@ -17749,7 +17749,7 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT85" t="n">
         <v>1.07</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT92" t="n">
         <v>0.6</v>
@@ -21000,7 +21000,7 @@
         <v>2.6</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU101" t="n">
         <v>2.6</v>
@@ -23030,7 +23030,7 @@
         <v>1.33</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU111" t="n">
         <v>1.39</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT112" t="n">
         <v>0.93</v>
@@ -23839,7 +23839,7 @@
         <v>0.83</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT115" t="n">
         <v>1.13</v>
@@ -24654,7 +24654,7 @@
         <v>1.6</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU119" t="n">
         <v>2.09</v>
@@ -25060,7 +25060,7 @@
         <v>0.47</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU121" t="n">
         <v>1.26</v>
@@ -27899,7 +27899,7 @@
         <v>2</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT135" t="n">
         <v>1.73</v>
@@ -28105,7 +28105,7 @@
         <v>1.63</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU136" t="n">
         <v>1.45</v>
@@ -28308,7 +28308,7 @@
         <v>0.93</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU137" t="n">
         <v>1.64</v>
@@ -28508,7 +28508,7 @@
         <v>2.29</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT138" t="n">
         <v>2</v>
@@ -31959,7 +31959,7 @@
         <v>0.57</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT155" t="n">
         <v>0.73</v>
@@ -32771,10 +32771,10 @@
         <v>1.14</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU159" t="n">
         <v>1.69</v>
@@ -33383,7 +33383,7 @@
         <v>1.33</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU162" t="n">
         <v>1.6</v>
@@ -35004,7 +35004,7 @@
         <v>0.88</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT170" t="n">
         <v>1.07</v>
@@ -35816,7 +35816,7 @@
         <v>1</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT174" t="n">
         <v>0.93</v>
@@ -36428,7 +36428,7 @@
         <v>2.6</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU177" t="n">
         <v>2.43</v>
@@ -37643,7 +37643,7 @@
         <v>0.33</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT183" t="n">
         <v>0.4</v>
@@ -39879,7 +39879,7 @@
         <v>0.47</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU194" t="n">
         <v>1.4</v>
@@ -40082,7 +40082,7 @@
         <v>2</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU195" t="n">
         <v>1.8</v>
@@ -40485,7 +40485,7 @@
         <v>2.4</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT197" t="n">
         <v>2.07</v>
@@ -41906,7 +41906,7 @@
         <v>1.1</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT204" t="n">
         <v>1</v>
@@ -44139,10 +44139,10 @@
         <v>1.09</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU215" t="n">
         <v>1.27</v>
@@ -47184,7 +47184,7 @@
         <v>1.09</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT230" t="n">
         <v>1.07</v>
@@ -47390,7 +47390,7 @@
         <v>1.86</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU231" t="n">
         <v>1.86</v>
@@ -47999,7 +47999,7 @@
         <v>1.63</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU234" t="n">
         <v>1.47</v>
@@ -48199,7 +48199,7 @@
         <v>0.27</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT235" t="n">
         <v>0.4</v>
@@ -49623,7 +49623,7 @@
         <v>1.2</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU242" t="n">
         <v>1.31</v>
@@ -50635,7 +50635,7 @@
         <v>2.08</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT247" t="n">
         <v>1.73</v>
@@ -50838,7 +50838,7 @@
         <v>0.27</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT248" t="n">
         <v>0.29</v>
@@ -52871,7 +52871,7 @@
         <v>1.67</v>
       </c>
       <c r="AT258" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU258" t="n">
         <v>1.77</v>
@@ -53680,7 +53680,7 @@
         <v>1.15</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT262" t="n">
         <v>1.07</v>
@@ -54089,7 +54089,7 @@
         <v>1.6</v>
       </c>
       <c r="AT264" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU264" t="n">
         <v>2.08</v>
@@ -55710,7 +55710,7 @@
         <v>1.15</v>
       </c>
       <c r="AS272" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT272" t="n">
         <v>1.07</v>
@@ -56322,7 +56322,7 @@
         <v>1.87</v>
       </c>
       <c r="AT275" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AU275" t="n">
         <v>1.57</v>
@@ -56525,7 +56525,7 @@
         <v>2.27</v>
       </c>
       <c r="AT276" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU276" t="n">
         <v>2.46</v>
@@ -59689,10 +59689,10 @@
         <v>6</v>
       </c>
       <c r="R292" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S292" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T292" t="n">
         <v>2.7</v>
@@ -61246,6 +61246,412 @@
       </c>
       <c r="BK299" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" t="n">
+        <v>2710954</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E300" s="2" t="n">
+        <v>45039.5625</v>
+      </c>
+      <c r="F300" t="n">
+        <v>30</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>RCD Mallorca</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Getafe CF</t>
+        </is>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>1</v>
+      </c>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="n">
+        <v>3</v>
+      </c>
+      <c r="M300" t="n">
+        <v>1</v>
+      </c>
+      <c r="N300" t="n">
+        <v>4</v>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>['56', '64', '90+5']</t>
+        </is>
+      </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q300" t="n">
+        <v>2</v>
+      </c>
+      <c r="R300" t="n">
+        <v>2</v>
+      </c>
+      <c r="S300" t="n">
+        <v>4</v>
+      </c>
+      <c r="T300" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U300" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V300" t="n">
+        <v>5</v>
+      </c>
+      <c r="W300" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X300" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y300" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z300" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA300" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB300" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC300" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AD300" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE300" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="AF300" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AG300" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AH300" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI300" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ300" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AK300" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL300" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AM300" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN300" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO300" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP300" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ300" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR300" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AS300" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT300" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU300" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV300" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW300" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AX300" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY300" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ300" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA300" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BB300" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BC300" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="BD300" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BE300" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="BF300" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG300" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH300" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI300" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ300" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK300" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B301" t="n">
+        <v>2710949</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E301" s="2" t="n">
+        <v>45039.66666666666</v>
+      </c>
+      <c r="F301" t="n">
+        <v>30</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>Sevilla FC</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="I301" t="n">
+        <v>1</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="n">
+        <v>2</v>
+      </c>
+      <c r="M301" t="n">
+        <v>1</v>
+      </c>
+      <c r="N301" t="n">
+        <v>3</v>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>['34', '90+4']</t>
+        </is>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q301" t="n">
+        <v>5</v>
+      </c>
+      <c r="R301" t="n">
+        <v>3</v>
+      </c>
+      <c r="S301" t="n">
+        <v>8</v>
+      </c>
+      <c r="T301" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U301" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V301" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W301" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X301" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Y301" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Z301" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA301" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB301" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC301" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AD301" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AE301" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AF301" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG301" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH301" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI301" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AJ301" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK301" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL301" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM301" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN301" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO301" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP301" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ301" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR301" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS301" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT301" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU301" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV301" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW301" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX301" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AY301" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ301" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BA301" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB301" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC301" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD301" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE301" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF301" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG301" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH301" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI301" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ301" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK301" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK301"/>
+  <dimension ref="A1:BK308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT3" t="n">
         <v>0.93</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.63</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.6</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT10" t="n">
         <v>2</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU16" t="n">
         <v>1.09</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT18" t="n">
         <v>1.31</v>
@@ -4354,7 +4354,7 @@
         <v>1.87</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>0.47</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT21" t="n">
         <v>0.73</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT22" t="n">
         <v>1.07</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU23" t="n">
         <v>2.21</v>
@@ -5369,7 +5369,7 @@
         <v>0.47</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU24" t="n">
         <v>1.51</v>
@@ -5569,10 +5569,10 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT25" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT27" t="n">
         <v>1.31</v>
@@ -6384,7 +6384,7 @@
         <v>0.93</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU29" t="n">
         <v>1.51</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT30" t="n">
         <v>1.47</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT32" t="n">
         <v>0.93</v>
@@ -7805,7 +7805,7 @@
         <v>1.47</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AU36" t="n">
         <v>2.23</v>
@@ -8414,7 +8414,7 @@
         <v>1.86</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -8820,7 +8820,7 @@
         <v>1.6</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="AU41" t="n">
         <v>1.67</v>
@@ -9020,7 +9020,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT42" t="n">
         <v>0.73</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT43" t="n">
         <v>0.6</v>
@@ -9629,10 +9629,10 @@
         <v>3</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AU45" t="n">
         <v>1.15</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT46" t="n">
         <v>1.07</v>
@@ -10038,7 +10038,7 @@
         <v>2.27</v>
       </c>
       <c r="AT47" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU47" t="n">
         <v>2.24</v>
@@ -10441,10 +10441,10 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU49" t="n">
         <v>1</v>
@@ -10644,7 +10644,7 @@
         <v>2.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT50" t="n">
         <v>1.31</v>
@@ -10850,7 +10850,7 @@
         <v>1.63</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU51" t="n">
         <v>1.4</v>
@@ -11256,7 +11256,7 @@
         <v>1.67</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="AU53" t="n">
         <v>1.46</v>
@@ -11459,7 +11459,7 @@
         <v>2.6</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU54" t="n">
         <v>2.69</v>
@@ -12471,7 +12471,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT59" t="n">
         <v>0.73</v>
@@ -12877,10 +12877,10 @@
         <v>3</v>
       </c>
       <c r="AS61" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU61" t="n">
         <v>1.78</v>
@@ -13083,7 +13083,7 @@
         <v>1.6</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="AU62" t="n">
         <v>2.11</v>
@@ -13283,7 +13283,7 @@
         <v>1.75</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT63" t="n">
         <v>1.31</v>
@@ -13486,7 +13486,7 @@
         <v>0.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT64" t="n">
         <v>0.73</v>
@@ -13895,7 +13895,7 @@
         <v>1.67</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AU66" t="n">
         <v>1.23</v>
@@ -14298,7 +14298,7 @@
         <v>1.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT68" t="n">
         <v>1.4</v>
@@ -14501,10 +14501,10 @@
         <v>2</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU69" t="n">
         <v>1.59</v>
@@ -14707,7 +14707,7 @@
         <v>2.27</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU70" t="n">
         <v>2.46</v>
@@ -14907,10 +14907,10 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU71" t="n">
         <v>1.8</v>
@@ -15516,7 +15516,7 @@
         <v>0.33</v>
       </c>
       <c r="AS74" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT74" t="n">
         <v>0.73</v>
@@ -15922,10 +15922,10 @@
         <v>3</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT76" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU76" t="n">
         <v>1.18</v>
@@ -16328,7 +16328,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT78" t="n">
         <v>0.93</v>
@@ -16940,7 +16940,7 @@
         <v>0.47</v>
       </c>
       <c r="AT81" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU81" t="n">
         <v>1.41</v>
@@ -17140,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT82" t="n">
         <v>0.73</v>
@@ -17343,7 +17343,7 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT83" t="n">
         <v>0.93</v>
@@ -17549,7 +17549,7 @@
         <v>1.4</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU84" t="n">
         <v>1.91</v>
@@ -18155,10 +18155,10 @@
         <v>2.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU87" t="n">
         <v>1.38</v>
@@ -18361,7 +18361,7 @@
         <v>2.27</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AU88" t="n">
         <v>2.54</v>
@@ -18764,10 +18764,10 @@
         <v>0.25</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="AU90" t="n">
         <v>1.57</v>
@@ -18970,7 +18970,7 @@
         <v>1.86</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU91" t="n">
         <v>2.05</v>
@@ -19373,7 +19373,7 @@
         <v>2.33</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT93" t="n">
         <v>1.47</v>
@@ -19576,7 +19576,7 @@
         <v>0.8</v>
       </c>
       <c r="AS94" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT94" t="n">
         <v>1.13</v>
@@ -19779,7 +19779,7 @@
         <v>1</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT95" t="n">
         <v>1.4</v>
@@ -20188,7 +20188,7 @@
         <v>1.87</v>
       </c>
       <c r="AT97" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU97" t="n">
         <v>1.7</v>
@@ -20391,7 +20391,7 @@
         <v>0.47</v>
       </c>
       <c r="AT98" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU98" t="n">
         <v>1.29</v>
@@ -21200,7 +21200,7 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT102" t="n">
         <v>0.93</v>
@@ -21406,7 +21406,7 @@
         <v>1.6</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU103" t="n">
         <v>1.51</v>
@@ -21609,7 +21609,7 @@
         <v>1.4</v>
       </c>
       <c r="AT104" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU104" t="n">
         <v>2.02</v>
@@ -22015,7 +22015,7 @@
         <v>0.93</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU106" t="n">
         <v>1.64</v>
@@ -22215,7 +22215,7 @@
         <v>2.6</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT107" t="n">
         <v>2</v>
@@ -22418,10 +22418,10 @@
         <v>1</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU108" t="n">
         <v>1.88</v>
@@ -22624,7 +22624,7 @@
         <v>1.86</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="AU109" t="n">
         <v>1.96</v>
@@ -23027,7 +23027,7 @@
         <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT111" t="n">
         <v>0.73</v>
@@ -23636,7 +23636,7 @@
         <v>2.67</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT114" t="n">
         <v>2</v>
@@ -24045,7 +24045,7 @@
         <v>1.4</v>
       </c>
       <c r="AT116" t="n">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AU116" t="n">
         <v>1.99</v>
@@ -25260,7 +25260,7 @@
         <v>1.6</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT122" t="n">
         <v>1.47</v>
@@ -25463,7 +25463,7 @@
         <v>0.8</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT123" t="n">
         <v>0.93</v>
@@ -25669,7 +25669,7 @@
         <v>1.6</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU124" t="n">
         <v>1.45</v>
@@ -25869,10 +25869,10 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU125" t="n">
         <v>1.57</v>
@@ -26075,7 +26075,7 @@
         <v>2.6</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="AU126" t="n">
         <v>2.29</v>
@@ -26275,7 +26275,7 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT127" t="n">
         <v>0.93</v>
@@ -26684,7 +26684,7 @@
         <v>1.86</v>
       </c>
       <c r="AT129" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU129" t="n">
         <v>1.91</v>
@@ -26884,7 +26884,7 @@
         <v>1.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT130" t="n">
         <v>1.07</v>
@@ -27087,10 +27087,10 @@
         <v>3</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT131" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU131" t="n">
         <v>2.15</v>
@@ -27699,7 +27699,7 @@
         <v>1.67</v>
       </c>
       <c r="AT134" t="n">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AU134" t="n">
         <v>1.86</v>
@@ -27902,7 +27902,7 @@
         <v>1.47</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU135" t="n">
         <v>1.8</v>
@@ -28711,7 +28711,7 @@
         <v>0.5</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT139" t="n">
         <v>1.07</v>
@@ -29320,7 +29320,7 @@
         <v>1.14</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT142" t="n">
         <v>1.13</v>
@@ -29523,7 +29523,7 @@
         <v>1.33</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT143" t="n">
         <v>1.47</v>
@@ -29726,10 +29726,10 @@
         <v>0.29</v>
       </c>
       <c r="AS144" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU144" t="n">
         <v>1.77</v>
@@ -29929,10 +29929,10 @@
         <v>1.57</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT145" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU145" t="n">
         <v>1.21</v>
@@ -30132,7 +30132,7 @@
         <v>1.14</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT146" t="n">
         <v>1.07</v>
@@ -30335,10 +30335,10 @@
         <v>0.14</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="AU147" t="n">
         <v>1.26</v>
@@ -30541,7 +30541,7 @@
         <v>1.6</v>
       </c>
       <c r="AT148" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU148" t="n">
         <v>1.58</v>
@@ -30947,7 +30947,7 @@
         <v>1.87</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU150" t="n">
         <v>1.71</v>
@@ -31759,7 +31759,7 @@
         <v>1.86</v>
       </c>
       <c r="AT154" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU154" t="n">
         <v>1.84</v>
@@ -32368,7 +32368,7 @@
         <v>1.63</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU157" t="n">
         <v>1.4</v>
@@ -32568,7 +32568,7 @@
         <v>1.14</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT158" t="n">
         <v>1.4</v>
@@ -32974,10 +32974,10 @@
         <v>2.57</v>
       </c>
       <c r="AS160" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT160" t="n">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AU160" t="n">
         <v>1.75</v>
@@ -33180,7 +33180,7 @@
         <v>1.6</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU161" t="n">
         <v>2.13</v>
@@ -33380,7 +33380,7 @@
         <v>1.22</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT162" t="n">
         <v>1.31</v>
@@ -33786,7 +33786,7 @@
         <v>1.13</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT164" t="n">
         <v>1.07</v>
@@ -33992,7 +33992,7 @@
         <v>1.67</v>
       </c>
       <c r="AT165" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU165" t="n">
         <v>1.83</v>
@@ -34395,7 +34395,7 @@
         <v>1</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT167" t="n">
         <v>0.93</v>
@@ -34801,10 +34801,10 @@
         <v>0.25</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU169" t="n">
         <v>1.32</v>
@@ -35207,10 +35207,10 @@
         <v>2.25</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU171" t="n">
         <v>1.99</v>
@@ -35613,7 +35613,7 @@
         <v>0.5</v>
       </c>
       <c r="AS173" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT173" t="n">
         <v>0.73</v>
@@ -36225,7 +36225,7 @@
         <v>0.47</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU176" t="n">
         <v>1.38</v>
@@ -36631,7 +36631,7 @@
         <v>1.6</v>
       </c>
       <c r="AT178" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU178" t="n">
         <v>2.08</v>
@@ -36834,7 +36834,7 @@
         <v>1.4</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="AU179" t="n">
         <v>1.82</v>
@@ -37237,10 +37237,10 @@
         <v>1.22</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT181" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU181" t="n">
         <v>1.35</v>
@@ -37440,10 +37440,10 @@
         <v>2.63</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT182" t="n">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AU182" t="n">
         <v>1.92</v>
@@ -37646,7 +37646,7 @@
         <v>1.47</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU183" t="n">
         <v>1.8</v>
@@ -37846,7 +37846,7 @@
         <v>1.22</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT184" t="n">
         <v>1.4</v>
@@ -38455,7 +38455,7 @@
         <v>1.13</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT187" t="n">
         <v>1.47</v>
@@ -38661,7 +38661,7 @@
         <v>2.27</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU188" t="n">
         <v>2.19</v>
@@ -39064,10 +39064,10 @@
         <v>2.67</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT190" t="n">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AU190" t="n">
         <v>1.61</v>
@@ -39676,7 +39676,7 @@
         <v>0.93</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU193" t="n">
         <v>1.59</v>
@@ -40079,7 +40079,7 @@
         <v>0.89</v>
       </c>
       <c r="AS195" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT195" t="n">
         <v>0.73</v>
@@ -40282,7 +40282,7 @@
         <v>0.78</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT196" t="n">
         <v>1.07</v>
@@ -40488,7 +40488,7 @@
         <v>1.67</v>
       </c>
       <c r="AT197" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU197" t="n">
         <v>1.32</v>
@@ -40688,7 +40688,7 @@
         <v>0.67</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT198" t="n">
         <v>0.6</v>
@@ -41297,10 +41297,10 @@
         <v>0.33</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="AU201" t="n">
         <v>1.95</v>
@@ -41500,7 +41500,7 @@
         <v>0.67</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT202" t="n">
         <v>0.73</v>
@@ -41909,7 +41909,7 @@
         <v>1.47</v>
       </c>
       <c r="AT204" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU204" t="n">
         <v>1.9</v>
@@ -42312,7 +42312,7 @@
         <v>1.5</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT206" t="n">
         <v>1.13</v>
@@ -42515,7 +42515,7 @@
         <v>2</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT207" t="n">
         <v>2</v>
@@ -42721,7 +42721,7 @@
         <v>1.6</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU208" t="n">
         <v>1.52</v>
@@ -42924,7 +42924,7 @@
         <v>1.86</v>
       </c>
       <c r="AT209" t="n">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AU209" t="n">
         <v>1.91</v>
@@ -43127,7 +43127,7 @@
         <v>0.93</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU210" t="n">
         <v>1.56</v>
@@ -43330,7 +43330,7 @@
         <v>2.27</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU211" t="n">
         <v>2.26</v>
@@ -43530,10 +43530,10 @@
         <v>0.3</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="AU212" t="n">
         <v>1.9</v>
@@ -43936,7 +43936,7 @@
         <v>0.7</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT214" t="n">
         <v>0.73</v>
@@ -44345,7 +44345,7 @@
         <v>1.67</v>
       </c>
       <c r="AT216" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU216" t="n">
         <v>1.8</v>
@@ -44748,7 +44748,7 @@
         <v>0.9</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT218" t="n">
         <v>1.07</v>
@@ -44951,7 +44951,7 @@
         <v>1.2</v>
       </c>
       <c r="AS219" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT219" t="n">
         <v>1.47</v>
@@ -45357,7 +45357,7 @@
         <v>0.6</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT221" t="n">
         <v>0.6</v>
@@ -45766,7 +45766,7 @@
         <v>0.93</v>
       </c>
       <c r="AT223" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU223" t="n">
         <v>1.48</v>
@@ -45966,7 +45966,7 @@
         <v>1.45</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT224" t="n">
         <v>1.13</v>
@@ -46375,7 +46375,7 @@
         <v>1.4</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU226" t="n">
         <v>1.82</v>
@@ -46778,7 +46778,7 @@
         <v>0.64</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT228" t="n">
         <v>0.73</v>
@@ -46984,7 +46984,7 @@
         <v>1.63</v>
       </c>
       <c r="AT229" t="n">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AU229" t="n">
         <v>1.51</v>
@@ -47187,7 +47187,7 @@
         <v>1.47</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU230" t="n">
         <v>1.92</v>
@@ -47793,7 +47793,7 @@
         <v>0.82</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT233" t="n">
         <v>0.73</v>
@@ -48202,7 +48202,7 @@
         <v>1.67</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU235" t="n">
         <v>1.27</v>
@@ -48402,7 +48402,7 @@
         <v>0.91</v>
       </c>
       <c r="AS236" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT236" t="n">
         <v>1.07</v>
@@ -49011,7 +49011,7 @@
         <v>1.09</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT239" t="n">
         <v>1.47</v>
@@ -49214,10 +49214,10 @@
         <v>2.25</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT240" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU240" t="n">
         <v>1.58</v>
@@ -49620,7 +49620,7 @@
         <v>0.82</v>
       </c>
       <c r="AS242" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT242" t="n">
         <v>0.73</v>
@@ -50229,7 +50229,7 @@
         <v>1.33</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT245" t="n">
         <v>1.13</v>
@@ -50435,7 +50435,7 @@
         <v>1.4</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU246" t="n">
         <v>1.78</v>
@@ -50638,7 +50638,7 @@
         <v>1.67</v>
       </c>
       <c r="AT247" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU247" t="n">
         <v>1.27</v>
@@ -50841,7 +50841,7 @@
         <v>1.47</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="AU248" t="n">
         <v>1.95</v>
@@ -51247,7 +51247,7 @@
         <v>1.6</v>
       </c>
       <c r="AT250" t="n">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AU250" t="n">
         <v>2.1</v>
@@ -51447,7 +51447,7 @@
         <v>2</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT251" t="n">
         <v>2</v>
@@ -52056,7 +52056,7 @@
         <v>0.75</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT254" t="n">
         <v>0.73</v>
@@ -52462,7 +52462,7 @@
         <v>0.5</v>
       </c>
       <c r="AS256" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT256" t="n">
         <v>0.6</v>
@@ -52665,10 +52665,10 @@
         <v>0.92</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT257" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU257" t="n">
         <v>1.55</v>
@@ -53074,7 +53074,7 @@
         <v>1.87</v>
       </c>
       <c r="AT259" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU259" t="n">
         <v>1.57</v>
@@ -53274,7 +53274,7 @@
         <v>0.83</v>
       </c>
       <c r="AS260" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT260" t="n">
         <v>1.07</v>
@@ -53480,7 +53480,7 @@
         <v>2.6</v>
       </c>
       <c r="AT261" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU261" t="n">
         <v>2.17</v>
@@ -53683,7 +53683,7 @@
         <v>1.67</v>
       </c>
       <c r="AT262" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU262" t="n">
         <v>1.24</v>
@@ -53883,7 +53883,7 @@
         <v>1.08</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT263" t="n">
         <v>0.93</v>
@@ -54289,7 +54289,7 @@
         <v>0.77</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT265" t="n">
         <v>1.07</v>
@@ -54495,7 +54495,7 @@
         <v>0.47</v>
       </c>
       <c r="AT266" t="n">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AU266" t="n">
         <v>1.51</v>
@@ -54695,10 +54695,10 @@
         <v>0.25</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT267" t="n">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="AU267" t="n">
         <v>1.66</v>
@@ -55104,7 +55104,7 @@
         <v>1.86</v>
       </c>
       <c r="AT269" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU269" t="n">
         <v>1.81</v>
@@ -55304,7 +55304,7 @@
         <v>1.62</v>
       </c>
       <c r="AS270" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT270" t="n">
         <v>1.4</v>
@@ -55916,7 +55916,7 @@
         <v>1.67</v>
       </c>
       <c r="AT273" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU273" t="n">
         <v>1.74</v>
@@ -56728,7 +56728,7 @@
         <v>1.6</v>
       </c>
       <c r="AT277" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU277" t="n">
         <v>1.55</v>
@@ -56928,7 +56928,7 @@
         <v>0.77</v>
       </c>
       <c r="AS278" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT278" t="n">
         <v>0.93</v>
@@ -57334,7 +57334,7 @@
         <v>2.08</v>
       </c>
       <c r="AS280" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT280" t="n">
         <v>2</v>
@@ -57740,10 +57740,10 @@
         <v>1.14</v>
       </c>
       <c r="AS282" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT282" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AU282" t="n">
         <v>1.85</v>
@@ -58149,7 +58149,7 @@
         <v>1.6</v>
       </c>
       <c r="AT284" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU284" t="n">
         <v>2.05</v>
@@ -58349,7 +58349,7 @@
         <v>1</v>
       </c>
       <c r="AS285" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AT285" t="n">
         <v>0.93</v>
@@ -58552,10 +58552,10 @@
         <v>2</v>
       </c>
       <c r="AS286" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT286" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU286" t="n">
         <v>1.34</v>
@@ -58755,10 +58755,10 @@
         <v>0.43</v>
       </c>
       <c r="AS287" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AT287" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AU287" t="n">
         <v>1.8</v>
@@ -58958,10 +58958,10 @@
         <v>2.57</v>
       </c>
       <c r="AS288" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT288" t="n">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AU288" t="n">
         <v>1.23</v>
@@ -59161,10 +59161,10 @@
         <v>0.31</v>
       </c>
       <c r="AS289" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT289" t="n">
-        <v>0.29</v>
+        <v>0.47</v>
       </c>
       <c r="AU289" t="n">
         <v>1.84</v>
@@ -59567,10 +59567,10 @@
         <v>0.86</v>
       </c>
       <c r="AS291" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AT291" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU291" t="n">
         <v>1.7</v>
@@ -60238,7 +60238,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="n">
-        <v>2710957</v>
+        <v>2710956</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -60258,182 +60258,182 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>Real Valladolid</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Girona FC</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="I295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J295" t="n">
         <v>0</v>
       </c>
       <c r="K295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L295" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N295" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>['24']</t>
+          <t>['59', '81']</t>
         </is>
       </c>
       <c r="P295" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['57']</t>
         </is>
       </c>
       <c r="Q295" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R295" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S295" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T295" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="U295" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V295" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W295" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X295" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y295" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z295" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA295" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB295" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC295" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD295" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE295" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AF295" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG295" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH295" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI295" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ295" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK295" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL295" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM295" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN295" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO295" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP295" t="n">
         <v>2.25</v>
       </c>
-      <c r="V295" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="W295" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X295" t="n">
+      <c r="AQ295" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AR295" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS295" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AT295" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU295" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV295" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW295" t="n">
         <v>2.95</v>
       </c>
-      <c r="Y295" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Z295" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA295" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB295" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AC295" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AD295" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AE295" t="n">
+      <c r="AX295" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY295" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ295" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BA295" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB295" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC295" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BD295" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BE295" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF295" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG295" t="n">
         <v>3</v>
-      </c>
-      <c r="AF295" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG295" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH295" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AI295" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AJ295" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AK295" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AL295" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AM295" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AN295" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AO295" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AP295" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AQ295" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AR295" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AS295" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AT295" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AU295" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AV295" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AW295" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AX295" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AY295" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ295" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="BA295" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="BB295" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BC295" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD295" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="BE295" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="BF295" t="n">
-        <v>7</v>
-      </c>
-      <c r="BG295" t="n">
-        <v>7</v>
       </c>
       <c r="BH295" t="n">
         <v>4</v>
       </c>
       <c r="BI295" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ295" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BK295" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="296">
@@ -60441,7 +60441,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="n">
-        <v>2710956</v>
+        <v>2710957</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -60461,182 +60461,182 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Real Valladolid</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Girona FC</t>
         </is>
       </c>
       <c r="I296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J296" t="n">
         <v>0</v>
       </c>
       <c r="K296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N296" t="n">
+        <v>1</v>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q296" t="n">
+        <v>5</v>
+      </c>
+      <c r="R296" t="n">
+        <v>7</v>
+      </c>
+      <c r="S296" t="n">
+        <v>12</v>
+      </c>
+      <c r="T296" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U296" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V296" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="W296" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X296" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z296" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB296" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC296" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD296" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE296" t="n">
         <v>3</v>
       </c>
-      <c r="O296" t="inlineStr">
-        <is>
-          <t>['59', '81']</t>
-        </is>
-      </c>
-      <c r="P296" t="inlineStr">
-        <is>
-          <t>['57']</t>
-        </is>
-      </c>
-      <c r="Q296" t="n">
-        <v>3</v>
-      </c>
-      <c r="R296" t="n">
-        <v>3</v>
-      </c>
-      <c r="S296" t="n">
-        <v>6</v>
-      </c>
-      <c r="T296" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U296" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V296" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="W296" t="n">
+      <c r="AF296" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG296" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH296" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI296" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ296" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK296" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL296" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AM296" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AN296" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO296" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP296" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ296" t="n">
         <v>1.5</v>
       </c>
-      <c r="X296" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Y296" t="n">
+      <c r="AR296" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AS296" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT296" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU296" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV296" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW296" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX296" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY296" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ296" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA296" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB296" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC296" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD296" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE296" t="n">
         <v>3.4</v>
       </c>
-      <c r="Z296" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AA296" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB296" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC296" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AD296" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AE296" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AF296" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AG296" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH296" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AI296" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AJ296" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AK296" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AL296" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AM296" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AN296" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AO296" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AP296" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AQ296" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AR296" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AS296" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AT296" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AU296" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AV296" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AW296" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AX296" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AY296" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AZ296" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="BA296" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="BB296" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="BC296" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="BD296" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="BE296" t="n">
-        <v>3.9</v>
-      </c>
       <c r="BF296" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG296" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BH296" t="n">
         <v>4</v>
       </c>
       <c r="BI296" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ296" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BK296" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="297">
@@ -61652,6 +61652,1427 @@
       </c>
       <c r="BK301" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B302" t="n">
+        <v>2710962</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E302" s="2" t="n">
+        <v>45041.60416666666</v>
+      </c>
+      <c r="F302" t="n">
+        <v>31</v>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>CA Osasuna</t>
+        </is>
+      </c>
+      <c r="I302" t="n">
+        <v>0</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0</v>
+      </c>
+      <c r="L302" t="n">
+        <v>0</v>
+      </c>
+      <c r="M302" t="n">
+        <v>1</v>
+      </c>
+      <c r="N302" t="n">
+        <v>1</v>
+      </c>
+      <c r="O302" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P302" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q302" t="n">
+        <v>11</v>
+      </c>
+      <c r="R302" t="n">
+        <v>2</v>
+      </c>
+      <c r="S302" t="n">
+        <v>13</v>
+      </c>
+      <c r="T302" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U302" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V302" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W302" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X302" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y302" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z302" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA302" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB302" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC302" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD302" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AE302" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AF302" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG302" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH302" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI302" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ302" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK302" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL302" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM302" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN302" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO302" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP302" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ302" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR302" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS302" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT302" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AU302" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV302" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW302" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX302" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY302" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ302" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA302" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB302" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BC302" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BD302" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE302" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF302" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG302" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH302" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI302" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ302" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK302" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B303" t="n">
+        <v>2710964</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E303" s="2" t="n">
+        <v>45041.60416666666</v>
+      </c>
+      <c r="F303" t="n">
+        <v>31</v>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>Girona FC</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="I303" t="n">
+        <v>2</v>
+      </c>
+      <c r="J303" t="n">
+        <v>1</v>
+      </c>
+      <c r="K303" t="n">
+        <v>3</v>
+      </c>
+      <c r="L303" t="n">
+        <v>4</v>
+      </c>
+      <c r="M303" t="n">
+        <v>2</v>
+      </c>
+      <c r="N303" t="n">
+        <v>6</v>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>['12', '24', '46', '62']</t>
+        </is>
+      </c>
+      <c r="P303" t="inlineStr">
+        <is>
+          <t>['34', '85']</t>
+        </is>
+      </c>
+      <c r="Q303" t="n">
+        <v>3</v>
+      </c>
+      <c r="R303" t="n">
+        <v>8</v>
+      </c>
+      <c r="S303" t="n">
+        <v>11</v>
+      </c>
+      <c r="T303" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U303" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V303" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W303" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X303" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y303" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z303" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA303" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB303" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC303" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="AD303" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE303" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF303" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG303" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH303" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI303" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AJ303" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK303" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL303" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM303" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN303" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AO303" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP303" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ303" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR303" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AS303" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT303" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AU303" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV303" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AW303" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="AX303" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AY303" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ303" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BA303" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB303" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC303" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD303" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE303" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF303" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG303" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH303" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI303" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ303" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK303" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B304" t="n">
+        <v>2710960</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E304" s="2" t="n">
+        <v>45041.70833333334</v>
+      </c>
+      <c r="F304" t="n">
+        <v>31</v>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="I304" t="n">
+        <v>0</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0</v>
+      </c>
+      <c r="L304" t="n">
+        <v>0</v>
+      </c>
+      <c r="M304" t="n">
+        <v>0</v>
+      </c>
+      <c r="N304" t="n">
+        <v>0</v>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P304" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q304" t="n">
+        <v>2</v>
+      </c>
+      <c r="R304" t="n">
+        <v>4</v>
+      </c>
+      <c r="S304" t="n">
+        <v>6</v>
+      </c>
+      <c r="T304" t="n">
+        <v>4</v>
+      </c>
+      <c r="U304" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V304" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W304" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X304" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y304" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z304" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA304" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB304" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC304" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AD304" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AE304" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AF304" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG304" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="AH304" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI304" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AJ304" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK304" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL304" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM304" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN304" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO304" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP304" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AQ304" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR304" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS304" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT304" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AU304" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV304" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW304" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX304" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY304" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ304" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BA304" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB304" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC304" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD304" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE304" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BF304" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG304" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH304" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI304" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ304" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK304" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B305" t="n">
+        <v>2710967</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E305" s="2" t="n">
+        <v>45042.60416666666</v>
+      </c>
+      <c r="F305" t="n">
+        <v>31</v>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>Getafe CF</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="I305" t="n">
+        <v>0</v>
+      </c>
+      <c r="J305" t="n">
+        <v>1</v>
+      </c>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="n">
+        <v>2</v>
+      </c>
+      <c r="N305" t="n">
+        <v>3</v>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P305" t="inlineStr">
+        <is>
+          <t>['7', '58']</t>
+        </is>
+      </c>
+      <c r="Q305" t="n">
+        <v>4</v>
+      </c>
+      <c r="R305" t="n">
+        <v>6</v>
+      </c>
+      <c r="S305" t="n">
+        <v>10</v>
+      </c>
+      <c r="T305" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U305" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V305" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W305" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X305" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y305" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z305" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA305" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB305" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC305" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AD305" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AE305" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="AF305" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG305" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH305" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI305" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ305" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AK305" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL305" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM305" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN305" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO305" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP305" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ305" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR305" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AS305" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT305" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AU305" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV305" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW305" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX305" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY305" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ305" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA305" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB305" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BC305" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD305" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE305" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BF305" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG305" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH305" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI305" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ305" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK305" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B306" t="n">
+        <v>2710959</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E306" s="2" t="n">
+        <v>45042.60416666666</v>
+      </c>
+      <c r="F306" t="n">
+        <v>31</v>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>RCD Mallorca</t>
+        </is>
+      </c>
+      <c r="I306" t="n">
+        <v>1</v>
+      </c>
+      <c r="J306" t="n">
+        <v>1</v>
+      </c>
+      <c r="K306" t="n">
+        <v>2</v>
+      </c>
+      <c r="L306" t="n">
+        <v>3</v>
+      </c>
+      <c r="M306" t="n">
+        <v>1</v>
+      </c>
+      <c r="N306" t="n">
+        <v>4</v>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>['45+2', '47', '77']</t>
+        </is>
+      </c>
+      <c r="P306" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q306" t="n">
+        <v>5</v>
+      </c>
+      <c r="R306" t="n">
+        <v>8</v>
+      </c>
+      <c r="S306" t="n">
+        <v>13</v>
+      </c>
+      <c r="T306" t="n">
+        <v>2</v>
+      </c>
+      <c r="U306" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V306" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W306" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X306" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y306" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z306" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA306" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB306" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC306" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD306" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="AE306" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF306" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG306" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH306" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI306" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ306" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AK306" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL306" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AM306" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN306" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO306" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP306" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AQ306" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR306" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS306" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AT306" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU306" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV306" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW306" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX306" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AY306" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ306" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="BA306" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB306" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC306" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD306" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE306" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF306" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG306" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH306" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI306" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ306" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK306" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B307" t="n">
+        <v>2710965</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E307" s="2" t="n">
+        <v>45042.70833333334</v>
+      </c>
+      <c r="F307" t="n">
+        <v>31</v>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="I307" t="n">
+        <v>1</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="n">
+        <v>2</v>
+      </c>
+      <c r="M307" t="n">
+        <v>1</v>
+      </c>
+      <c r="N307" t="n">
+        <v>3</v>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>['19', '53']</t>
+        </is>
+      </c>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q307" t="n">
+        <v>3</v>
+      </c>
+      <c r="R307" t="n">
+        <v>9</v>
+      </c>
+      <c r="S307" t="n">
+        <v>12</v>
+      </c>
+      <c r="T307" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U307" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V307" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W307" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X307" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y307" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z307" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA307" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB307" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC307" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AD307" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AE307" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AF307" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG307" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH307" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI307" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ307" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK307" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL307" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM307" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN307" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AO307" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP307" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ307" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AR307" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AS307" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT307" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AU307" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV307" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW307" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AX307" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AY307" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ307" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BA307" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB307" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC307" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD307" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BE307" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BF307" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG307" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH307" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI307" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ307" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK307" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B308" t="n">
+        <v>2710961</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E308" s="2" t="n">
+        <v>45042.70833333334</v>
+      </c>
+      <c r="F308" t="n">
+        <v>31</v>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>Celta de Vigo</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>Elche CF</t>
+        </is>
+      </c>
+      <c r="I308" t="n">
+        <v>0</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0</v>
+      </c>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="n">
+        <v>0</v>
+      </c>
+      <c r="N308" t="n">
+        <v>1</v>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P308" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q308" t="n">
+        <v>10</v>
+      </c>
+      <c r="R308" t="n">
+        <v>6</v>
+      </c>
+      <c r="S308" t="n">
+        <v>16</v>
+      </c>
+      <c r="T308" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U308" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V308" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W308" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X308" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y308" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z308" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA308" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB308" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC308" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD308" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="AE308" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AF308" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG308" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH308" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI308" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ308" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK308" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL308" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM308" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN308" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO308" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP308" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AQ308" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR308" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS308" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT308" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU308" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV308" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AW308" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX308" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY308" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ308" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BA308" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB308" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC308" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD308" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE308" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF308" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG308" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH308" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI308" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ308" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK308" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK312"/>
+  <dimension ref="A1:BK316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT6" t="n">
         <v>1.76</v>
@@ -2933,7 +2933,7 @@
         <v>0.93</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.67</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.5</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU17" t="n">
         <v>2.62</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AT24" t="n">
         <v>1.76</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AT28" t="n">
         <v>0.6899999999999999</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT30" t="n">
         <v>1.47</v>
@@ -7396,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU34" t="n">
         <v>0</v>
@@ -8008,7 +8008,7 @@
         <v>1.56</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU37" t="n">
         <v>1.69</v>
@@ -8820,7 +8820,7 @@
         <v>1.6</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU41" t="n">
         <v>1.67</v>
@@ -9226,7 +9226,7 @@
         <v>1.63</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU43" t="n">
         <v>1.56</v>
@@ -9629,7 +9629,7 @@
         <v>3</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT45" t="n">
         <v>2.31</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT47" t="n">
         <v>0.9399999999999999</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AT48" t="n">
         <v>1.47</v>
@@ -11256,7 +11256,7 @@
         <v>1.67</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU53" t="n">
         <v>1.46</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AT54" t="n">
         <v>0.38</v>
@@ -11865,7 +11865,7 @@
         <v>1.5</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU56" t="n">
         <v>2.1</v>
@@ -13083,7 +13083,7 @@
         <v>1.5</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU62" t="n">
         <v>2.11</v>
@@ -13283,7 +13283,7 @@
         <v>1.75</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT63" t="n">
         <v>1.31</v>
@@ -14098,7 +14098,7 @@
         <v>0.93</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU67" t="n">
         <v>1.75</v>
@@ -14301,7 +14301,7 @@
         <v>1.44</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU68" t="n">
         <v>1.34</v>
@@ -14704,7 +14704,7 @@
         <v>1.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT70" t="n">
         <v>1.19</v>
@@ -15113,7 +15113,7 @@
         <v>1.56</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU72" t="n">
         <v>1.72</v>
@@ -15316,7 +15316,7 @@
         <v>1.63</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU73" t="n">
         <v>1.28</v>
@@ -16128,7 +16128,7 @@
         <v>1.6</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU77" t="n">
         <v>1.57</v>
@@ -16328,7 +16328,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT78" t="n">
         <v>0.88</v>
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AT80" t="n">
         <v>1.07</v>
@@ -16937,7 +16937,7 @@
         <v>1.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AT81" t="n">
         <v>0.9399999999999999</v>
@@ -18358,7 +18358,7 @@
         <v>3</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT88" t="n">
         <v>2.31</v>
@@ -18767,7 +18767,7 @@
         <v>1.75</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU90" t="n">
         <v>1.57</v>
@@ -19173,7 +19173,7 @@
         <v>1.47</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU92" t="n">
         <v>1.74</v>
@@ -19579,7 +19579,7 @@
         <v>2.06</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU94" t="n">
         <v>1.66</v>
@@ -19779,10 +19779,10 @@
         <v>1</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU95" t="n">
         <v>1.14</v>
@@ -20388,7 +20388,7 @@
         <v>3</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AT98" t="n">
         <v>1.94</v>
@@ -20997,7 +20997,7 @@
         <v>1.33</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AT101" t="n">
         <v>1.31</v>
@@ -21809,7 +21809,7 @@
         <v>1.4</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT105" t="n">
         <v>1.19</v>
@@ -22624,7 +22624,7 @@
         <v>1.93</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU109" t="n">
         <v>1.96</v>
@@ -22824,7 +22824,7 @@
         <v>2</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AT110" t="n">
         <v>1.47</v>
@@ -23636,7 +23636,7 @@
         <v>2.67</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT114" t="n">
         <v>2</v>
@@ -23842,7 +23842,7 @@
         <v>1.47</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU115" t="n">
         <v>1.85</v>
@@ -24448,7 +24448,7 @@
         <v>0.2</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT118" t="n">
         <v>0.73</v>
@@ -24857,7 +24857,7 @@
         <v>1.87</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU120" t="n">
         <v>1.75</v>
@@ -25057,7 +25057,7 @@
         <v>1</v>
       </c>
       <c r="AS121" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AT121" t="n">
         <v>0.73</v>
@@ -26072,10 +26072,10 @@
         <v>0.17</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU126" t="n">
         <v>2.29</v>
@@ -26481,7 +26481,7 @@
         <v>1.87</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU128" t="n">
         <v>1.78</v>
@@ -27290,7 +27290,7 @@
         <v>0.33</v>
       </c>
       <c r="AS132" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AT132" t="n">
         <v>0.73</v>
@@ -28917,7 +28917,7 @@
         <v>1.5</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU140" t="n">
         <v>1.82</v>
@@ -29117,7 +29117,7 @@
         <v>0.83</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT141" t="n">
         <v>0.93</v>
@@ -29323,7 +29323,7 @@
         <v>1.88</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU142" t="n">
         <v>1.89</v>
@@ -30335,10 +30335,10 @@
         <v>0.14</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU147" t="n">
         <v>1.26</v>
@@ -30741,7 +30741,7 @@
         <v>1</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AT149" t="n">
         <v>0.88</v>
@@ -31150,7 +31150,7 @@
         <v>1.93</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU151" t="n">
         <v>1.82</v>
@@ -31350,7 +31350,7 @@
         <v>0.57</v>
       </c>
       <c r="AS152" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AT152" t="n">
         <v>1.07</v>
@@ -32571,7 +32571,7 @@
         <v>1.63</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU158" t="n">
         <v>2.04</v>
@@ -33586,7 +33586,7 @@
         <v>1.6</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU163" t="n">
         <v>1.56</v>
@@ -34801,7 +34801,7 @@
         <v>0.25</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT169" t="n">
         <v>0.38</v>
@@ -35413,7 +35413,7 @@
         <v>0.93</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU172" t="n">
         <v>1.65</v>
@@ -36222,7 +36222,7 @@
         <v>1.13</v>
       </c>
       <c r="AS176" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AT176" t="n">
         <v>1.19</v>
@@ -36425,7 +36425,7 @@
         <v>1</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AT177" t="n">
         <v>0.73</v>
@@ -36834,7 +36834,7 @@
         <v>1.5</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU179" t="n">
         <v>1.82</v>
@@ -37237,7 +37237,7 @@
         <v>1.22</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT181" t="n">
         <v>0.9399999999999999</v>
@@ -37849,7 +37849,7 @@
         <v>1.25</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU184" t="n">
         <v>1.22</v>
@@ -38052,7 +38052,7 @@
         <v>1.6</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU185" t="n">
         <v>1.51</v>
@@ -38658,7 +38658,7 @@
         <v>2.33</v>
       </c>
       <c r="AS188" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT188" t="n">
         <v>1.76</v>
@@ -38864,7 +38864,7 @@
         <v>1.93</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU189" t="n">
         <v>1.94</v>
@@ -39267,10 +39267,10 @@
         <v>0.75</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU191" t="n">
         <v>2.24</v>
@@ -39876,7 +39876,7 @@
         <v>1.2</v>
       </c>
       <c r="AS194" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AT194" t="n">
         <v>1.31</v>
@@ -40691,7 +40691,7 @@
         <v>1.88</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU198" t="n">
         <v>1.86</v>
@@ -41094,7 +41094,7 @@
         <v>1</v>
       </c>
       <c r="AS200" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AT200" t="n">
         <v>1.19</v>
@@ -41300,7 +41300,7 @@
         <v>1.63</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU201" t="n">
         <v>1.95</v>
@@ -41500,7 +41500,7 @@
         <v>0.67</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT202" t="n">
         <v>0.73</v>
@@ -41706,7 +41706,7 @@
         <v>1.63</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU203" t="n">
         <v>1.42</v>
@@ -42315,7 +42315,7 @@
         <v>1.25</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU206" t="n">
         <v>1.18</v>
@@ -43327,7 +43327,7 @@
         <v>0.3</v>
       </c>
       <c r="AS211" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT211" t="n">
         <v>0.38</v>
@@ -43533,7 +43533,7 @@
         <v>1.88</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU212" t="n">
         <v>1.9</v>
@@ -44545,7 +44545,7 @@
         <v>1.1</v>
       </c>
       <c r="AS217" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AT217" t="n">
         <v>0.88</v>
@@ -45154,7 +45154,7 @@
         <v>0.8</v>
       </c>
       <c r="AS220" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AT220" t="n">
         <v>0.93</v>
@@ -45360,7 +45360,7 @@
         <v>1.25</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU221" t="n">
         <v>1.2</v>
@@ -45560,10 +45560,10 @@
         <v>1.55</v>
       </c>
       <c r="AS222" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU222" t="n">
         <v>1.47</v>
@@ -45966,10 +45966,10 @@
         <v>1.45</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU224" t="n">
         <v>1.34</v>
@@ -46169,7 +46169,7 @@
         <v>2.09</v>
       </c>
       <c r="AS225" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT225" t="n">
         <v>2</v>
@@ -48808,10 +48808,10 @@
         <v>0.55</v>
       </c>
       <c r="AS238" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AT238" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU238" t="n">
         <v>2.27</v>
@@ -49620,7 +49620,7 @@
         <v>0.82</v>
       </c>
       <c r="AS242" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT242" t="n">
         <v>0.73</v>
@@ -49823,7 +49823,7 @@
         <v>1.17</v>
       </c>
       <c r="AS243" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT243" t="n">
         <v>0.88</v>
@@ -50026,7 +50026,7 @@
         <v>0.58</v>
       </c>
       <c r="AS244" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AT244" t="n">
         <v>0.6899999999999999</v>
@@ -50232,7 +50232,7 @@
         <v>1.44</v>
       </c>
       <c r="AT245" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU245" t="n">
         <v>1.68</v>
@@ -50841,7 +50841,7 @@
         <v>1.47</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU248" t="n">
         <v>1.95</v>
@@ -51044,7 +51044,7 @@
         <v>1.93</v>
       </c>
       <c r="AT249" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU249" t="n">
         <v>1.84</v>
@@ -52465,7 +52465,7 @@
         <v>2.06</v>
       </c>
       <c r="AT256" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU256" t="n">
         <v>1.83</v>
@@ -53477,7 +53477,7 @@
         <v>2.15</v>
       </c>
       <c r="AS261" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AT261" t="n">
         <v>1.94</v>
@@ -54289,7 +54289,7 @@
         <v>0.77</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT265" t="n">
         <v>1.19</v>
@@ -54492,7 +54492,7 @@
         <v>2.54</v>
       </c>
       <c r="AS266" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AT266" t="n">
         <v>2.31</v>
@@ -54698,7 +54698,7 @@
         <v>1.44</v>
       </c>
       <c r="AT267" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU267" t="n">
         <v>1.66</v>
@@ -54898,7 +54898,7 @@
         <v>0.62</v>
       </c>
       <c r="AS268" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT268" t="n">
         <v>0.6899999999999999</v>
@@ -55307,7 +55307,7 @@
         <v>2.06</v>
       </c>
       <c r="AT270" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU270" t="n">
         <v>1.82</v>
@@ -55510,7 +55510,7 @@
         <v>1.5</v>
       </c>
       <c r="AT271" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU271" t="n">
         <v>1.76</v>
@@ -56522,7 +56522,7 @@
         <v>1.29</v>
       </c>
       <c r="AS276" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT276" t="n">
         <v>1.31</v>
@@ -57134,7 +57134,7 @@
         <v>1.63</v>
       </c>
       <c r="AT279" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU279" t="n">
         <v>1.44</v>
@@ -57537,7 +57537,7 @@
         <v>0.77</v>
       </c>
       <c r="AS281" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AT281" t="n">
         <v>0.73</v>
@@ -58552,7 +58552,7 @@
         <v>2</v>
       </c>
       <c r="AS286" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT286" t="n">
         <v>1.94</v>
@@ -59164,7 +59164,7 @@
         <v>2.06</v>
       </c>
       <c r="AT289" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU289" t="n">
         <v>1.84</v>
@@ -59976,7 +59976,7 @@
         <v>1.56</v>
       </c>
       <c r="AT293" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AU293" t="n">
         <v>1.8</v>
@@ -60382,7 +60382,7 @@
         <v>1.87</v>
       </c>
       <c r="AT295" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU295" t="n">
         <v>1.57</v>
@@ -60785,7 +60785,7 @@
         <v>1.14</v>
       </c>
       <c r="AS297" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AT297" t="n">
         <v>1.07</v>
@@ -60988,10 +60988,10 @@
         <v>0.43</v>
       </c>
       <c r="AS298" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AT298" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU298" t="n">
         <v>1.48</v>
@@ -61191,7 +61191,7 @@
         <v>2.14</v>
       </c>
       <c r="AS299" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AT299" t="n">
         <v>2</v>
@@ -61800,7 +61800,7 @@
         <v>1.07</v>
       </c>
       <c r="AS302" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT302" t="n">
         <v>1.19</v>
@@ -62412,7 +62412,7 @@
         <v>1.25</v>
       </c>
       <c r="AT305" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AU305" t="n">
         <v>1.19</v>
@@ -63885,6 +63885,818 @@
       </c>
       <c r="BK312" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B313" t="n">
+        <v>2710969</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E313" s="2" t="n">
+        <v>45045.46875</v>
+      </c>
+      <c r="F313" t="n">
+        <v>32</v>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>Elche CF</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="I313" t="n">
+        <v>1</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0</v>
+      </c>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="n">
+        <v>4</v>
+      </c>
+      <c r="M313" t="n">
+        <v>0</v>
+      </c>
+      <c r="N313" t="n">
+        <v>4</v>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>['45+1', '52', '53', '72']</t>
+        </is>
+      </c>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q313" t="n">
+        <v>3</v>
+      </c>
+      <c r="R313" t="n">
+        <v>8</v>
+      </c>
+      <c r="S313" t="n">
+        <v>11</v>
+      </c>
+      <c r="T313" t="n">
+        <v>5</v>
+      </c>
+      <c r="U313" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V313" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W313" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X313" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y313" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z313" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA313" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB313" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC313" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD313" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE313" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AF313" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG313" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH313" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI313" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ313" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK313" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL313" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM313" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN313" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO313" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP313" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ313" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AR313" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS313" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AT313" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU313" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV313" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW313" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX313" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AY313" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ313" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BA313" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB313" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC313" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD313" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE313" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF313" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG313" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH313" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI313" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ313" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK313" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B314" t="n">
+        <v>2710976</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E314" s="2" t="n">
+        <v>45045.5625</v>
+      </c>
+      <c r="F314" t="n">
+        <v>32</v>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
+        <v>3</v>
+      </c>
+      <c r="J314" t="n">
+        <v>1</v>
+      </c>
+      <c r="K314" t="n">
+        <v>4</v>
+      </c>
+      <c r="L314" t="n">
+        <v>4</v>
+      </c>
+      <c r="M314" t="n">
+        <v>2</v>
+      </c>
+      <c r="N314" t="n">
+        <v>6</v>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>['5', '17', '42', '47']</t>
+        </is>
+      </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>['45+1', '61']</t>
+        </is>
+      </c>
+      <c r="Q314" t="n">
+        <v>7</v>
+      </c>
+      <c r="R314" t="n">
+        <v>0</v>
+      </c>
+      <c r="S314" t="n">
+        <v>7</v>
+      </c>
+      <c r="T314" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U314" t="n">
+        <v>3</v>
+      </c>
+      <c r="V314" t="n">
+        <v>9</v>
+      </c>
+      <c r="W314" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X314" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="Y314" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Z314" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA314" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB314" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC314" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AD314" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE314" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF314" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG314" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH314" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI314" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ314" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AK314" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AL314" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM314" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN314" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO314" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP314" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AQ314" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AR314" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AS314" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AT314" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU314" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AV314" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW314" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AX314" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AY314" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ314" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA314" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB314" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC314" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD314" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE314" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF314" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG314" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH314" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI314" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ314" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK314" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B315" t="n">
+        <v>2710968</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E315" s="2" t="n">
+        <v>45045.66666666666</v>
+      </c>
+      <c r="F315" t="n">
+        <v>32</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="I315" t="n">
+        <v>3</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0</v>
+      </c>
+      <c r="K315" t="n">
+        <v>3</v>
+      </c>
+      <c r="L315" t="n">
+        <v>4</v>
+      </c>
+      <c r="M315" t="n">
+        <v>0</v>
+      </c>
+      <c r="N315" t="n">
+        <v>4</v>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>['14', '36', '39', '82']</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q315" t="n">
+        <v>10</v>
+      </c>
+      <c r="R315" t="n">
+        <v>0</v>
+      </c>
+      <c r="S315" t="n">
+        <v>10</v>
+      </c>
+      <c r="T315" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U315" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V315" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W315" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X315" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y315" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Z315" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA315" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB315" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC315" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AD315" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AE315" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF315" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG315" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH315" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI315" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ315" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK315" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL315" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM315" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN315" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO315" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP315" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AQ315" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR315" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS315" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AT315" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU315" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AV315" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW315" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AX315" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AY315" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ315" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA315" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB315" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC315" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD315" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE315" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF315" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG315" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH315" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI315" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ315" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK315" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B316" t="n">
+        <v>2710970</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E316" s="2" t="n">
+        <v>45046.375</v>
+      </c>
+      <c r="F316" t="n">
+        <v>32</v>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>Valencia CF</t>
+        </is>
+      </c>
+      <c r="I316" t="n">
+        <v>1</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0</v>
+      </c>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="n">
+        <v>2</v>
+      </c>
+      <c r="M316" t="n">
+        <v>1</v>
+      </c>
+      <c r="N316" t="n">
+        <v>3</v>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>['39', '46']</t>
+        </is>
+      </c>
+      <c r="P316" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q316" t="n">
+        <v>5</v>
+      </c>
+      <c r="R316" t="n">
+        <v>6</v>
+      </c>
+      <c r="S316" t="n">
+        <v>11</v>
+      </c>
+      <c r="T316" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U316" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V316" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W316" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X316" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y316" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z316" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA316" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB316" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC316" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD316" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE316" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AF316" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG316" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH316" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI316" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ316" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK316" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL316" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM316" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN316" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO316" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP316" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AQ316" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR316" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS316" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT316" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU316" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV316" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW316" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX316" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AY316" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ316" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA316" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB316" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC316" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BD316" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE316" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BF316" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG316" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH316" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI316" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ316" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK316" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK316"/>
+  <dimension ref="A1:BK321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT4" t="n">
         <v>1.31</v>
@@ -1918,7 +1918,7 @@
         <v>1.5</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.25</v>
       </c>
       <c r="AT10" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT12" t="n">
         <v>1.06</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT13" t="n">
         <v>0.6899999999999999</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT15" t="n">
         <v>1.31</v>
@@ -4760,7 +4760,7 @@
         <v>1.88</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.88</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU22" t="n">
         <v>1.7</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT29" t="n">
         <v>1.94</v>
@@ -6587,7 +6587,7 @@
         <v>1.24</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU30" t="n">
         <v>1.1</v>
@@ -6790,7 +6790,7 @@
         <v>1.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU31" t="n">
         <v>1.68</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU33" t="n">
         <v>1.45</v>
@@ -7602,7 +7602,7 @@
         <v>1.87</v>
       </c>
       <c r="AT35" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU35" t="n">
         <v>1.54</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT36" t="n">
         <v>2.31</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT39" t="n">
         <v>0.38</v>
@@ -8617,7 +8617,7 @@
         <v>1.5</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU40" t="n">
         <v>1.71</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT41" t="n">
         <v>0.44</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT44" t="n">
         <v>1.19</v>
@@ -9835,7 +9835,7 @@
         <v>2.06</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU46" t="n">
         <v>1.96</v>
@@ -10241,7 +10241,7 @@
         <v>0.63</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU48" t="n">
         <v>1.59</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT52" t="n">
         <v>0.93</v>
@@ -11253,7 +11253,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT53" t="n">
         <v>0.44</v>
@@ -11662,7 +11662,7 @@
         <v>1.5</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU55" t="n">
         <v>2.05</v>
@@ -12068,7 +12068,7 @@
         <v>1.56</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU57" t="n">
         <v>1.76</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT58" t="n">
         <v>1.19</v>
@@ -12474,7 +12474,7 @@
         <v>1.75</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU59" t="n">
         <v>1.68</v>
@@ -13689,10 +13689,10 @@
         <v>2.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT65" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU65" t="n">
         <v>2.05</v>
@@ -13892,7 +13892,7 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT66" t="n">
         <v>2.31</v>
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT67" t="n">
         <v>0.5600000000000001</v>
@@ -15519,7 +15519,7 @@
         <v>2.06</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU74" t="n">
         <v>1.71</v>
@@ -15719,10 +15719,10 @@
         <v>3</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU75" t="n">
         <v>1.91</v>
@@ -16125,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT77" t="n">
         <v>1.31</v>
@@ -16737,7 +16737,7 @@
         <v>2.63</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU80" t="n">
         <v>2.92</v>
@@ -17143,7 +17143,7 @@
         <v>1.63</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU82" t="n">
         <v>1.93</v>
@@ -17749,7 +17749,7 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT85" t="n">
         <v>1.19</v>
@@ -17955,7 +17955,7 @@
         <v>1.5</v>
       </c>
       <c r="AT86" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU86" t="n">
         <v>2.15</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT89" t="n">
         <v>0.6899999999999999</v>
@@ -18967,7 +18967,7 @@
         <v>1.33</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT91" t="n">
         <v>1.19</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT92" t="n">
         <v>0.5600000000000001</v>
@@ -19376,7 +19376,7 @@
         <v>1.25</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU93" t="n">
         <v>1.14</v>
@@ -19982,10 +19982,10 @@
         <v>0.75</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU96" t="n">
         <v>1.57</v>
@@ -20594,7 +20594,7 @@
         <v>1.63</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU99" t="n">
         <v>1.25</v>
@@ -21403,7 +21403,7 @@
         <v>2.4</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT103" t="n">
         <v>1.76</v>
@@ -22012,7 +22012,7 @@
         <v>0.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT106" t="n">
         <v>0.38</v>
@@ -22218,7 +22218,7 @@
         <v>1.75</v>
       </c>
       <c r="AT107" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU107" t="n">
         <v>1.66</v>
@@ -22621,7 +22621,7 @@
         <v>0.2</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT109" t="n">
         <v>0.44</v>
@@ -22827,7 +22827,7 @@
         <v>2.63</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU110" t="n">
         <v>2.49</v>
@@ -23030,7 +23030,7 @@
         <v>1.44</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU111" t="n">
         <v>1.39</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT112" t="n">
         <v>0.88</v>
@@ -23436,7 +23436,7 @@
         <v>1.63</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU113" t="n">
         <v>1.32</v>
@@ -23639,7 +23639,7 @@
         <v>1.24</v>
       </c>
       <c r="AT114" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU114" t="n">
         <v>1.22</v>
@@ -23839,7 +23839,7 @@
         <v>0.83</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT115" t="n">
         <v>1.06</v>
@@ -24451,7 +24451,7 @@
         <v>2.31</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU118" t="n">
         <v>2.16</v>
@@ -25060,7 +25060,7 @@
         <v>0.63</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU121" t="n">
         <v>1.26</v>
@@ -25263,7 +25263,7 @@
         <v>1.88</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU122" t="n">
         <v>1.78</v>
@@ -25666,7 +25666,7 @@
         <v>0.33</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT124" t="n">
         <v>0.38</v>
@@ -26681,7 +26681,7 @@
         <v>1.33</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT129" t="n">
         <v>0.9399999999999999</v>
@@ -27293,7 +27293,7 @@
         <v>0.63</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU132" t="n">
         <v>1.33</v>
@@ -27899,7 +27899,7 @@
         <v>2</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT135" t="n">
         <v>1.76</v>
@@ -28105,7 +28105,7 @@
         <v>1.63</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU136" t="n">
         <v>1.45</v>
@@ -28305,7 +28305,7 @@
         <v>1</v>
       </c>
       <c r="AS137" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT137" t="n">
         <v>1.31</v>
@@ -28508,10 +28508,10 @@
         <v>2.29</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT138" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU138" t="n">
         <v>1.36</v>
@@ -28714,7 +28714,7 @@
         <v>1.63</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU139" t="n">
         <v>2.14</v>
@@ -29526,7 +29526,7 @@
         <v>1.75</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU143" t="n">
         <v>1.63</v>
@@ -30538,7 +30538,7 @@
         <v>2.57</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT148" t="n">
         <v>1.94</v>
@@ -31147,7 +31147,7 @@
         <v>1</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT151" t="n">
         <v>0.5600000000000001</v>
@@ -31353,7 +31353,7 @@
         <v>0.63</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU152" t="n">
         <v>1.34</v>
@@ -31756,7 +31756,7 @@
         <v>2.63</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT154" t="n">
         <v>1.94</v>
@@ -31959,7 +31959,7 @@
         <v>0.57</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT155" t="n">
         <v>0.6899999999999999</v>
@@ -32162,10 +32162,10 @@
         <v>0.71</v>
       </c>
       <c r="AS156" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU156" t="n">
         <v>1.67</v>
@@ -32771,10 +32771,10 @@
         <v>1.14</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU159" t="n">
         <v>1.69</v>
@@ -33583,7 +33583,7 @@
         <v>1.13</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT163" t="n">
         <v>1.06</v>
@@ -34195,7 +34195,7 @@
         <v>1.87</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU166" t="n">
         <v>1.65</v>
@@ -34601,7 +34601,7 @@
         <v>1.63</v>
       </c>
       <c r="AT168" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU168" t="n">
         <v>1.33</v>
@@ -35004,10 +35004,10 @@
         <v>0.88</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU170" t="n">
         <v>1.34</v>
@@ -35410,7 +35410,7 @@
         <v>1.38</v>
       </c>
       <c r="AS172" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT172" t="n">
         <v>1.31</v>
@@ -35816,7 +35816,7 @@
         <v>1</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT174" t="n">
         <v>0.93</v>
@@ -36019,10 +36019,10 @@
         <v>0.75</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU175" t="n">
         <v>1.85</v>
@@ -36428,7 +36428,7 @@
         <v>2.63</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU177" t="n">
         <v>2.43</v>
@@ -37643,7 +37643,7 @@
         <v>0.33</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT183" t="n">
         <v>0.38</v>
@@ -38049,7 +38049,7 @@
         <v>0.86</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT185" t="n">
         <v>0.5600000000000001</v>
@@ -38255,7 +38255,7 @@
         <v>1.56</v>
       </c>
       <c r="AT186" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU186" t="n">
         <v>1.79</v>
@@ -38458,7 +38458,7 @@
         <v>1.44</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU187" t="n">
         <v>1.69</v>
@@ -38861,7 +38861,7 @@
         <v>1.33</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT189" t="n">
         <v>1.06</v>
@@ -39673,7 +39673,7 @@
         <v>1.11</v>
       </c>
       <c r="AS193" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT193" t="n">
         <v>1.19</v>
@@ -40082,7 +40082,7 @@
         <v>2.06</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU195" t="n">
         <v>1.8</v>
@@ -40285,7 +40285,7 @@
         <v>1.75</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU196" t="n">
         <v>1.51</v>
@@ -40485,7 +40485,7 @@
         <v>2.4</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT197" t="n">
         <v>1.94</v>
@@ -41503,7 +41503,7 @@
         <v>1.24</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU202" t="n">
         <v>1.34</v>
@@ -41906,7 +41906,7 @@
         <v>1.1</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT204" t="n">
         <v>0.9399999999999999</v>
@@ -42112,7 +42112,7 @@
         <v>1.5</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU205" t="n">
         <v>1.77</v>
@@ -42518,7 +42518,7 @@
         <v>1.44</v>
       </c>
       <c r="AT207" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU207" t="n">
         <v>1.66</v>
@@ -42718,7 +42718,7 @@
         <v>1.1</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT208" t="n">
         <v>1.19</v>
@@ -42921,7 +42921,7 @@
         <v>2.7</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT209" t="n">
         <v>2.31</v>
@@ -43124,7 +43124,7 @@
         <v>2.2</v>
       </c>
       <c r="AS210" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT210" t="n">
         <v>1.76</v>
@@ -43736,7 +43736,7 @@
         <v>1.87</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU213" t="n">
         <v>1.62</v>
@@ -44139,7 +44139,7 @@
         <v>1.09</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT215" t="n">
         <v>1.31</v>
@@ -44954,7 +44954,7 @@
         <v>2.06</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU219" t="n">
         <v>1.83</v>
@@ -45763,7 +45763,7 @@
         <v>1</v>
       </c>
       <c r="AS223" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT223" t="n">
         <v>0.9399999999999999</v>
@@ -46172,7 +46172,7 @@
         <v>2.31</v>
       </c>
       <c r="AT225" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU225" t="n">
         <v>2.36</v>
@@ -46578,7 +46578,7 @@
         <v>1.5</v>
       </c>
       <c r="AT227" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU227" t="n">
         <v>2.07</v>
@@ -47184,7 +47184,7 @@
         <v>1.09</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT230" t="n">
         <v>1.19</v>
@@ -47387,10 +47387,10 @@
         <v>0.9</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU231" t="n">
         <v>1.86</v>
@@ -47796,7 +47796,7 @@
         <v>1.25</v>
       </c>
       <c r="AT233" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU233" t="n">
         <v>1.23</v>
@@ -48199,7 +48199,7 @@
         <v>0.27</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT235" t="n">
         <v>0.38</v>
@@ -48605,7 +48605,7 @@
         <v>1.27</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT237" t="n">
         <v>0.88</v>
@@ -49014,7 +49014,7 @@
         <v>1.63</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU239" t="n">
         <v>1.94</v>
@@ -49420,7 +49420,7 @@
         <v>1.56</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU241" t="n">
         <v>1.77</v>
@@ -49623,7 +49623,7 @@
         <v>1.24</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU242" t="n">
         <v>1.31</v>
@@ -50635,7 +50635,7 @@
         <v>2.08</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT247" t="n">
         <v>1.76</v>
@@ -50838,7 +50838,7 @@
         <v>0.27</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT248" t="n">
         <v>0.44</v>
@@ -51041,7 +51041,7 @@
         <v>1.67</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT249" t="n">
         <v>1.31</v>
@@ -51450,7 +51450,7 @@
         <v>1.88</v>
       </c>
       <c r="AT251" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU251" t="n">
         <v>1.89</v>
@@ -51650,10 +51650,10 @@
         <v>1.08</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT252" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU252" t="n">
         <v>1.55</v>
@@ -52059,7 +52059,7 @@
         <v>1.63</v>
       </c>
       <c r="AT254" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU254" t="n">
         <v>1.9</v>
@@ -52259,10 +52259,10 @@
         <v>1</v>
       </c>
       <c r="AS255" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT255" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU255" t="n">
         <v>1.45</v>
@@ -53680,7 +53680,7 @@
         <v>1.15</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT262" t="n">
         <v>1.19</v>
@@ -54089,7 +54089,7 @@
         <v>1.5</v>
       </c>
       <c r="AT264" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU264" t="n">
         <v>2.08</v>
@@ -55101,7 +55101,7 @@
         <v>2</v>
       </c>
       <c r="AS269" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT269" t="n">
         <v>1.76</v>
@@ -55710,10 +55710,10 @@
         <v>1.15</v>
       </c>
       <c r="AS272" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT272" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU272" t="n">
         <v>1.98</v>
@@ -56116,10 +56116,10 @@
         <v>1.23</v>
       </c>
       <c r="AS274" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT274" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU274" t="n">
         <v>1.42</v>
@@ -56322,7 +56322,7 @@
         <v>1.87</v>
       </c>
       <c r="AT275" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU275" t="n">
         <v>1.57</v>
@@ -56725,7 +56725,7 @@
         <v>0.85</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT277" t="n">
         <v>0.9399999999999999</v>
@@ -57337,7 +57337,7 @@
         <v>1.63</v>
       </c>
       <c r="AT280" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU280" t="n">
         <v>1.86</v>
@@ -57540,7 +57540,7 @@
         <v>2.63</v>
       </c>
       <c r="AT281" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU281" t="n">
         <v>2.18</v>
@@ -57943,7 +57943,7 @@
         <v>0.57</v>
       </c>
       <c r="AS283" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT283" t="n">
         <v>0.6899999999999999</v>
@@ -59770,7 +59770,7 @@
         <v>0.93</v>
       </c>
       <c r="AS292" t="n">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AT292" t="n">
         <v>0.93</v>
@@ -60179,7 +60179,7 @@
         <v>1.63</v>
       </c>
       <c r="AT294" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU294" t="n">
         <v>1.42</v>
@@ -60582,10 +60582,10 @@
         <v>0.79</v>
       </c>
       <c r="AS296" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT296" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU296" t="n">
         <v>1.54</v>
@@ -60788,7 +60788,7 @@
         <v>2.31</v>
       </c>
       <c r="AT297" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU297" t="n">
         <v>2.43</v>
@@ -61194,7 +61194,7 @@
         <v>2.63</v>
       </c>
       <c r="AT299" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AU299" t="n">
         <v>2.15</v>
@@ -61394,10 +61394,10 @@
         <v>0.79</v>
       </c>
       <c r="AS300" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AT300" t="n">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU300" t="n">
         <v>1.22</v>
@@ -61597,7 +61597,7 @@
         <v>1.4</v>
       </c>
       <c r="AS301" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AT301" t="n">
         <v>1.31</v>
@@ -63221,7 +63221,7 @@
         <v>0.93</v>
       </c>
       <c r="AS309" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT309" t="n">
         <v>0.88</v>
@@ -64681,22 +64681,1037 @@
         <v>3.85</v>
       </c>
       <c r="BF316" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG316" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH316" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI316" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ316" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK316" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B317" t="n">
+        <v>2710975</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E317" s="2" t="n">
+        <v>45046.46875</v>
+      </c>
+      <c r="F317" t="n">
+        <v>32</v>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>Celta de Vigo</t>
+        </is>
+      </c>
+      <c r="I317" t="n">
+        <v>2</v>
+      </c>
+      <c r="J317" t="n">
+        <v>1</v>
+      </c>
+      <c r="K317" t="n">
         <v>3</v>
       </c>
-      <c r="BG316" t="n">
+      <c r="L317" t="n">
+        <v>3</v>
+      </c>
+      <c r="M317" t="n">
+        <v>1</v>
+      </c>
+      <c r="N317" t="n">
         <v>4</v>
       </c>
-      <c r="BH316" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI316" t="n">
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>['2', '12', '70']</t>
+        </is>
+      </c>
+      <c r="P317" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="Q317" t="n">
+        <v>4</v>
+      </c>
+      <c r="R317" t="n">
+        <v>9</v>
+      </c>
+      <c r="S317" t="n">
+        <v>13</v>
+      </c>
+      <c r="T317" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U317" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V317" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W317" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X317" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Y317" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z317" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA317" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB317" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC317" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD317" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE317" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF317" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG317" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH317" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI317" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ317" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK317" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL317" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM317" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN317" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO317" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP317" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ317" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AR317" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS317" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT317" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU317" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AV317" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW317" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX317" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AY317" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ317" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA317" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB317" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC317" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD317" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE317" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF317" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG317" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH317" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI317" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ317" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK317" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B318" t="n">
+        <v>2710971</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E318" s="2" t="n">
+        <v>45046.5625</v>
+      </c>
+      <c r="F318" t="n">
+        <v>32</v>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>RCD Espanyol</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>Getafe CF</t>
+        </is>
+      </c>
+      <c r="I318" t="n">
+        <v>1</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0</v>
+      </c>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="n">
+        <v>0</v>
+      </c>
+      <c r="N318" t="n">
+        <v>1</v>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P318" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q318" t="n">
+        <v>6</v>
+      </c>
+      <c r="R318" t="n">
+        <v>3</v>
+      </c>
+      <c r="S318" t="n">
+        <v>9</v>
+      </c>
+      <c r="T318" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U318" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V318" t="n">
+        <v>4</v>
+      </c>
+      <c r="W318" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X318" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y318" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Z318" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA318" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB318" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC318" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD318" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE318" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF318" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG318" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH318" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI318" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ318" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK318" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL318" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM318" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN318" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO318" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP318" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ318" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AR318" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS318" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT318" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU318" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV318" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW318" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX318" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY318" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ318" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BA318" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB318" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BC318" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD318" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE318" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF318" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG318" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH318" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI318" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ318" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK318" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B319" t="n">
+        <v>2710974</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E319" s="2" t="n">
+        <v>45046.66666666666</v>
+      </c>
+      <c r="F319" t="n">
+        <v>32</v>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="I319" t="n">
+        <v>1</v>
+      </c>
+      <c r="J319" t="n">
+        <v>3</v>
+      </c>
+      <c r="K319" t="n">
+        <v>4</v>
+      </c>
+      <c r="L319" t="n">
+        <v>2</v>
+      </c>
+      <c r="M319" t="n">
+        <v>5</v>
+      </c>
+      <c r="N319" t="n">
         <v>7</v>
       </c>
-      <c r="BJ316" t="n">
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>['42', '74']</t>
+        </is>
+      </c>
+      <c r="P319" t="inlineStr">
+        <is>
+          <t>['20', '24', '38', '86', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q319" t="n">
+        <v>9</v>
+      </c>
+      <c r="R319" t="n">
+        <v>1</v>
+      </c>
+      <c r="S319" t="n">
+        <v>10</v>
+      </c>
+      <c r="T319" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="U319" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V319" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W319" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X319" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y319" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z319" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA319" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB319" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC319" t="n">
         <v>5</v>
       </c>
-      <c r="BK316" t="n">
+      <c r="AD319" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE319" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AF319" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG319" t="n">
         <v>11</v>
+      </c>
+      <c r="AH319" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI319" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ319" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK319" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL319" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM319" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN319" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AO319" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP319" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ319" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR319" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS319" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT319" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AU319" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV319" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW319" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX319" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AY319" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ319" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BA319" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB319" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC319" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD319" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE319" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF319" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG319" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH319" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI319" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ319" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK319" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B320" t="n">
+        <v>2710973</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E320" s="2" t="n">
+        <v>45047.58333333334</v>
+      </c>
+      <c r="F320" t="n">
+        <v>32</v>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>RCD Mallorca</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Athletic Club Bilbao</t>
+        </is>
+      </c>
+      <c r="I320" t="n">
+        <v>0</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0</v>
+      </c>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="n">
+        <v>1</v>
+      </c>
+      <c r="N320" t="n">
+        <v>2</v>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="Q320" t="n">
+        <v>5</v>
+      </c>
+      <c r="R320" t="n">
+        <v>7</v>
+      </c>
+      <c r="S320" t="n">
+        <v>12</v>
+      </c>
+      <c r="T320" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U320" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V320" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W320" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X320" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y320" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z320" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA320" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB320" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC320" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD320" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE320" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF320" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG320" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AH320" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI320" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ320" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AK320" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL320" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM320" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN320" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO320" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AP320" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ320" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR320" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS320" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT320" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU320" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV320" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW320" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX320" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AY320" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ320" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BA320" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB320" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC320" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BD320" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE320" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BF320" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG320" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH320" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI320" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ320" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK320" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B321" t="n">
+        <v>2710977</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E321" s="2" t="n">
+        <v>45047.66666666666</v>
+      </c>
+      <c r="F321" t="n">
+        <v>32</v>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>Sevilla FC</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Girona FC</t>
+        </is>
+      </c>
+      <c r="I321" t="n">
+        <v>0</v>
+      </c>
+      <c r="J321" t="n">
+        <v>1</v>
+      </c>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="n">
+        <v>0</v>
+      </c>
+      <c r="M321" t="n">
+        <v>2</v>
+      </c>
+      <c r="N321" t="n">
+        <v>2</v>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P321" t="inlineStr">
+        <is>
+          <t>['23', '55']</t>
+        </is>
+      </c>
+      <c r="Q321" t="n">
+        <v>6</v>
+      </c>
+      <c r="R321" t="n">
+        <v>1</v>
+      </c>
+      <c r="S321" t="n">
+        <v>7</v>
+      </c>
+      <c r="T321" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U321" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V321" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W321" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X321" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y321" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z321" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA321" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB321" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC321" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD321" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE321" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF321" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG321" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH321" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI321" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ321" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK321" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL321" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM321" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN321" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO321" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP321" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ321" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR321" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS321" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT321" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU321" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV321" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW321" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX321" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY321" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ321" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="BA321" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB321" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC321" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD321" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BE321" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF321" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG321" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH321" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI321" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ321" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK321" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK321"/>
+  <dimension ref="A1:BK327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.5</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT5" t="n">
         <v>1.06</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT7" t="n">
         <v>0.88</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT10" t="n">
         <v>2.06</v>
@@ -2730,7 +2730,7 @@
         <v>1.75</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.56</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU14" t="n">
         <v>1.45</v>
@@ -3745,7 +3745,7 @@
         <v>1.44</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU16" t="n">
         <v>1.09</v>
@@ -4148,10 +4148,10 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT19" t="n">
         <v>2.31</v>
@@ -4963,7 +4963,7 @@
         <v>1.88</v>
       </c>
       <c r="AT22" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU22" t="n">
         <v>1.7</v>
@@ -5166,7 +5166,7 @@
         <v>1.75</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU23" t="n">
         <v>2.21</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT26" t="n">
         <v>1.19</v>
@@ -5975,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU27" t="n">
         <v>1.13</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT28" t="n">
         <v>0.6899999999999999</v>
@@ -6384,7 +6384,7 @@
         <v>1.06</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU29" t="n">
         <v>1.51</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT31" t="n">
         <v>2.06</v>
@@ -6993,7 +6993,7 @@
         <v>1.44</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU32" t="n">
         <v>1.37</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT35" t="n">
         <v>2.06</v>
@@ -8414,7 +8414,7 @@
         <v>2</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT40" t="n">
         <v>0.6899999999999999</v>
@@ -9832,10 +9832,10 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT46" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU46" t="n">
         <v>1.96</v>
@@ -10441,7 +10441,7 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT49" t="n">
         <v>1.76</v>
@@ -10647,7 +10647,7 @@
         <v>1.75</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU50" t="n">
         <v>1.69</v>
@@ -10847,10 +10847,10 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU51" t="n">
         <v>1.4</v>
@@ -11053,7 +11053,7 @@
         <v>1.5</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU52" t="n">
         <v>1.27</v>
@@ -11456,10 +11456,10 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU54" t="n">
         <v>2.69</v>
@@ -11659,10 +11659,10 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT55" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU55" t="n">
         <v>2.05</v>
@@ -12674,7 +12674,7 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT60" t="n">
         <v>0.88</v>
@@ -12877,10 +12877,10 @@
         <v>3</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU61" t="n">
         <v>1.78</v>
@@ -13286,7 +13286,7 @@
         <v>1.24</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU63" t="n">
         <v>1.06</v>
@@ -13486,7 +13486,7 @@
         <v>0.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT64" t="n">
         <v>0.6899999999999999</v>
@@ -14707,7 +14707,7 @@
         <v>2.31</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU70" t="n">
         <v>2.46</v>
@@ -14910,7 +14910,7 @@
         <v>1.63</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU71" t="n">
         <v>1.8</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT73" t="n">
         <v>1.06</v>
@@ -15516,7 +15516,7 @@
         <v>0.33</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT74" t="n">
         <v>0.88</v>
@@ -15922,10 +15922,10 @@
         <v>3</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU76" t="n">
         <v>1.18</v>
@@ -16531,10 +16531,10 @@
         <v>1.6</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU79" t="n">
         <v>1.66</v>
@@ -16734,10 +16734,10 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT80" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU80" t="n">
         <v>2.92</v>
@@ -17346,7 +17346,7 @@
         <v>1.88</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU83" t="n">
         <v>1.65</v>
@@ -17546,10 +17546,10 @@
         <v>0</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU84" t="n">
         <v>1.91</v>
@@ -18970,7 +18970,7 @@
         <v>2</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU91" t="n">
         <v>2.05</v>
@@ -19373,7 +19373,7 @@
         <v>2.33</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT93" t="n">
         <v>1.44</v>
@@ -19576,7 +19576,7 @@
         <v>0.8</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT94" t="n">
         <v>1.06</v>
@@ -19985,7 +19985,7 @@
         <v>1.5</v>
       </c>
       <c r="AT96" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU96" t="n">
         <v>1.57</v>
@@ -20185,7 +20185,7 @@
         <v>1.25</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT97" t="n">
         <v>0.9399999999999999</v>
@@ -20391,7 +20391,7 @@
         <v>0.63</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU98" t="n">
         <v>1.29</v>
@@ -20591,7 +20591,7 @@
         <v>0.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT99" t="n">
         <v>0.88</v>
@@ -20997,10 +20997,10 @@
         <v>1.33</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU101" t="n">
         <v>2.6</v>
@@ -21203,7 +21203,7 @@
         <v>1.63</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU102" t="n">
         <v>1.89</v>
@@ -21606,7 +21606,7 @@
         <v>1</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT104" t="n">
         <v>0.9399999999999999</v>
@@ -22015,7 +22015,7 @@
         <v>1.06</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU106" t="n">
         <v>1.64</v>
@@ -22421,7 +22421,7 @@
         <v>1.88</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU108" t="n">
         <v>1.88</v>
@@ -22824,7 +22824,7 @@
         <v>2</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT110" t="n">
         <v>1.44</v>
@@ -23433,10 +23433,10 @@
         <v>0.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT113" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU113" t="n">
         <v>1.32</v>
@@ -24042,7 +24042,7 @@
         <v>2.4</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT116" t="n">
         <v>2.31</v>
@@ -24654,7 +24654,7 @@
         <v>1.5</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU119" t="n">
         <v>2.09</v>
@@ -24854,7 +24854,7 @@
         <v>1</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT120" t="n">
         <v>1.31</v>
@@ -25463,10 +25463,10 @@
         <v>0.8</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU123" t="n">
         <v>1.16</v>
@@ -25669,7 +25669,7 @@
         <v>1.5</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU124" t="n">
         <v>1.45</v>
@@ -25872,7 +25872,7 @@
         <v>1.44</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU125" t="n">
         <v>1.57</v>
@@ -26072,7 +26072,7 @@
         <v>0.17</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT126" t="n">
         <v>0.44</v>
@@ -26275,7 +26275,7 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT127" t="n">
         <v>0.88</v>
@@ -26478,7 +26478,7 @@
         <v>1</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT128" t="n">
         <v>0.5600000000000001</v>
@@ -27090,7 +27090,7 @@
         <v>1.63</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU131" t="n">
         <v>2.15</v>
@@ -28102,7 +28102,7 @@
         <v>1.33</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT136" t="n">
         <v>0.6899999999999999</v>
@@ -28308,7 +28308,7 @@
         <v>1.06</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU137" t="n">
         <v>1.64</v>
@@ -28714,7 +28714,7 @@
         <v>1.63</v>
       </c>
       <c r="AT139" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU139" t="n">
         <v>2.14</v>
@@ -28914,7 +28914,7 @@
         <v>1.33</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT140" t="n">
         <v>1.31</v>
@@ -29120,7 +29120,7 @@
         <v>2.31</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU141" t="n">
         <v>2.2</v>
@@ -29726,10 +29726,10 @@
         <v>0.29</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU144" t="n">
         <v>1.77</v>
@@ -29929,7 +29929,7 @@
         <v>1.57</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT145" t="n">
         <v>0.9399999999999999</v>
@@ -30541,7 +30541,7 @@
         <v>1.5</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU148" t="n">
         <v>1.58</v>
@@ -30741,7 +30741,7 @@
         <v>1</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT149" t="n">
         <v>0.88</v>
@@ -30944,10 +30944,10 @@
         <v>1.33</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU150" t="n">
         <v>1.71</v>
@@ -31353,7 +31353,7 @@
         <v>0.63</v>
       </c>
       <c r="AT152" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU152" t="n">
         <v>1.34</v>
@@ -31553,10 +31553,10 @@
         <v>0.71</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU153" t="n">
         <v>1.84</v>
@@ -31759,7 +31759,7 @@
         <v>2</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU154" t="n">
         <v>1.84</v>
@@ -32365,7 +32365,7 @@
         <v>2.14</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT157" t="n">
         <v>1.76</v>
@@ -32974,7 +32974,7 @@
         <v>2.57</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT160" t="n">
         <v>2.31</v>
@@ -33180,7 +33180,7 @@
         <v>1.5</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU161" t="n">
         <v>2.13</v>
@@ -33383,7 +33383,7 @@
         <v>1.44</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU162" t="n">
         <v>1.6</v>
@@ -34192,7 +34192,7 @@
         <v>1.29</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT166" t="n">
         <v>1.44</v>
@@ -34395,7 +34395,7 @@
         <v>1</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT167" t="n">
         <v>0.88</v>
@@ -34598,7 +34598,7 @@
         <v>2</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT168" t="n">
         <v>2.06</v>
@@ -34804,7 +34804,7 @@
         <v>1.24</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU169" t="n">
         <v>1.32</v>
@@ -35007,7 +35007,7 @@
         <v>1.63</v>
       </c>
       <c r="AT170" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU170" t="n">
         <v>1.34</v>
@@ -35613,7 +35613,7 @@
         <v>0.5</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT173" t="n">
         <v>0.6899999999999999</v>
@@ -35819,7 +35819,7 @@
         <v>1.38</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU174" t="n">
         <v>1.68</v>
@@ -36225,7 +36225,7 @@
         <v>0.63</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU176" t="n">
         <v>1.38</v>
@@ -36425,7 +36425,7 @@
         <v>1</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT177" t="n">
         <v>0.6899999999999999</v>
@@ -36631,7 +36631,7 @@
         <v>1.5</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU178" t="n">
         <v>2.08</v>
@@ -36831,7 +36831,7 @@
         <v>0.25</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT179" t="n">
         <v>0.44</v>
@@ -37034,7 +37034,7 @@
         <v>1.22</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT180" t="n">
         <v>0.88</v>
@@ -37646,7 +37646,7 @@
         <v>1.38</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU183" t="n">
         <v>1.8</v>
@@ -37846,7 +37846,7 @@
         <v>1.22</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT184" t="n">
         <v>1.31</v>
@@ -39473,7 +39473,7 @@
         <v>1.5</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU192" t="n">
         <v>2.08</v>
@@ -39676,7 +39676,7 @@
         <v>1.06</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU193" t="n">
         <v>1.59</v>
@@ -39879,7 +39879,7 @@
         <v>0.63</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU194" t="n">
         <v>1.4</v>
@@ -40079,7 +40079,7 @@
         <v>0.89</v>
       </c>
       <c r="AS195" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT195" t="n">
         <v>0.6899999999999999</v>
@@ -40285,7 +40285,7 @@
         <v>1.75</v>
       </c>
       <c r="AT196" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU196" t="n">
         <v>1.51</v>
@@ -40488,7 +40488,7 @@
         <v>1.63</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU197" t="n">
         <v>1.32</v>
@@ -40891,7 +40891,7 @@
         <v>0.44</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT199" t="n">
         <v>0.6899999999999999</v>
@@ -41094,7 +41094,7 @@
         <v>1</v>
       </c>
       <c r="AS200" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT200" t="n">
         <v>1.19</v>
@@ -41703,7 +41703,7 @@
         <v>1.4</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT203" t="n">
         <v>1.31</v>
@@ -42109,7 +42109,7 @@
         <v>1</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT205" t="n">
         <v>1.44</v>
@@ -42312,7 +42312,7 @@
         <v>1.5</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT206" t="n">
         <v>1.06</v>
@@ -42721,7 +42721,7 @@
         <v>1.5</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU208" t="n">
         <v>1.52</v>
@@ -43330,7 +43330,7 @@
         <v>2.31</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU211" t="n">
         <v>2.26</v>
@@ -43733,10 +43733,10 @@
         <v>1</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT213" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU213" t="n">
         <v>1.62</v>
@@ -44142,7 +44142,7 @@
         <v>1.63</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU215" t="n">
         <v>1.27</v>
@@ -44345,7 +44345,7 @@
         <v>1.56</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU216" t="n">
         <v>1.8</v>
@@ -44951,7 +44951,7 @@
         <v>1.2</v>
       </c>
       <c r="AS219" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT219" t="n">
         <v>1.44</v>
@@ -45154,10 +45154,10 @@
         <v>0.8</v>
       </c>
       <c r="AS220" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT220" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU220" t="n">
         <v>2.32</v>
@@ -45357,7 +45357,7 @@
         <v>0.6</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT221" t="n">
         <v>0.5600000000000001</v>
@@ -46372,7 +46372,7 @@
         <v>2.27</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT226" t="n">
         <v>1.76</v>
@@ -46981,7 +46981,7 @@
         <v>2.73</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT229" t="n">
         <v>2.31</v>
@@ -47187,7 +47187,7 @@
         <v>1.38</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU230" t="n">
         <v>1.92</v>
@@ -47590,10 +47590,10 @@
         <v>0.73</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT232" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU232" t="n">
         <v>1.58</v>
@@ -47793,7 +47793,7 @@
         <v>0.82</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT233" t="n">
         <v>0.88</v>
@@ -47996,10 +47996,10 @@
         <v>1</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU234" t="n">
         <v>1.47</v>
@@ -48202,7 +48202,7 @@
         <v>1.63</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU235" t="n">
         <v>1.27</v>
@@ -48402,7 +48402,7 @@
         <v>0.91</v>
       </c>
       <c r="AS236" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT236" t="n">
         <v>1.19</v>
@@ -48808,7 +48808,7 @@
         <v>0.55</v>
       </c>
       <c r="AS238" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT238" t="n">
         <v>0.5600000000000001</v>
@@ -49217,7 +49217,7 @@
         <v>1.75</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU240" t="n">
         <v>1.58</v>
@@ -49420,7 +49420,7 @@
         <v>1.56</v>
       </c>
       <c r="AT241" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU241" t="n">
         <v>1.77</v>
@@ -50432,10 +50432,10 @@
         <v>1.25</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU246" t="n">
         <v>1.78</v>
@@ -51853,10 +51853,10 @@
         <v>0.75</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT253" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU253" t="n">
         <v>1.41</v>
@@ -52262,7 +52262,7 @@
         <v>1.06</v>
       </c>
       <c r="AT255" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU255" t="n">
         <v>1.45</v>
@@ -52462,7 +52462,7 @@
         <v>0.5</v>
       </c>
       <c r="AS256" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT256" t="n">
         <v>0.5600000000000001</v>
@@ -52871,7 +52871,7 @@
         <v>1.56</v>
       </c>
       <c r="AT258" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU258" t="n">
         <v>1.77</v>
@@ -53071,10 +53071,10 @@
         <v>0.5</v>
       </c>
       <c r="AS259" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT259" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU259" t="n">
         <v>1.57</v>
@@ -53274,7 +53274,7 @@
         <v>0.83</v>
       </c>
       <c r="AS260" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT260" t="n">
         <v>1.19</v>
@@ -53477,10 +53477,10 @@
         <v>2.15</v>
       </c>
       <c r="AS261" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT261" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU261" t="n">
         <v>2.17</v>
@@ -53683,7 +53683,7 @@
         <v>1.63</v>
       </c>
       <c r="AT262" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU262" t="n">
         <v>1.24</v>
@@ -55304,7 +55304,7 @@
         <v>1.62</v>
       </c>
       <c r="AS270" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT270" t="n">
         <v>1.31</v>
@@ -55507,7 +55507,7 @@
         <v>1.23</v>
       </c>
       <c r="AS271" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT271" t="n">
         <v>1.06</v>
@@ -55713,7 +55713,7 @@
         <v>1.38</v>
       </c>
       <c r="AT272" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU272" t="n">
         <v>1.98</v>
@@ -55916,7 +55916,7 @@
         <v>1.56</v>
       </c>
       <c r="AT273" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU273" t="n">
         <v>1.74</v>
@@ -56319,7 +56319,7 @@
         <v>0.85</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT275" t="n">
         <v>0.6899999999999999</v>
@@ -56525,7 +56525,7 @@
         <v>2.31</v>
       </c>
       <c r="AT276" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU276" t="n">
         <v>2.46</v>
@@ -56931,7 +56931,7 @@
         <v>1.75</v>
       </c>
       <c r="AT278" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU278" t="n">
         <v>1.52</v>
@@ -57131,7 +57131,7 @@
         <v>0.46</v>
       </c>
       <c r="AS279" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT279" t="n">
         <v>0.5600000000000001</v>
@@ -57537,7 +57537,7 @@
         <v>0.77</v>
       </c>
       <c r="AS281" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT281" t="n">
         <v>0.88</v>
@@ -57743,7 +57743,7 @@
         <v>1.63</v>
       </c>
       <c r="AT282" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU282" t="n">
         <v>1.85</v>
@@ -58555,7 +58555,7 @@
         <v>1.24</v>
       </c>
       <c r="AT286" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU286" t="n">
         <v>1.34</v>
@@ -58758,7 +58758,7 @@
         <v>1.88</v>
       </c>
       <c r="AT287" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU287" t="n">
         <v>1.8</v>
@@ -58958,7 +58958,7 @@
         <v>2.57</v>
       </c>
       <c r="AS288" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT288" t="n">
         <v>2.31</v>
@@ -59161,7 +59161,7 @@
         <v>0.31</v>
       </c>
       <c r="AS289" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT289" t="n">
         <v>0.44</v>
@@ -59364,7 +59364,7 @@
         <v>0.93</v>
       </c>
       <c r="AS290" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT290" t="n">
         <v>1.19</v>
@@ -59773,7 +59773,7 @@
         <v>1.06</v>
       </c>
       <c r="AT292" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU292" t="n">
         <v>1.4</v>
@@ -60176,7 +60176,7 @@
         <v>1.36</v>
       </c>
       <c r="AS294" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT294" t="n">
         <v>1.44</v>
@@ -60379,7 +60379,7 @@
         <v>1.21</v>
       </c>
       <c r="AS295" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT295" t="n">
         <v>1.06</v>
@@ -60788,7 +60788,7 @@
         <v>2.31</v>
       </c>
       <c r="AT297" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU297" t="n">
         <v>2.43</v>
@@ -61191,7 +61191,7 @@
         <v>2.14</v>
       </c>
       <c r="AS299" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT299" t="n">
         <v>2.06</v>
@@ -61600,7 +61600,7 @@
         <v>1.38</v>
       </c>
       <c r="AT301" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU301" t="n">
         <v>1.91</v>
@@ -61803,7 +61803,7 @@
         <v>1.24</v>
       </c>
       <c r="AT302" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AU302" t="n">
         <v>1.33</v>
@@ -62006,7 +62006,7 @@
         <v>1.88</v>
       </c>
       <c r="AT303" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU303" t="n">
         <v>1.78</v>
@@ -62409,7 +62409,7 @@
         <v>0.29</v>
       </c>
       <c r="AS305" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT305" t="n">
         <v>0.44</v>
@@ -62612,7 +62612,7 @@
         <v>1</v>
       </c>
       <c r="AS306" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AT306" t="n">
         <v>0.9399999999999999</v>
@@ -63021,7 +63021,7 @@
         <v>1.44</v>
       </c>
       <c r="AT308" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU308" t="n">
         <v>1.68</v>
@@ -63424,7 +63424,7 @@
         <v>0.73</v>
       </c>
       <c r="AS310" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT310" t="n">
         <v>0.6899999999999999</v>
@@ -64439,7 +64439,7 @@
         <v>1.4</v>
       </c>
       <c r="AS315" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT315" t="n">
         <v>1.31</v>
@@ -64848,7 +64848,7 @@
         <v>2</v>
       </c>
       <c r="AT317" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU317" t="n">
         <v>1.93</v>
@@ -65712,6 +65712,1224 @@
       </c>
       <c r="BK321" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B322" t="n">
+        <v>2710980</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E322" s="2" t="n">
+        <v>45048.60416666666</v>
+      </c>
+      <c r="F322" t="n">
+        <v>33</v>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>CA Osasuna</t>
+        </is>
+      </c>
+      <c r="I322" t="n">
+        <v>0</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0</v>
+      </c>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="n">
+        <v>0</v>
+      </c>
+      <c r="N322" t="n">
+        <v>1</v>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="P322" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q322" t="n">
+        <v>11</v>
+      </c>
+      <c r="R322" t="n">
+        <v>0</v>
+      </c>
+      <c r="S322" t="n">
+        <v>11</v>
+      </c>
+      <c r="T322" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U322" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="V322" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="W322" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X322" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y322" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Z322" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA322" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB322" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC322" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AD322" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="AE322" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="AF322" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG322" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH322" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI322" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ322" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK322" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL322" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AM322" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AN322" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO322" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP322" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="AQ322" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AR322" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS322" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AT322" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AU322" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AV322" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW322" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX322" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AY322" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ322" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BA322" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB322" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC322" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD322" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE322" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF322" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG322" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH322" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI322" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ322" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK322" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B323" t="n">
+        <v>2710983</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E323" s="2" t="n">
+        <v>45048.60416666666</v>
+      </c>
+      <c r="F323" t="n">
+        <v>33</v>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Elche CF</t>
+        </is>
+      </c>
+      <c r="I323" t="n">
+        <v>1</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0</v>
+      </c>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="n">
+        <v>2</v>
+      </c>
+      <c r="M323" t="n">
+        <v>1</v>
+      </c>
+      <c r="N323" t="n">
+        <v>3</v>
+      </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>['22', '52']</t>
+        </is>
+      </c>
+      <c r="P323" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q323" t="n">
+        <v>7</v>
+      </c>
+      <c r="R323" t="n">
+        <v>13</v>
+      </c>
+      <c r="S323" t="n">
+        <v>20</v>
+      </c>
+      <c r="T323" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U323" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V323" t="n">
+        <v>5</v>
+      </c>
+      <c r="W323" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X323" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y323" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z323" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA323" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB323" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC323" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AD323" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AE323" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="AF323" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG323" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH323" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI323" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ323" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK323" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL323" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM323" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN323" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO323" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP323" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ323" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR323" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS323" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT323" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AU323" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV323" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AW323" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX323" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY323" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ323" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BA323" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB323" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC323" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BD323" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE323" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF323" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG323" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH323" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI323" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ323" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK323" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B324" t="n">
+        <v>2710987</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E324" s="2" t="n">
+        <v>45048.70833333334</v>
+      </c>
+      <c r="F324" t="n">
+        <v>33</v>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="I324" t="n">
+        <v>0</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0</v>
+      </c>
+      <c r="L324" t="n">
+        <v>2</v>
+      </c>
+      <c r="M324" t="n">
+        <v>0</v>
+      </c>
+      <c r="N324" t="n">
+        <v>2</v>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>['47', '85']</t>
+        </is>
+      </c>
+      <c r="P324" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q324" t="n">
+        <v>2</v>
+      </c>
+      <c r="R324" t="n">
+        <v>6</v>
+      </c>
+      <c r="S324" t="n">
+        <v>8</v>
+      </c>
+      <c r="T324" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U324" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V324" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="W324" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X324" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Y324" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Z324" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA324" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB324" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC324" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AD324" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE324" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AF324" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG324" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH324" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI324" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ324" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK324" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL324" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM324" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN324" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO324" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP324" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ324" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AR324" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AS324" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AT324" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AU324" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV324" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AW324" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AX324" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AY324" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ324" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA324" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB324" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC324" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD324" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE324" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BF324" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG324" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH324" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI324" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ324" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK324" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B325" t="n">
+        <v>2710981</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E325" s="2" t="n">
+        <v>45049.60416666666</v>
+      </c>
+      <c r="F325" t="n">
+        <v>33</v>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>Valencia CF</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="I325" t="n">
+        <v>0</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0</v>
+      </c>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="n">
+        <v>1</v>
+      </c>
+      <c r="N325" t="n">
+        <v>2</v>
+      </c>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P325" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q325" t="n">
+        <v>6</v>
+      </c>
+      <c r="R325" t="n">
+        <v>6</v>
+      </c>
+      <c r="S325" t="n">
+        <v>12</v>
+      </c>
+      <c r="T325" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U325" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V325" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W325" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X325" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y325" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z325" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA325" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB325" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC325" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD325" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE325" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF325" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG325" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH325" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI325" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ325" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK325" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL325" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM325" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN325" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO325" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP325" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ325" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR325" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS325" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT325" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU325" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV325" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW325" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX325" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY325" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ325" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BA325" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB325" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC325" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD325" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE325" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF325" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG325" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH325" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI325" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ325" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK325" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B326" t="n">
+        <v>2710979</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E326" s="2" t="n">
+        <v>45049.70833333334</v>
+      </c>
+      <c r="F326" t="n">
+        <v>33</v>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="I326" t="n">
+        <v>2</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0</v>
+      </c>
+      <c r="K326" t="n">
+        <v>2</v>
+      </c>
+      <c r="L326" t="n">
+        <v>5</v>
+      </c>
+      <c r="M326" t="n">
+        <v>1</v>
+      </c>
+      <c r="N326" t="n">
+        <v>6</v>
+      </c>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>['2', '27', '49', '57', '73']</t>
+        </is>
+      </c>
+      <c r="P326" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="Q326" t="n">
+        <v>5</v>
+      </c>
+      <c r="R326" t="n">
+        <v>2</v>
+      </c>
+      <c r="S326" t="n">
+        <v>7</v>
+      </c>
+      <c r="T326" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U326" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V326" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W326" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X326" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y326" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z326" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA326" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB326" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC326" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AD326" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AE326" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF326" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG326" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH326" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI326" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ326" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK326" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL326" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM326" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN326" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO326" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP326" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AQ326" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AR326" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS326" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AT326" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU326" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV326" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW326" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX326" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AY326" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ326" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BA326" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB326" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC326" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BD326" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE326" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF326" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG326" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH326" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI326" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ326" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK326" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B327" t="n">
+        <v>2710985</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E327" s="2" t="n">
+        <v>45049.70833333334</v>
+      </c>
+      <c r="F327" t="n">
+        <v>33</v>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>Getafe CF</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>Celta de Vigo</t>
+        </is>
+      </c>
+      <c r="I327" t="n">
+        <v>1</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0</v>
+      </c>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="n">
+        <v>0</v>
+      </c>
+      <c r="N327" t="n">
+        <v>1</v>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="P327" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q327" t="n">
+        <v>1</v>
+      </c>
+      <c r="R327" t="n">
+        <v>5</v>
+      </c>
+      <c r="S327" t="n">
+        <v>6</v>
+      </c>
+      <c r="T327" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U327" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V327" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W327" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X327" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y327" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z327" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA327" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB327" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC327" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD327" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE327" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF327" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG327" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH327" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI327" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ327" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK327" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AL327" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM327" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN327" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO327" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP327" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ327" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR327" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS327" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT327" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU327" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV327" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW327" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX327" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AY327" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ327" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA327" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB327" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC327" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD327" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BE327" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF327" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG327" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH327" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI327" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ327" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK327" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK327"/>
+  <dimension ref="A1:BK331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.44</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.63</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT17" t="n">
         <v>0.5600000000000001</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT21" t="n">
         <v>0.6899999999999999</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT22" t="n">
         <v>0.9399999999999999</v>
@@ -5569,10 +5569,10 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>2.65</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU28" t="n">
         <v>2.46</v>
@@ -7399,7 +7399,7 @@
         <v>2.31</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU34" t="n">
         <v>0</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT36" t="n">
         <v>2.31</v>
@@ -8208,10 +8208,10 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU38" t="n">
         <v>2.14</v>
@@ -9020,10 +9020,10 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU42" t="n">
         <v>1.59</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT43" t="n">
         <v>0.5600000000000001</v>
@@ -10038,7 +10038,7 @@
         <v>2.31</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU47" t="n">
         <v>2.24</v>
@@ -11862,7 +11862,7 @@
         <v>1.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT56" t="n">
         <v>1.06</v>
@@ -12677,7 +12677,7 @@
         <v>1.94</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU60" t="n">
         <v>1.62</v>
@@ -13080,7 +13080,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT62" t="n">
         <v>0.44</v>
@@ -13489,7 +13489,7 @@
         <v>1.35</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU64" t="n">
         <v>1.02</v>
@@ -13689,7 +13689,7 @@
         <v>2.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT65" t="n">
         <v>2.06</v>
@@ -14301,7 +14301,7 @@
         <v>1.44</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU68" t="n">
         <v>1.34</v>
@@ -14501,7 +14501,7 @@
         <v>2</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT69" t="n">
         <v>1.76</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT71" t="n">
         <v>0.35</v>
@@ -15719,7 +15719,7 @@
         <v>3</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT75" t="n">
         <v>1.44</v>
@@ -16128,7 +16128,7 @@
         <v>1.5</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU77" t="n">
         <v>1.57</v>
@@ -16331,7 +16331,7 @@
         <v>1.24</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU78" t="n">
         <v>1.08</v>
@@ -16940,7 +16940,7 @@
         <v>0.63</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU81" t="n">
         <v>1.41</v>
@@ -17140,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT82" t="n">
         <v>0.6899999999999999</v>
@@ -17343,7 +17343,7 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT83" t="n">
         <v>0.88</v>
@@ -17952,7 +17952,7 @@
         <v>2.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT86" t="n">
         <v>2.06</v>
@@ -18564,7 +18564,7 @@
         <v>1.06</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU89" t="n">
         <v>1.66</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT92" t="n">
         <v>0.5600000000000001</v>
@@ -19782,7 +19782,7 @@
         <v>1.24</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU95" t="n">
         <v>1.14</v>
@@ -20188,7 +20188,7 @@
         <v>1.94</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU97" t="n">
         <v>1.7</v>
@@ -20797,7 +20797,7 @@
         <v>1.56</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU100" t="n">
         <v>1.63</v>
@@ -21200,7 +21200,7 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT102" t="n">
         <v>0.88</v>
@@ -21609,7 +21609,7 @@
         <v>1.47</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU104" t="n">
         <v>2.02</v>
@@ -22418,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT108" t="n">
         <v>1.12</v>
@@ -23233,7 +23233,7 @@
         <v>1.63</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU112" t="n">
         <v>1.29</v>
@@ -23839,7 +23839,7 @@
         <v>0.83</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT115" t="n">
         <v>1.06</v>
@@ -24248,7 +24248,7 @@
         <v>1.56</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU117" t="n">
         <v>1.71</v>
@@ -24651,7 +24651,7 @@
         <v>1.14</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT119" t="n">
         <v>1.29</v>
@@ -24857,7 +24857,7 @@
         <v>1.94</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU120" t="n">
         <v>1.75</v>
@@ -25260,7 +25260,7 @@
         <v>1.6</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT122" t="n">
         <v>1.44</v>
@@ -26278,7 +26278,7 @@
         <v>2.12</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU127" t="n">
         <v>1.64</v>
@@ -26684,7 +26684,7 @@
         <v>2</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU129" t="n">
         <v>1.91</v>
@@ -27087,7 +27087,7 @@
         <v>3</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT131" t="n">
         <v>1.82</v>
@@ -27493,10 +27493,10 @@
         <v>0.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU133" t="n">
         <v>2.13</v>
@@ -27899,7 +27899,7 @@
         <v>2</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT135" t="n">
         <v>1.76</v>
@@ -28711,7 +28711,7 @@
         <v>0.5</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT139" t="n">
         <v>0.9399999999999999</v>
@@ -28917,7 +28917,7 @@
         <v>1.47</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU140" t="n">
         <v>1.82</v>
@@ -29320,7 +29320,7 @@
         <v>1.14</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT142" t="n">
         <v>1.06</v>
@@ -29932,7 +29932,7 @@
         <v>1.35</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU145" t="n">
         <v>1.21</v>
@@ -30744,7 +30744,7 @@
         <v>2.65</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU149" t="n">
         <v>2.45</v>
@@ -31962,7 +31962,7 @@
         <v>1.63</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU155" t="n">
         <v>1.31</v>
@@ -32568,10 +32568,10 @@
         <v>1.14</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU158" t="n">
         <v>2.04</v>
@@ -32771,7 +32771,7 @@
         <v>1.14</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT159" t="n">
         <v>0.6899999999999999</v>
@@ -33177,7 +33177,7 @@
         <v>1.14</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT161" t="n">
         <v>1.12</v>
@@ -33786,7 +33786,7 @@
         <v>1.13</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT164" t="n">
         <v>1.19</v>
@@ -33992,7 +33992,7 @@
         <v>1.56</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU165" t="n">
         <v>1.83</v>
@@ -34398,7 +34398,7 @@
         <v>1.35</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU167" t="n">
         <v>1.2</v>
@@ -35207,7 +35207,7 @@
         <v>2.25</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT171" t="n">
         <v>1.76</v>
@@ -35413,7 +35413,7 @@
         <v>1.06</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU172" t="n">
         <v>1.65</v>
@@ -35616,7 +35616,7 @@
         <v>2.12</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU173" t="n">
         <v>1.79</v>
@@ -35816,7 +35816,7 @@
         <v>1</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT174" t="n">
         <v>0.88</v>
@@ -36628,7 +36628,7 @@
         <v>2.33</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT178" t="n">
         <v>1.82</v>
@@ -37037,7 +37037,7 @@
         <v>1.71</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU180" t="n">
         <v>1.37</v>
@@ -37240,7 +37240,7 @@
         <v>1.24</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU181" t="n">
         <v>1.35</v>
@@ -37440,7 +37440,7 @@
         <v>2.63</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT182" t="n">
         <v>2.31</v>
@@ -37643,7 +37643,7 @@
         <v>0.33</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT183" t="n">
         <v>0.35</v>
@@ -37849,7 +37849,7 @@
         <v>1.35</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU184" t="n">
         <v>1.22</v>
@@ -39470,7 +39470,7 @@
         <v>0.89</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT192" t="n">
         <v>0.88</v>
@@ -40688,7 +40688,7 @@
         <v>0.67</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT198" t="n">
         <v>0.5600000000000001</v>
@@ -40894,7 +40894,7 @@
         <v>1.94</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU199" t="n">
         <v>1.62</v>
@@ -41297,7 +41297,7 @@
         <v>0.33</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT201" t="n">
         <v>0.44</v>
@@ -41706,7 +41706,7 @@
         <v>1.71</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU203" t="n">
         <v>1.42</v>
@@ -41906,10 +41906,10 @@
         <v>1.1</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU204" t="n">
         <v>1.9</v>
@@ -43530,7 +43530,7 @@
         <v>0.3</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT212" t="n">
         <v>0.44</v>
@@ -43939,7 +43939,7 @@
         <v>1.75</v>
       </c>
       <c r="AT214" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU214" t="n">
         <v>1.54</v>
@@ -44548,7 +44548,7 @@
         <v>0.63</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU217" t="n">
         <v>1.47</v>
@@ -44748,7 +44748,7 @@
         <v>0.9</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT218" t="n">
         <v>1.19</v>
@@ -45563,7 +45563,7 @@
         <v>0.63</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU222" t="n">
         <v>1.47</v>
@@ -45766,7 +45766,7 @@
         <v>1.06</v>
       </c>
       <c r="AT223" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU223" t="n">
         <v>1.48</v>
@@ -46575,7 +46575,7 @@
         <v>0.6</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT227" t="n">
         <v>0.88</v>
@@ -46781,7 +46781,7 @@
         <v>1.44</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU228" t="n">
         <v>1.65</v>
@@ -47184,7 +47184,7 @@
         <v>1.09</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT230" t="n">
         <v>1.12</v>
@@ -48608,7 +48608,7 @@
         <v>1.5</v>
       </c>
       <c r="AT237" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU237" t="n">
         <v>1.55</v>
@@ -49011,7 +49011,7 @@
         <v>1.09</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT239" t="n">
         <v>1.44</v>
@@ -49826,7 +49826,7 @@
         <v>2.31</v>
       </c>
       <c r="AT243" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU243" t="n">
         <v>2.36</v>
@@ -50029,7 +50029,7 @@
         <v>0.63</v>
       </c>
       <c r="AT244" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU244" t="n">
         <v>1.42</v>
@@ -50838,7 +50838,7 @@
         <v>0.27</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT248" t="n">
         <v>0.44</v>
@@ -51044,7 +51044,7 @@
         <v>2</v>
       </c>
       <c r="AT249" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU249" t="n">
         <v>1.84</v>
@@ -51244,7 +51244,7 @@
         <v>2.5</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT250" t="n">
         <v>2.31</v>
@@ -51447,7 +51447,7 @@
         <v>2</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT251" t="n">
         <v>2.06</v>
@@ -52056,7 +52056,7 @@
         <v>0.75</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT254" t="n">
         <v>0.88</v>
@@ -52668,7 +52668,7 @@
         <v>1.75</v>
       </c>
       <c r="AT257" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU257" t="n">
         <v>1.55</v>
@@ -53883,10 +53883,10 @@
         <v>1.08</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT263" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU263" t="n">
         <v>1.83</v>
@@ -54086,7 +54086,7 @@
         <v>0.83</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT264" t="n">
         <v>0.6899999999999999</v>
@@ -54901,7 +54901,7 @@
         <v>2.31</v>
       </c>
       <c r="AT268" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU268" t="n">
         <v>2.39</v>
@@ -55307,7 +55307,7 @@
         <v>2.12</v>
       </c>
       <c r="AT270" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU270" t="n">
         <v>1.82</v>
@@ -55710,7 +55710,7 @@
         <v>1.15</v>
       </c>
       <c r="AS272" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT272" t="n">
         <v>0.9399999999999999</v>
@@ -56728,7 +56728,7 @@
         <v>1.5</v>
       </c>
       <c r="AT277" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU277" t="n">
         <v>1.55</v>
@@ -57334,7 +57334,7 @@
         <v>2.08</v>
       </c>
       <c r="AS280" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT280" t="n">
         <v>2.06</v>
@@ -57740,7 +57740,7 @@
         <v>1.14</v>
       </c>
       <c r="AS282" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT282" t="n">
         <v>1.12</v>
@@ -57946,7 +57946,7 @@
         <v>2</v>
       </c>
       <c r="AT283" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU283" t="n">
         <v>1.77</v>
@@ -58146,7 +58146,7 @@
         <v>1.86</v>
       </c>
       <c r="AS284" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT284" t="n">
         <v>1.76</v>
@@ -58352,7 +58352,7 @@
         <v>1.75</v>
       </c>
       <c r="AT285" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU285" t="n">
         <v>1.48</v>
@@ -58755,7 +58755,7 @@
         <v>0.43</v>
       </c>
       <c r="AS287" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT287" t="n">
         <v>0.35</v>
@@ -59570,7 +59570,7 @@
         <v>1.44</v>
       </c>
       <c r="AT291" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU291" t="n">
         <v>1.7</v>
@@ -59976,7 +59976,7 @@
         <v>1.56</v>
       </c>
       <c r="AT293" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU293" t="n">
         <v>1.8</v>
@@ -61597,7 +61597,7 @@
         <v>1.4</v>
       </c>
       <c r="AS301" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT301" t="n">
         <v>1.29</v>
@@ -62003,7 +62003,7 @@
         <v>2.07</v>
       </c>
       <c r="AS303" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT303" t="n">
         <v>1.82</v>
@@ -62615,7 +62615,7 @@
         <v>2.12</v>
       </c>
       <c r="AT306" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="AU306" t="n">
         <v>1.88</v>
@@ -62815,7 +62815,7 @@
         <v>2.47</v>
       </c>
       <c r="AS307" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT307" t="n">
         <v>2.31</v>
@@ -63224,7 +63224,7 @@
         <v>2</v>
       </c>
       <c r="AT309" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU309" t="n">
         <v>1.85</v>
@@ -63427,7 +63427,7 @@
         <v>1.47</v>
       </c>
       <c r="AT310" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU310" t="n">
         <v>1.76</v>
@@ -63627,7 +63627,7 @@
         <v>1.07</v>
       </c>
       <c r="AS311" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT311" t="n">
         <v>1.19</v>
@@ -64442,7 +64442,7 @@
         <v>2.65</v>
       </c>
       <c r="AT315" t="n">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AU315" t="n">
         <v>2.12</v>
@@ -65657,7 +65657,7 @@
         <v>0.73</v>
       </c>
       <c r="AS321" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT321" t="n">
         <v>0.88</v>
@@ -66930,6 +66930,818 @@
       </c>
       <c r="BK327" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B328" t="n">
+        <v>2710984</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E328" s="2" t="n">
+        <v>45050.60416666666</v>
+      </c>
+      <c r="F328" t="n">
+        <v>33</v>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>Girona FC</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>RCD Mallorca</t>
+        </is>
+      </c>
+      <c r="I328" t="n">
+        <v>1</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0</v>
+      </c>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="n">
+        <v>2</v>
+      </c>
+      <c r="M328" t="n">
+        <v>1</v>
+      </c>
+      <c r="N328" t="n">
+        <v>3</v>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>['45+2', '84']</t>
+        </is>
+      </c>
+      <c r="P328" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q328" t="n">
+        <v>9</v>
+      </c>
+      <c r="R328" t="n">
+        <v>5</v>
+      </c>
+      <c r="S328" t="n">
+        <v>14</v>
+      </c>
+      <c r="T328" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U328" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V328" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W328" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X328" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y328" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z328" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA328" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB328" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC328" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AD328" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AE328" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="AF328" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG328" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH328" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI328" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ328" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AK328" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL328" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM328" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN328" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO328" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP328" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ328" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR328" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS328" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AT328" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU328" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV328" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW328" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX328" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY328" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ328" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BA328" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB328" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BC328" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD328" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE328" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF328" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG328" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH328" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI328" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ328" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK328" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B329" t="n">
+        <v>2710986</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E329" s="2" t="n">
+        <v>45050.60416666666</v>
+      </c>
+      <c r="F329" t="n">
+        <v>33</v>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>Sevilla FC</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>RCD Espanyol</t>
+        </is>
+      </c>
+      <c r="I329" t="n">
+        <v>1</v>
+      </c>
+      <c r="J329" t="n">
+        <v>2</v>
+      </c>
+      <c r="K329" t="n">
+        <v>3</v>
+      </c>
+      <c r="L329" t="n">
+        <v>3</v>
+      </c>
+      <c r="M329" t="n">
+        <v>2</v>
+      </c>
+      <c r="N329" t="n">
+        <v>5</v>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>['22', '69', '88']</t>
+        </is>
+      </c>
+      <c r="P329" t="inlineStr">
+        <is>
+          <t>['29', '43']</t>
+        </is>
+      </c>
+      <c r="Q329" t="n">
+        <v>9</v>
+      </c>
+      <c r="R329" t="n">
+        <v>0</v>
+      </c>
+      <c r="S329" t="n">
+        <v>9</v>
+      </c>
+      <c r="T329" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U329" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V329" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W329" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X329" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Y329" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Z329" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA329" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB329" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC329" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AD329" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AE329" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="AF329" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG329" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH329" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI329" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ329" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK329" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AL329" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM329" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN329" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO329" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP329" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ329" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR329" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS329" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT329" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU329" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV329" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW329" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX329" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY329" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ329" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA329" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB329" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC329" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD329" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE329" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF329" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG329" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH329" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI329" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ329" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK329" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B330" t="n">
+        <v>2710978</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E330" s="2" t="n">
+        <v>45050.70833333334</v>
+      </c>
+      <c r="F330" t="n">
+        <v>33</v>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>Athletic Club Bilbao</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="I330" t="n">
+        <v>0</v>
+      </c>
+      <c r="J330" t="n">
+        <v>1</v>
+      </c>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
+      <c r="L330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M330" t="n">
+        <v>1</v>
+      </c>
+      <c r="N330" t="n">
+        <v>1</v>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P330" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="Q330" t="n">
+        <v>13</v>
+      </c>
+      <c r="R330" t="n">
+        <v>2</v>
+      </c>
+      <c r="S330" t="n">
+        <v>15</v>
+      </c>
+      <c r="T330" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="U330" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V330" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="W330" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X330" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y330" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z330" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA330" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB330" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC330" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AD330" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE330" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AF330" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG330" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH330" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI330" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ330" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK330" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL330" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM330" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AN330" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO330" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP330" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ330" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR330" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS330" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT330" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AU330" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AV330" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW330" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX330" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY330" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ330" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BA330" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB330" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC330" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD330" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE330" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF330" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG330" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH330" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI330" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ330" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK330" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B331" t="n">
+        <v>2710982</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E331" s="2" t="n">
+        <v>45050.70833333334</v>
+      </c>
+      <c r="F331" t="n">
+        <v>33</v>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="I331" t="n">
+        <v>0</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0</v>
+      </c>
+      <c r="L331" t="n">
+        <v>2</v>
+      </c>
+      <c r="M331" t="n">
+        <v>1</v>
+      </c>
+      <c r="N331" t="n">
+        <v>3</v>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>['48', '80']</t>
+        </is>
+      </c>
+      <c r="P331" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q331" t="n">
+        <v>3</v>
+      </c>
+      <c r="R331" t="n">
+        <v>4</v>
+      </c>
+      <c r="S331" t="n">
+        <v>7</v>
+      </c>
+      <c r="T331" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U331" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="V331" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="W331" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X331" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y331" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Z331" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA331" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB331" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC331" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AD331" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE331" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AF331" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG331" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH331" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI331" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ331" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK331" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL331" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM331" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN331" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO331" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP331" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AQ331" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR331" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS331" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT331" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AU331" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV331" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW331" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX331" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY331" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ331" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA331" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB331" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC331" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD331" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE331" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BF331" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG331" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH331" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI331" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ331" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK331" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK331"/>
+  <dimension ref="A1:BK333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3339,7 +3339,7 @@
         <v>1.56</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU14" t="n">
         <v>1.45</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT15" t="n">
         <v>1.41</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT19" t="n">
         <v>2.31</v>
@@ -6993,7 +6993,7 @@
         <v>1.44</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU32" t="n">
         <v>1.37</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT33" t="n">
         <v>0.88</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT35" t="n">
         <v>2.06</v>
@@ -11053,7 +11053,7 @@
         <v>1.5</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU52" t="n">
         <v>1.27</v>
@@ -11253,7 +11253,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT53" t="n">
         <v>0.44</v>
@@ -12674,7 +12674,7 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT60" t="n">
         <v>0.82</v>
@@ -13892,7 +13892,7 @@
         <v>3</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT66" t="n">
         <v>2.31</v>
@@ -16531,7 +16531,7 @@
         <v>1.6</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT79" t="n">
         <v>1.29</v>
@@ -17346,7 +17346,7 @@
         <v>1.94</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU83" t="n">
         <v>1.65</v>
@@ -17749,7 +17749,7 @@
         <v>1</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT85" t="n">
         <v>1.19</v>
@@ -20185,7 +20185,7 @@
         <v>1.25</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT97" t="n">
         <v>0.88</v>
@@ -21203,7 +21203,7 @@
         <v>1.71</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU102" t="n">
         <v>1.89</v>
@@ -23230,7 +23230,7 @@
         <v>1</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT112" t="n">
         <v>0.82</v>
@@ -24854,7 +24854,7 @@
         <v>1</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT120" t="n">
         <v>1.41</v>
@@ -25466,7 +25466,7 @@
         <v>1.35</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU123" t="n">
         <v>1.16</v>
@@ -26478,7 +26478,7 @@
         <v>1</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT128" t="n">
         <v>0.5600000000000001</v>
@@ -28508,7 +28508,7 @@
         <v>2.29</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT138" t="n">
         <v>2.06</v>
@@ -29120,7 +29120,7 @@
         <v>2.31</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU141" t="n">
         <v>2.2</v>
@@ -30944,7 +30944,7 @@
         <v>1.33</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT150" t="n">
         <v>1.12</v>
@@ -31556,7 +31556,7 @@
         <v>1.47</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU153" t="n">
         <v>1.84</v>
@@ -31959,7 +31959,7 @@
         <v>0.57</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT155" t="n">
         <v>0.65</v>
@@ -34192,7 +34192,7 @@
         <v>1.29</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT166" t="n">
         <v>1.44</v>
@@ -35004,7 +35004,7 @@
         <v>0.88</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT170" t="n">
         <v>0.9399999999999999</v>
@@ -35819,7 +35819,7 @@
         <v>1.47</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU174" t="n">
         <v>1.68</v>
@@ -39473,7 +39473,7 @@
         <v>1.41</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU192" t="n">
         <v>2.08</v>
@@ -40485,7 +40485,7 @@
         <v>2.4</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT197" t="n">
         <v>1.82</v>
@@ -40891,7 +40891,7 @@
         <v>0.44</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT199" t="n">
         <v>0.65</v>
@@ -43733,7 +43733,7 @@
         <v>1</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT213" t="n">
         <v>0.9399999999999999</v>
@@ -44139,7 +44139,7 @@
         <v>1.09</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT215" t="n">
         <v>1.29</v>
@@ -45157,7 +45157,7 @@
         <v>2.65</v>
       </c>
       <c r="AT220" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU220" t="n">
         <v>2.32</v>
@@ -47590,10 +47590,10 @@
         <v>0.73</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT232" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU232" t="n">
         <v>1.58</v>
@@ -48199,7 +48199,7 @@
         <v>0.27</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT235" t="n">
         <v>0.35</v>
@@ -50635,7 +50635,7 @@
         <v>2.08</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT247" t="n">
         <v>1.76</v>
@@ -51856,7 +51856,7 @@
         <v>1.71</v>
       </c>
       <c r="AT253" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU253" t="n">
         <v>1.41</v>
@@ -53071,7 +53071,7 @@
         <v>0.5</v>
       </c>
       <c r="AS259" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT259" t="n">
         <v>0.35</v>
@@ -53680,7 +53680,7 @@
         <v>1.15</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT262" t="n">
         <v>1.12</v>
@@ -56319,7 +56319,7 @@
         <v>0.85</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT275" t="n">
         <v>0.6899999999999999</v>
@@ -56931,7 +56931,7 @@
         <v>1.75</v>
       </c>
       <c r="AT278" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU278" t="n">
         <v>1.52</v>
@@ -59773,7 +59773,7 @@
         <v>1.06</v>
       </c>
       <c r="AT292" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU292" t="n">
         <v>1.4</v>
@@ -60379,7 +60379,7 @@
         <v>1.21</v>
       </c>
       <c r="AS295" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT295" t="n">
         <v>1.06</v>
@@ -61394,7 +61394,7 @@
         <v>0.79</v>
       </c>
       <c r="AS300" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT300" t="n">
         <v>0.6899999999999999</v>
@@ -65454,7 +65454,7 @@
         <v>1.47</v>
       </c>
       <c r="AS320" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT320" t="n">
         <v>1.44</v>
@@ -66266,7 +66266,7 @@
         <v>1.94</v>
       </c>
       <c r="AS324" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT324" t="n">
         <v>1.82</v>
@@ -66675,7 +66675,7 @@
         <v>2.12</v>
       </c>
       <c r="AT326" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU326" t="n">
         <v>1.92</v>
@@ -67742,6 +67742,412 @@
       </c>
       <c r="BK331" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B332" t="n">
+        <v>2710994</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E332" s="2" t="n">
+        <v>45058.66666666666</v>
+      </c>
+      <c r="F332" t="n">
+        <v>34</v>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>RCD Mallorca</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="I332" t="n">
+        <v>1</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0</v>
+      </c>
+      <c r="K332" t="n">
+        <v>1</v>
+      </c>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N332" t="n">
+        <v>1</v>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="P332" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q332" t="n">
+        <v>3</v>
+      </c>
+      <c r="R332" t="n">
+        <v>7</v>
+      </c>
+      <c r="S332" t="n">
+        <v>10</v>
+      </c>
+      <c r="T332" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U332" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V332" t="n">
+        <v>5</v>
+      </c>
+      <c r="W332" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X332" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y332" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z332" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA332" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB332" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC332" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AD332" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE332" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AF332" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AG332" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH332" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI332" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ332" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AK332" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL332" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM332" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN332" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO332" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP332" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ332" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR332" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS332" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT332" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU332" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV332" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW332" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AX332" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY332" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ332" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA332" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB332" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC332" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD332" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE332" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF332" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG332" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH332" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI332" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ332" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK332" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B333" t="n">
+        <v>2710997</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E333" s="2" t="n">
+        <v>45059.375</v>
+      </c>
+      <c r="F333" t="n">
+        <v>34</v>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Girona FC</t>
+        </is>
+      </c>
+      <c r="I333" t="n">
+        <v>2</v>
+      </c>
+      <c r="J333" t="n">
+        <v>2</v>
+      </c>
+      <c r="K333" t="n">
+        <v>4</v>
+      </c>
+      <c r="L333" t="n">
+        <v>2</v>
+      </c>
+      <c r="M333" t="n">
+        <v>2</v>
+      </c>
+      <c r="N333" t="n">
+        <v>4</v>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>['5', '24']</t>
+        </is>
+      </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>['37', '45+3']</t>
+        </is>
+      </c>
+      <c r="Q333" t="n">
+        <v>7</v>
+      </c>
+      <c r="R333" t="n">
+        <v>4</v>
+      </c>
+      <c r="S333" t="n">
+        <v>11</v>
+      </c>
+      <c r="T333" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U333" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V333" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W333" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X333" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y333" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z333" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA333" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB333" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC333" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AD333" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE333" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AF333" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG333" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH333" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI333" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ333" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK333" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL333" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM333" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN333" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO333" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP333" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ333" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AR333" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS333" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT333" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU333" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV333" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW333" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX333" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY333" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ333" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA333" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB333" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC333" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD333" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE333" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF333" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG333" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH333" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI333" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ333" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK333" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK333"/>
+  <dimension ref="A1:BK341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT3" t="n">
         <v>0.82</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT4" t="n">
         <v>1.29</v>
@@ -1512,7 +1512,7 @@
         <v>2.65</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.35</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT11" t="n">
         <v>0.35</v>
@@ -2930,10 +2930,10 @@
         <v>1</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT14" t="n">
         <v>0.82</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT16" t="n">
         <v>1.82</v>
@@ -3948,7 +3948,7 @@
         <v>1.41</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU17" t="n">
         <v>2.62</v>
@@ -4354,7 +4354,7 @@
         <v>1.88</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.94</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT23" t="n">
         <v>1.12</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT24" t="n">
         <v>1.76</v>
@@ -5775,7 +5775,7 @@
         <v>1.71</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU26" t="n">
         <v>1.31</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT29" t="n">
         <v>1.82</v>
@@ -6587,7 +6587,7 @@
         <v>1.24</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU30" t="n">
         <v>1.1</v>
@@ -6790,7 +6790,7 @@
         <v>1.47</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU31" t="n">
         <v>1.68</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT32" t="n">
         <v>0.82</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT34" t="n">
         <v>1.41</v>
@@ -7602,7 +7602,7 @@
         <v>1.88</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU35" t="n">
         <v>1.54</v>
@@ -7805,7 +7805,7 @@
         <v>1.47</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU36" t="n">
         <v>2.23</v>
@@ -8005,10 +8005,10 @@
         <v>2</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU37" t="n">
         <v>1.69</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT39" t="n">
         <v>0.35</v>
@@ -8617,7 +8617,7 @@
         <v>1.47</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU40" t="n">
         <v>1.71</v>
@@ -8817,10 +8817,10 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU41" t="n">
         <v>1.67</v>
@@ -9226,7 +9226,7 @@
         <v>1.71</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU43" t="n">
         <v>1.56</v>
@@ -9426,10 +9426,10 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU44" t="n">
         <v>1.52</v>
@@ -9632,7 +9632,7 @@
         <v>1.24</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU45" t="n">
         <v>1.15</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT47" t="n">
         <v>0.88</v>
@@ -10238,10 +10238,10 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU48" t="n">
         <v>1.59</v>
@@ -10644,7 +10644,7 @@
         <v>2.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT50" t="n">
         <v>1.29</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT52" t="n">
         <v>0.82</v>
@@ -11256,7 +11256,7 @@
         <v>1.71</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU53" t="n">
         <v>1.46</v>
@@ -11865,7 +11865,7 @@
         <v>1.41</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU56" t="n">
         <v>2.1</v>
@@ -12065,10 +12065,10 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU57" t="n">
         <v>1.76</v>
@@ -12268,10 +12268,10 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU58" t="n">
         <v>2.19</v>
@@ -12471,7 +12471,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT59" t="n">
         <v>0.88</v>
@@ -13083,7 +13083,7 @@
         <v>1.41</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU62" t="n">
         <v>2.11</v>
@@ -13692,7 +13692,7 @@
         <v>1.47</v>
       </c>
       <c r="AT65" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU65" t="n">
         <v>2.05</v>
@@ -13895,7 +13895,7 @@
         <v>1.71</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU66" t="n">
         <v>1.23</v>
@@ -14095,10 +14095,10 @@
         <v>0</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU67" t="n">
         <v>1.75</v>
@@ -14298,7 +14298,7 @@
         <v>1.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT68" t="n">
         <v>1.41</v>
@@ -14704,7 +14704,7 @@
         <v>1.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT70" t="n">
         <v>1.12</v>
@@ -15110,10 +15110,10 @@
         <v>0.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU72" t="n">
         <v>1.72</v>
@@ -15316,7 +15316,7 @@
         <v>1.71</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU73" t="n">
         <v>1.28</v>
@@ -15722,7 +15722,7 @@
         <v>1.47</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU75" t="n">
         <v>1.91</v>
@@ -16125,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT77" t="n">
         <v>1.41</v>
@@ -16937,7 +16937,7 @@
         <v>1.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT81" t="n">
         <v>0.88</v>
@@ -17143,7 +17143,7 @@
         <v>1.71</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU82" t="n">
         <v>1.93</v>
@@ -17752,7 +17752,7 @@
         <v>1.71</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU85" t="n">
         <v>1.27</v>
@@ -17955,7 +17955,7 @@
         <v>1.41</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU86" t="n">
         <v>2.15</v>
@@ -18155,7 +18155,7 @@
         <v>2.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT87" t="n">
         <v>1.76</v>
@@ -18358,10 +18358,10 @@
         <v>3</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU88" t="n">
         <v>2.54</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT89" t="n">
         <v>0.65</v>
@@ -18764,10 +18764,10 @@
         <v>0.25</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU90" t="n">
         <v>1.57</v>
@@ -18967,7 +18967,7 @@
         <v>1.33</v>
       </c>
       <c r="AS91" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT91" t="n">
         <v>1.12</v>
@@ -19173,7 +19173,7 @@
         <v>1.47</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU92" t="n">
         <v>1.74</v>
@@ -19376,7 +19376,7 @@
         <v>1.35</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU93" t="n">
         <v>1.14</v>
@@ -19579,7 +19579,7 @@
         <v>2.12</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU94" t="n">
         <v>1.66</v>
@@ -19982,7 +19982,7 @@
         <v>0.75</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT96" t="n">
         <v>0.9399999999999999</v>
@@ -20388,7 +20388,7 @@
         <v>3</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT98" t="n">
         <v>1.82</v>
@@ -20794,7 +20794,7 @@
         <v>1.25</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT100" t="n">
         <v>0.82</v>
@@ -21403,7 +21403,7 @@
         <v>2.4</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT103" t="n">
         <v>1.76</v>
@@ -21809,10 +21809,10 @@
         <v>1.4</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU105" t="n">
         <v>2.23</v>
@@ -22012,7 +22012,7 @@
         <v>0.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT106" t="n">
         <v>0.35</v>
@@ -22215,10 +22215,10 @@
         <v>2.6</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT107" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU107" t="n">
         <v>1.66</v>
@@ -22621,10 +22621,10 @@
         <v>0.2</v>
       </c>
       <c r="AS109" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU109" t="n">
         <v>1.96</v>
@@ -22827,7 +22827,7 @@
         <v>2.65</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU110" t="n">
         <v>2.49</v>
@@ -23027,10 +23027,10 @@
         <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU111" t="n">
         <v>1.39</v>
@@ -23639,7 +23639,7 @@
         <v>1.24</v>
       </c>
       <c r="AT114" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU114" t="n">
         <v>1.22</v>
@@ -23842,7 +23842,7 @@
         <v>1.47</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU115" t="n">
         <v>1.85</v>
@@ -24045,7 +24045,7 @@
         <v>1.47</v>
       </c>
       <c r="AT116" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU116" t="n">
         <v>1.99</v>
@@ -24245,7 +24245,7 @@
         <v>0.8</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT117" t="n">
         <v>0.65</v>
@@ -24448,7 +24448,7 @@
         <v>0.2</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT118" t="n">
         <v>0.88</v>
@@ -25057,10 +25057,10 @@
         <v>1</v>
       </c>
       <c r="AS121" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU121" t="n">
         <v>1.26</v>
@@ -25263,7 +25263,7 @@
         <v>1.94</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU122" t="n">
         <v>1.78</v>
@@ -25666,7 +25666,7 @@
         <v>0.33</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT124" t="n">
         <v>0.35</v>
@@ -25869,7 +25869,7 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT125" t="n">
         <v>1.12</v>
@@ -26075,7 +26075,7 @@
         <v>2.65</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU126" t="n">
         <v>2.29</v>
@@ -26481,7 +26481,7 @@
         <v>1.88</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU128" t="n">
         <v>1.78</v>
@@ -26681,7 +26681,7 @@
         <v>1.33</v>
       </c>
       <c r="AS129" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT129" t="n">
         <v>0.88</v>
@@ -26884,10 +26884,10 @@
         <v>1.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU130" t="n">
         <v>1.71</v>
@@ -27290,7 +27290,7 @@
         <v>0.33</v>
       </c>
       <c r="AS132" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT132" t="n">
         <v>0.88</v>
@@ -27696,10 +27696,10 @@
         <v>2.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT134" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU134" t="n">
         <v>1.86</v>
@@ -28105,7 +28105,7 @@
         <v>1.71</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU136" t="n">
         <v>1.45</v>
@@ -28305,7 +28305,7 @@
         <v>1</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT137" t="n">
         <v>1.29</v>
@@ -28511,7 +28511,7 @@
         <v>1.71</v>
       </c>
       <c r="AT138" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU138" t="n">
         <v>1.36</v>
@@ -29117,7 +29117,7 @@
         <v>0.83</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT141" t="n">
         <v>0.82</v>
@@ -29323,7 +29323,7 @@
         <v>1.94</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU142" t="n">
         <v>1.89</v>
@@ -29523,10 +29523,10 @@
         <v>1.33</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU143" t="n">
         <v>1.63</v>
@@ -30132,10 +30132,10 @@
         <v>1.14</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU146" t="n">
         <v>1.58</v>
@@ -30338,7 +30338,7 @@
         <v>1.24</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU147" t="n">
         <v>1.26</v>
@@ -30538,7 +30538,7 @@
         <v>2.57</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT148" t="n">
         <v>1.82</v>
@@ -31147,10 +31147,10 @@
         <v>1</v>
       </c>
       <c r="AS151" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU151" t="n">
         <v>1.82</v>
@@ -31350,7 +31350,7 @@
         <v>0.57</v>
       </c>
       <c r="AS152" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT152" t="n">
         <v>0.9399999999999999</v>
@@ -31756,7 +31756,7 @@
         <v>2.63</v>
       </c>
       <c r="AS154" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT154" t="n">
         <v>1.82</v>
@@ -32162,7 +32162,7 @@
         <v>0.71</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT156" t="n">
         <v>0.88</v>
@@ -32774,7 +32774,7 @@
         <v>1.47</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU159" t="n">
         <v>1.69</v>
@@ -32977,7 +32977,7 @@
         <v>2.12</v>
       </c>
       <c r="AT160" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU160" t="n">
         <v>1.75</v>
@@ -33380,7 +33380,7 @@
         <v>1.22</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT162" t="n">
         <v>1.29</v>
@@ -33583,10 +33583,10 @@
         <v>1.13</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU163" t="n">
         <v>1.56</v>
@@ -33789,7 +33789,7 @@
         <v>1.94</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU164" t="n">
         <v>1.95</v>
@@ -33989,7 +33989,7 @@
         <v>1.38</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT165" t="n">
         <v>0.88</v>
@@ -34195,7 +34195,7 @@
         <v>1.88</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU166" t="n">
         <v>1.65</v>
@@ -34601,7 +34601,7 @@
         <v>1.71</v>
       </c>
       <c r="AT168" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU168" t="n">
         <v>1.33</v>
@@ -35410,7 +35410,7 @@
         <v>1.38</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT172" t="n">
         <v>1.41</v>
@@ -36019,7 +36019,7 @@
         <v>0.75</v>
       </c>
       <c r="AS175" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT175" t="n">
         <v>0.88</v>
@@ -36222,7 +36222,7 @@
         <v>1.13</v>
       </c>
       <c r="AS176" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT176" t="n">
         <v>1.12</v>
@@ -36428,7 +36428,7 @@
         <v>2.65</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU177" t="n">
         <v>2.43</v>
@@ -36834,7 +36834,7 @@
         <v>1.47</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU179" t="n">
         <v>1.82</v>
@@ -37443,7 +37443,7 @@
         <v>1.94</v>
       </c>
       <c r="AT182" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU182" t="n">
         <v>1.92</v>
@@ -38049,10 +38049,10 @@
         <v>0.86</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU185" t="n">
         <v>1.51</v>
@@ -38252,10 +38252,10 @@
         <v>1.89</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT186" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU186" t="n">
         <v>1.79</v>
@@ -38455,10 +38455,10 @@
         <v>1.13</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU187" t="n">
         <v>1.69</v>
@@ -38658,7 +38658,7 @@
         <v>2.33</v>
       </c>
       <c r="AS188" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT188" t="n">
         <v>1.76</v>
@@ -38861,10 +38861,10 @@
         <v>1.33</v>
       </c>
       <c r="AS189" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU189" t="n">
         <v>1.94</v>
@@ -39064,10 +39064,10 @@
         <v>2.67</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT190" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU190" t="n">
         <v>1.61</v>
@@ -39267,10 +39267,10 @@
         <v>0.75</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU191" t="n">
         <v>2.24</v>
@@ -39673,7 +39673,7 @@
         <v>1.11</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT193" t="n">
         <v>1.12</v>
@@ -39876,7 +39876,7 @@
         <v>1.2</v>
       </c>
       <c r="AS194" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT194" t="n">
         <v>1.29</v>
@@ -40082,7 +40082,7 @@
         <v>2.12</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU195" t="n">
         <v>1.8</v>
@@ -40282,7 +40282,7 @@
         <v>0.78</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT196" t="n">
         <v>0.9399999999999999</v>
@@ -40691,7 +40691,7 @@
         <v>1.94</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU198" t="n">
         <v>1.86</v>
@@ -41097,7 +41097,7 @@
         <v>2.65</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU200" t="n">
         <v>2.34</v>
@@ -41300,7 +41300,7 @@
         <v>1.71</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU201" t="n">
         <v>1.95</v>
@@ -42112,7 +42112,7 @@
         <v>1.47</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU205" t="n">
         <v>1.77</v>
@@ -42315,7 +42315,7 @@
         <v>1.35</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU206" t="n">
         <v>1.18</v>
@@ -42515,10 +42515,10 @@
         <v>2</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT207" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU207" t="n">
         <v>1.66</v>
@@ -42718,7 +42718,7 @@
         <v>1.1</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT208" t="n">
         <v>1.12</v>
@@ -42921,10 +42921,10 @@
         <v>2.7</v>
       </c>
       <c r="AS209" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT209" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU209" t="n">
         <v>1.91</v>
@@ -43124,7 +43124,7 @@
         <v>2.2</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT210" t="n">
         <v>1.76</v>
@@ -43327,7 +43327,7 @@
         <v>0.3</v>
       </c>
       <c r="AS211" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT211" t="n">
         <v>0.35</v>
@@ -43533,7 +43533,7 @@
         <v>1.94</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU212" t="n">
         <v>1.9</v>
@@ -43936,7 +43936,7 @@
         <v>0.7</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT214" t="n">
         <v>0.65</v>
@@ -44342,7 +44342,7 @@
         <v>2.18</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT216" t="n">
         <v>1.82</v>
@@ -44545,7 +44545,7 @@
         <v>1.1</v>
       </c>
       <c r="AS217" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT217" t="n">
         <v>0.82</v>
@@ -44751,7 +44751,7 @@
         <v>1.71</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU218" t="n">
         <v>1.97</v>
@@ -44954,7 +44954,7 @@
         <v>2.12</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU219" t="n">
         <v>1.83</v>
@@ -45360,7 +45360,7 @@
         <v>1.35</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU221" t="n">
         <v>1.2</v>
@@ -45560,7 +45560,7 @@
         <v>1.55</v>
       </c>
       <c r="AS222" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT222" t="n">
         <v>1.41</v>
@@ -45763,7 +45763,7 @@
         <v>1</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT223" t="n">
         <v>0.88</v>
@@ -45969,7 +45969,7 @@
         <v>1.24</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU224" t="n">
         <v>1.34</v>
@@ -46169,10 +46169,10 @@
         <v>2.09</v>
       </c>
       <c r="AS225" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT225" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU225" t="n">
         <v>2.36</v>
@@ -46778,7 +46778,7 @@
         <v>0.64</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT228" t="n">
         <v>0.65</v>
@@ -46984,7 +46984,7 @@
         <v>1.71</v>
       </c>
       <c r="AT229" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU229" t="n">
         <v>1.51</v>
@@ -47387,10 +47387,10 @@
         <v>0.9</v>
       </c>
       <c r="AS231" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU231" t="n">
         <v>1.86</v>
@@ -48405,7 +48405,7 @@
         <v>2.12</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU236" t="n">
         <v>1.82</v>
@@ -48605,7 +48605,7 @@
         <v>1.27</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT237" t="n">
         <v>0.82</v>
@@ -48811,7 +48811,7 @@
         <v>2.65</v>
       </c>
       <c r="AT238" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU238" t="n">
         <v>2.27</v>
@@ -49014,7 +49014,7 @@
         <v>1.71</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU239" t="n">
         <v>1.94</v>
@@ -49214,7 +49214,7 @@
         <v>2.25</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT240" t="n">
         <v>1.82</v>
@@ -49417,7 +49417,7 @@
         <v>1</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT241" t="n">
         <v>0.9399999999999999</v>
@@ -49623,7 +49623,7 @@
         <v>1.24</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU242" t="n">
         <v>1.31</v>
@@ -49823,7 +49823,7 @@
         <v>1.17</v>
       </c>
       <c r="AS243" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT243" t="n">
         <v>0.82</v>
@@ -50026,7 +50026,7 @@
         <v>0.58</v>
       </c>
       <c r="AS244" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT244" t="n">
         <v>0.65</v>
@@ -50229,10 +50229,10 @@
         <v>1.33</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT245" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU245" t="n">
         <v>1.68</v>
@@ -50841,7 +50841,7 @@
         <v>1.47</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU248" t="n">
         <v>1.95</v>
@@ -51041,7 +51041,7 @@
         <v>1.67</v>
       </c>
       <c r="AS249" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT249" t="n">
         <v>1.41</v>
@@ -51247,7 +51247,7 @@
         <v>1.41</v>
       </c>
       <c r="AT250" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU250" t="n">
         <v>2.1</v>
@@ -51450,7 +51450,7 @@
         <v>1.94</v>
       </c>
       <c r="AT251" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU251" t="n">
         <v>1.89</v>
@@ -51650,10 +51650,10 @@
         <v>1.08</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT252" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU252" t="n">
         <v>1.55</v>
@@ -52259,7 +52259,7 @@
         <v>1</v>
       </c>
       <c r="AS255" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT255" t="n">
         <v>0.9399999999999999</v>
@@ -52465,7 +52465,7 @@
         <v>2.12</v>
       </c>
       <c r="AT256" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU256" t="n">
         <v>1.83</v>
@@ -52665,7 +52665,7 @@
         <v>0.92</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT257" t="n">
         <v>0.88</v>
@@ -52868,7 +52868,7 @@
         <v>1.15</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT258" t="n">
         <v>1.29</v>
@@ -53277,7 +53277,7 @@
         <v>1.35</v>
       </c>
       <c r="AT260" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU260" t="n">
         <v>1.22</v>
@@ -54089,7 +54089,7 @@
         <v>1.41</v>
       </c>
       <c r="AT264" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU264" t="n">
         <v>2.08</v>
@@ -54292,7 +54292,7 @@
         <v>1.24</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU265" t="n">
         <v>1.33</v>
@@ -54492,10 +54492,10 @@
         <v>2.54</v>
       </c>
       <c r="AS266" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT266" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU266" t="n">
         <v>1.51</v>
@@ -54695,10 +54695,10 @@
         <v>0.25</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT267" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU267" t="n">
         <v>1.66</v>
@@ -54898,7 +54898,7 @@
         <v>0.62</v>
       </c>
       <c r="AS268" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT268" t="n">
         <v>0.65</v>
@@ -55101,7 +55101,7 @@
         <v>2</v>
       </c>
       <c r="AS269" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT269" t="n">
         <v>1.76</v>
@@ -55510,7 +55510,7 @@
         <v>1.47</v>
       </c>
       <c r="AT271" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU271" t="n">
         <v>1.76</v>
@@ -55913,7 +55913,7 @@
         <v>0.46</v>
       </c>
       <c r="AS273" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT273" t="n">
         <v>0.35</v>
@@ -56116,10 +56116,10 @@
         <v>1.23</v>
       </c>
       <c r="AS274" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT274" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU274" t="n">
         <v>1.42</v>
@@ -56322,7 +56322,7 @@
         <v>1.88</v>
       </c>
       <c r="AT275" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU275" t="n">
         <v>1.57</v>
@@ -56522,7 +56522,7 @@
         <v>1.29</v>
       </c>
       <c r="AS276" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT276" t="n">
         <v>1.29</v>
@@ -56725,7 +56725,7 @@
         <v>0.85</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT277" t="n">
         <v>0.88</v>
@@ -56928,7 +56928,7 @@
         <v>0.77</v>
       </c>
       <c r="AS278" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT278" t="n">
         <v>0.82</v>
@@ -57134,7 +57134,7 @@
         <v>1.71</v>
       </c>
       <c r="AT279" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU279" t="n">
         <v>1.44</v>
@@ -57337,7 +57337,7 @@
         <v>1.71</v>
       </c>
       <c r="AT280" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU280" t="n">
         <v>1.86</v>
@@ -57943,7 +57943,7 @@
         <v>0.57</v>
       </c>
       <c r="AS283" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT283" t="n">
         <v>0.65</v>
@@ -58349,7 +58349,7 @@
         <v>1</v>
       </c>
       <c r="AS285" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT285" t="n">
         <v>0.82</v>
@@ -58961,7 +58961,7 @@
         <v>1.35</v>
       </c>
       <c r="AT288" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU288" t="n">
         <v>1.23</v>
@@ -59164,7 +59164,7 @@
         <v>2.12</v>
       </c>
       <c r="AT289" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU289" t="n">
         <v>1.84</v>
@@ -59367,7 +59367,7 @@
         <v>1.47</v>
       </c>
       <c r="AT290" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU290" t="n">
         <v>1.76</v>
@@ -59567,7 +59567,7 @@
         <v>0.86</v>
       </c>
       <c r="AS291" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT291" t="n">
         <v>0.88</v>
@@ -59770,7 +59770,7 @@
         <v>0.93</v>
       </c>
       <c r="AS292" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT292" t="n">
         <v>0.82</v>
@@ -59973,7 +59973,7 @@
         <v>1.5</v>
       </c>
       <c r="AS293" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT293" t="n">
         <v>1.41</v>
@@ -60179,7 +60179,7 @@
         <v>1.71</v>
       </c>
       <c r="AT294" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU294" t="n">
         <v>1.42</v>
@@ -60382,7 +60382,7 @@
         <v>1.88</v>
       </c>
       <c r="AT295" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU295" t="n">
         <v>1.57</v>
@@ -60582,7 +60582,7 @@
         <v>0.79</v>
       </c>
       <c r="AS296" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT296" t="n">
         <v>0.88</v>
@@ -60785,7 +60785,7 @@
         <v>1.14</v>
       </c>
       <c r="AS297" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT297" t="n">
         <v>0.9399999999999999</v>
@@ -60988,10 +60988,10 @@
         <v>0.43</v>
       </c>
       <c r="AS298" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT298" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU298" t="n">
         <v>1.48</v>
@@ -61194,7 +61194,7 @@
         <v>2.65</v>
       </c>
       <c r="AT299" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU299" t="n">
         <v>2.15</v>
@@ -61397,7 +61397,7 @@
         <v>1.71</v>
       </c>
       <c r="AT300" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU300" t="n">
         <v>1.22</v>
@@ -62206,7 +62206,7 @@
         <v>1.73</v>
       </c>
       <c r="AS304" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT304" t="n">
         <v>1.76</v>
@@ -62412,7 +62412,7 @@
         <v>1.35</v>
       </c>
       <c r="AT305" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU305" t="n">
         <v>1.19</v>
@@ -62818,7 +62818,7 @@
         <v>1.71</v>
       </c>
       <c r="AT307" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU307" t="n">
         <v>1.83</v>
@@ -63018,7 +63018,7 @@
         <v>0.4</v>
       </c>
       <c r="AS308" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AT308" t="n">
         <v>0.35</v>
@@ -63221,7 +63221,7 @@
         <v>0.93</v>
       </c>
       <c r="AS309" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT309" t="n">
         <v>0.82</v>
@@ -63630,7 +63630,7 @@
         <v>1.41</v>
       </c>
       <c r="AT311" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AU311" t="n">
         <v>2.03</v>
@@ -63830,7 +63830,7 @@
         <v>1.69</v>
       </c>
       <c r="AS312" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT312" t="n">
         <v>1.76</v>
@@ -64033,10 +64033,10 @@
         <v>1.13</v>
       </c>
       <c r="AS313" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="AT313" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU313" t="n">
         <v>1.45</v>
@@ -64236,10 +64236,10 @@
         <v>0.47</v>
       </c>
       <c r="AS314" t="n">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AT314" t="n">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="AU314" t="n">
         <v>2.39</v>
@@ -64645,7 +64645,7 @@
         <v>1.24</v>
       </c>
       <c r="AT316" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU316" t="n">
         <v>1.36</v>
@@ -64845,7 +64845,7 @@
         <v>1.07</v>
       </c>
       <c r="AS317" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT317" t="n">
         <v>0.9399999999999999</v>
@@ -65048,10 +65048,10 @@
         <v>0.73</v>
       </c>
       <c r="AS318" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT318" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU318" t="n">
         <v>1.43</v>
@@ -65251,10 +65251,10 @@
         <v>2</v>
       </c>
       <c r="AS319" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT319" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU319" t="n">
         <v>1.54</v>
@@ -65457,7 +65457,7 @@
         <v>1.71</v>
       </c>
       <c r="AT320" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU320" t="n">
         <v>1.22</v>
@@ -68132,22 +68132,1646 @@
         <v>3.5</v>
       </c>
       <c r="BF333" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG333" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BH333" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BI333" t="n">
         <v>7</v>
       </c>
       <c r="BJ333" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK333" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B334" t="n">
+        <v>2710996</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E334" s="2" t="n">
+        <v>45059.46875</v>
+      </c>
+      <c r="F334" t="n">
+        <v>34</v>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>CA Osasuna</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="I334" t="n">
+        <v>0</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0</v>
+      </c>
+      <c r="L334" t="n">
+        <v>3</v>
+      </c>
+      <c r="M334" t="n">
+        <v>1</v>
+      </c>
+      <c r="N334" t="n">
+        <v>4</v>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>['46', '51', '81']</t>
+        </is>
+      </c>
+      <c r="P334" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q334" t="n">
+        <v>4</v>
+      </c>
+      <c r="R334" t="n">
+        <v>1</v>
+      </c>
+      <c r="S334" t="n">
+        <v>5</v>
+      </c>
+      <c r="T334" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U334" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V334" t="n">
+        <v>4</v>
+      </c>
+      <c r="W334" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X334" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y334" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z334" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA334" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB334" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC334" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD334" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE334" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF334" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG334" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH334" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI334" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ334" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK334" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL334" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM334" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN334" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO334" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP334" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ334" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR334" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AS334" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AT334" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AU334" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV334" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW334" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX334" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY334" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ334" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA334" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB334" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC334" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD334" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE334" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF334" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG334" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH334" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI334" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ334" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK334" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B335" t="n">
+        <v>2710990</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E335" s="2" t="n">
+        <v>45059.5625</v>
+      </c>
+      <c r="F335" t="n">
+        <v>34</v>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>Athletic Club Bilbao</t>
+        </is>
+      </c>
+      <c r="I335" t="n">
+        <v>2</v>
+      </c>
+      <c r="J335" t="n">
+        <v>1</v>
+      </c>
+      <c r="K335" t="n">
+        <v>3</v>
+      </c>
+      <c r="L335" t="n">
+        <v>5</v>
+      </c>
+      <c r="M335" t="n">
+        <v>1</v>
+      </c>
+      <c r="N335" t="n">
+        <v>6</v>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>['24', '37', '50', '61', '90']</t>
+        </is>
+      </c>
+      <c r="P335" t="inlineStr">
+        <is>
+          <t>['45+3']</t>
+        </is>
+      </c>
+      <c r="Q335" t="n">
+        <v>7</v>
+      </c>
+      <c r="R335" t="n">
+        <v>5</v>
+      </c>
+      <c r="S335" t="n">
+        <v>12</v>
+      </c>
+      <c r="T335" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U335" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V335" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W335" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X335" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y335" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z335" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA335" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB335" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC335" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD335" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE335" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF335" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG335" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH335" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI335" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ335" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK335" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL335" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM335" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN335" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO335" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP335" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ335" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR335" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS335" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AT335" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AU335" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV335" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW335" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AX335" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AY335" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ335" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA335" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB335" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC335" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD335" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE335" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF335" t="n">
+        <v>14</v>
+      </c>
+      <c r="BG335" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH335" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI335" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ335" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK335" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B336" t="n">
+        <v>2710993</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E336" s="2" t="n">
+        <v>45059.66666666666</v>
+      </c>
+      <c r="F336" t="n">
+        <v>34</v>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>Getafe CF</t>
+        </is>
+      </c>
+      <c r="I336" t="n">
+        <v>0</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0</v>
+      </c>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N336" t="n">
+        <v>1</v>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q336" t="n">
+        <v>1</v>
+      </c>
+      <c r="R336" t="n">
+        <v>3</v>
+      </c>
+      <c r="S336" t="n">
+        <v>4</v>
+      </c>
+      <c r="T336" t="n">
+        <v>2</v>
+      </c>
+      <c r="U336" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V336" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W336" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X336" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y336" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z336" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA336" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB336" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC336" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD336" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE336" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF336" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG336" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH336" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI336" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ336" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK336" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL336" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM336" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN336" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO336" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP336" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ336" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AR336" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS336" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AT336" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AU336" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AV336" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW336" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AX336" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AY336" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ336" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="BA336" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB336" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC336" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD336" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE336" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF336" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG336" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH336" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI336" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ336" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK336" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B337" t="n">
+        <v>2710989</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E337" s="2" t="n">
+        <v>45060.375</v>
+      </c>
+      <c r="F337" t="n">
+        <v>34</v>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>Celta de Vigo</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>Valencia CF</t>
+        </is>
+      </c>
+      <c r="I337" t="n">
+        <v>0</v>
+      </c>
+      <c r="J337" t="n">
+        <v>1</v>
+      </c>
+      <c r="K337" t="n">
+        <v>1</v>
+      </c>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="n">
+        <v>2</v>
+      </c>
+      <c r="N337" t="n">
+        <v>3</v>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P337" t="inlineStr">
+        <is>
+          <t>['8', '88']</t>
+        </is>
+      </c>
+      <c r="Q337" t="n">
+        <v>5</v>
+      </c>
+      <c r="R337" t="n">
+        <v>4</v>
+      </c>
+      <c r="S337" t="n">
+        <v>9</v>
+      </c>
+      <c r="T337" t="n">
+        <v>3</v>
+      </c>
+      <c r="U337" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V337" t="n">
+        <v>4</v>
+      </c>
+      <c r="W337" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X337" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y337" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z337" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA337" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB337" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC337" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AD337" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE337" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF337" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG337" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH337" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI337" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AJ337" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK337" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL337" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM337" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN337" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO337" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP337" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ337" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR337" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS337" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT337" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU337" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV337" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW337" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX337" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY337" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ337" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BA337" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB337" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC337" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD337" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE337" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF337" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG337" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH337" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI337" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ337" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK337" t="n">
         <v>13</v>
       </c>
-      <c r="BK333" t="n">
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B338" t="n">
+        <v>2710991</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E338" s="2" t="n">
+        <v>45060.46875</v>
+      </c>
+      <c r="F338" t="n">
+        <v>34</v>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>Elche CF</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="I338" t="n">
+        <v>1</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0</v>
+      </c>
+      <c r="K338" t="n">
+        <v>1</v>
+      </c>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="n">
+        <v>0</v>
+      </c>
+      <c r="N338" t="n">
+        <v>1</v>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="P338" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q338" t="n">
+        <v>3</v>
+      </c>
+      <c r="R338" t="n">
+        <v>5</v>
+      </c>
+      <c r="S338" t="n">
+        <v>8</v>
+      </c>
+      <c r="T338" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U338" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V338" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W338" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X338" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y338" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z338" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA338" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB338" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC338" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD338" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE338" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF338" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG338" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH338" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI338" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ338" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK338" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AL338" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM338" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN338" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AO338" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP338" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ338" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR338" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AS338" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AT338" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AU338" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV338" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW338" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX338" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AY338" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ338" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BA338" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB338" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC338" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BD338" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE338" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BF338" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG338" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH338" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI338" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ338" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK338" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B339" t="n">
+        <v>2710995</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E339" s="2" t="n">
+        <v>45060.5625</v>
+      </c>
+      <c r="F339" t="n">
+        <v>34</v>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>Sevilla FC</t>
+        </is>
+      </c>
+      <c r="I339" t="n">
+        <v>0</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0</v>
+      </c>
+      <c r="L339" t="n">
+        <v>0</v>
+      </c>
+      <c r="M339" t="n">
+        <v>3</v>
+      </c>
+      <c r="N339" t="n">
+        <v>3</v>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P339" t="inlineStr">
+        <is>
+          <t>['50', '78', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q339" t="n">
+        <v>8</v>
+      </c>
+      <c r="R339" t="n">
+        <v>3</v>
+      </c>
+      <c r="S339" t="n">
+        <v>11</v>
+      </c>
+      <c r="T339" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U339" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V339" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W339" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X339" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y339" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z339" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA339" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB339" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC339" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AD339" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE339" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AF339" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG339" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH339" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI339" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ339" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK339" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL339" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM339" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN339" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO339" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP339" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ339" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR339" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS339" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT339" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU339" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV339" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW339" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX339" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AY339" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ339" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BA339" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB339" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC339" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD339" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BE339" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF339" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG339" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH339" t="n">
+        <v>21</v>
+      </c>
+      <c r="BI339" t="n">
         <v>12</v>
+      </c>
+      <c r="BJ339" t="n">
+        <v>28</v>
+      </c>
+      <c r="BK339" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B340" t="n">
+        <v>2710992</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E340" s="2" t="n">
+        <v>45060.66666666666</v>
+      </c>
+      <c r="F340" t="n">
+        <v>34</v>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>RCD Espanyol</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="I340" t="n">
+        <v>0</v>
+      </c>
+      <c r="J340" t="n">
+        <v>3</v>
+      </c>
+      <c r="K340" t="n">
+        <v>3</v>
+      </c>
+      <c r="L340" t="n">
+        <v>2</v>
+      </c>
+      <c r="M340" t="n">
+        <v>4</v>
+      </c>
+      <c r="N340" t="n">
+        <v>6</v>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>['73', '90+2']</t>
+        </is>
+      </c>
+      <c r="P340" t="inlineStr">
+        <is>
+          <t>['11', '20', '40', '53']</t>
+        </is>
+      </c>
+      <c r="Q340" t="n">
+        <v>4</v>
+      </c>
+      <c r="R340" t="n">
+        <v>3</v>
+      </c>
+      <c r="S340" t="n">
+        <v>7</v>
+      </c>
+      <c r="T340" t="n">
+        <v>5</v>
+      </c>
+      <c r="U340" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V340" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W340" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X340" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y340" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z340" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA340" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB340" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC340" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AD340" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AE340" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AF340" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG340" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH340" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI340" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ340" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK340" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL340" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM340" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN340" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO340" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP340" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ340" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR340" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AS340" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT340" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AU340" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV340" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW340" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX340" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AY340" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ340" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BA340" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB340" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC340" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD340" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE340" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF340" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG340" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH340" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI340" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ340" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK340" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B341" t="n">
+        <v>2710988</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E341" s="2" t="n">
+        <v>45061.66666666666</v>
+      </c>
+      <c r="F341" t="n">
+        <v>34</v>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="I341" t="n">
+        <v>2</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0</v>
+      </c>
+      <c r="K341" t="n">
+        <v>2</v>
+      </c>
+      <c r="L341" t="n">
+        <v>3</v>
+      </c>
+      <c r="M341" t="n">
+        <v>1</v>
+      </c>
+      <c r="N341" t="n">
+        <v>4</v>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>['5', '44', '90+6']</t>
+        </is>
+      </c>
+      <c r="P341" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q341" t="n">
+        <v>6</v>
+      </c>
+      <c r="R341" t="n">
+        <v>5</v>
+      </c>
+      <c r="S341" t="n">
+        <v>11</v>
+      </c>
+      <c r="T341" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U341" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V341" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W341" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X341" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y341" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z341" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA341" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB341" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC341" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD341" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE341" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF341" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG341" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH341" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI341" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ341" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK341" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL341" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM341" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN341" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO341" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP341" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ341" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR341" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS341" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT341" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU341" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV341" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW341" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX341" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AY341" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ341" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA341" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB341" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC341" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD341" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE341" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF341" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG341" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH341" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI341" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ341" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK341" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK341"/>
+  <dimension ref="A1:BK347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.41</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT8" t="n">
         <v>1.82</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT10" t="n">
         <v>1.94</v>
@@ -2730,7 +2730,7 @@
         <v>1.82</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.47</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT17" t="n">
         <v>0.71</v>
@@ -4151,7 +4151,7 @@
         <v>2.12</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT21" t="n">
         <v>0.65</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU22" t="n">
         <v>1.7</v>
@@ -5369,7 +5369,7 @@
         <v>0.76</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU24" t="n">
         <v>1.51</v>
@@ -5572,7 +5572,7 @@
         <v>1.71</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT26" t="n">
         <v>1.29</v>
@@ -5975,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU27" t="n">
         <v>1.13</v>
@@ -6178,10 +6178,10 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU28" t="n">
         <v>2.46</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT30" t="n">
         <v>1.35</v>
@@ -8208,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT38" t="n">
         <v>0.82</v>
@@ -8414,7 +8414,7 @@
         <v>2.06</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -9020,10 +9020,10 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU42" t="n">
         <v>1.59</v>
@@ -9629,7 +9629,7 @@
         <v>3</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT45" t="n">
         <v>2.35</v>
@@ -9835,7 +9835,7 @@
         <v>2.12</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU46" t="n">
         <v>1.96</v>
@@ -10038,7 +10038,7 @@
         <v>2.35</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU47" t="n">
         <v>2.24</v>
@@ -10441,10 +10441,10 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU49" t="n">
         <v>1</v>
@@ -10647,7 +10647,7 @@
         <v>1.82</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU50" t="n">
         <v>1.69</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT51" t="n">
         <v>1.12</v>
@@ -11456,10 +11456,10 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU54" t="n">
         <v>2.69</v>
@@ -11662,7 +11662,7 @@
         <v>1.47</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU55" t="n">
         <v>2.05</v>
@@ -11862,7 +11862,7 @@
         <v>1.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT56" t="n">
         <v>1</v>
@@ -13080,7 +13080,7 @@
         <v>0.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT62" t="n">
         <v>0.41</v>
@@ -13283,10 +13283,10 @@
         <v>1.75</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU63" t="n">
         <v>1.06</v>
@@ -13486,10 +13486,10 @@
         <v>0.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU64" t="n">
         <v>1.02</v>
@@ -14501,10 +14501,10 @@
         <v>2</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU69" t="n">
         <v>1.59</v>
@@ -14910,7 +14910,7 @@
         <v>1.71</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU71" t="n">
         <v>1.8</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT73" t="n">
         <v>1</v>
@@ -15922,7 +15922,7 @@
         <v>3</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT76" t="n">
         <v>1.82</v>
@@ -16328,7 +16328,7 @@
         <v>1.33</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT78" t="n">
         <v>0.82</v>
@@ -16534,7 +16534,7 @@
         <v>1.88</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU79" t="n">
         <v>1.66</v>
@@ -16734,10 +16734,10 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU80" t="n">
         <v>2.92</v>
@@ -16940,7 +16940,7 @@
         <v>0.76</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU81" t="n">
         <v>1.41</v>
@@ -17343,7 +17343,7 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT83" t="n">
         <v>0.82</v>
@@ -17549,7 +17549,7 @@
         <v>1.47</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU84" t="n">
         <v>1.91</v>
@@ -17952,7 +17952,7 @@
         <v>2.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT86" t="n">
         <v>1.94</v>
@@ -18158,7 +18158,7 @@
         <v>1.35</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU87" t="n">
         <v>1.38</v>
@@ -18564,7 +18564,7 @@
         <v>1</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU89" t="n">
         <v>1.66</v>
@@ -19373,7 +19373,7 @@
         <v>2.33</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT93" t="n">
         <v>1.35</v>
@@ -19779,7 +19779,7 @@
         <v>1</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT95" t="n">
         <v>1.41</v>
@@ -19985,7 +19985,7 @@
         <v>1.41</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU96" t="n">
         <v>1.57</v>
@@ -20188,7 +20188,7 @@
         <v>1.88</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU97" t="n">
         <v>1.7</v>
@@ -20591,7 +20591,7 @@
         <v>0.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT99" t="n">
         <v>0.88</v>
@@ -20997,10 +20997,10 @@
         <v>1.33</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU101" t="n">
         <v>2.6</v>
@@ -21406,7 +21406,7 @@
         <v>1.41</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU103" t="n">
         <v>1.51</v>
@@ -21609,7 +21609,7 @@
         <v>1.47</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU104" t="n">
         <v>2.02</v>
@@ -22015,7 +22015,7 @@
         <v>1</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU106" t="n">
         <v>1.64</v>
@@ -22418,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT108" t="n">
         <v>1.12</v>
@@ -22824,7 +22824,7 @@
         <v>2</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AT110" t="n">
         <v>1.35</v>
@@ -23433,10 +23433,10 @@
         <v>0.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU113" t="n">
         <v>1.32</v>
@@ -23636,7 +23636,7 @@
         <v>2.67</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT114" t="n">
         <v>1.94</v>
@@ -24248,7 +24248,7 @@
         <v>1.65</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU117" t="n">
         <v>1.71</v>
@@ -24651,10 +24651,10 @@
         <v>1.14</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU119" t="n">
         <v>2.09</v>
@@ -25260,7 +25260,7 @@
         <v>1.6</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT122" t="n">
         <v>1.35</v>
@@ -25463,7 +25463,7 @@
         <v>0.8</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT123" t="n">
         <v>0.82</v>
@@ -25669,7 +25669,7 @@
         <v>1.41</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU124" t="n">
         <v>1.45</v>
@@ -26072,7 +26072,7 @@
         <v>0.17</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AT126" t="n">
         <v>0.41</v>
@@ -26684,7 +26684,7 @@
         <v>2.06</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU129" t="n">
         <v>1.91</v>
@@ -27493,10 +27493,10 @@
         <v>0.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU133" t="n">
         <v>2.13</v>
@@ -27902,7 +27902,7 @@
         <v>1.47</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU135" t="n">
         <v>1.8</v>
@@ -28102,7 +28102,7 @@
         <v>1.33</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT136" t="n">
         <v>0.65</v>
@@ -28308,7 +28308,7 @@
         <v>1</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU137" t="n">
         <v>1.64</v>
@@ -28714,7 +28714,7 @@
         <v>1.71</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU139" t="n">
         <v>2.14</v>
@@ -29320,7 +29320,7 @@
         <v>1.14</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT142" t="n">
         <v>1</v>
@@ -29729,7 +29729,7 @@
         <v>2.12</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU144" t="n">
         <v>1.77</v>
@@ -29929,10 +29929,10 @@
         <v>1.57</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU145" t="n">
         <v>1.21</v>
@@ -30335,7 +30335,7 @@
         <v>0.14</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT147" t="n">
         <v>0.41</v>
@@ -30741,7 +30741,7 @@
         <v>1</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AT149" t="n">
         <v>0.82</v>
@@ -31353,7 +31353,7 @@
         <v>0.76</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU152" t="n">
         <v>1.34</v>
@@ -31962,7 +31962,7 @@
         <v>1.71</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU155" t="n">
         <v>1.31</v>
@@ -32365,10 +32365,10 @@
         <v>2.14</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU157" t="n">
         <v>1.4</v>
@@ -33177,7 +33177,7 @@
         <v>1.14</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT161" t="n">
         <v>1.12</v>
@@ -33383,7 +33383,7 @@
         <v>1.35</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU162" t="n">
         <v>1.6</v>
@@ -33786,7 +33786,7 @@
         <v>1.13</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT164" t="n">
         <v>1.29</v>
@@ -33992,7 +33992,7 @@
         <v>1.65</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU165" t="n">
         <v>1.83</v>
@@ -34395,7 +34395,7 @@
         <v>1</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT167" t="n">
         <v>0.82</v>
@@ -34598,7 +34598,7 @@
         <v>2</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT168" t="n">
         <v>1.94</v>
@@ -34801,10 +34801,10 @@
         <v>0.25</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU169" t="n">
         <v>1.32</v>
@@ -35007,7 +35007,7 @@
         <v>1.71</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU170" t="n">
         <v>1.34</v>
@@ -35210,7 +35210,7 @@
         <v>1.71</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU171" t="n">
         <v>1.99</v>
@@ -35616,7 +35616,7 @@
         <v>2.12</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU173" t="n">
         <v>1.79</v>
@@ -36425,7 +36425,7 @@
         <v>1</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AT177" t="n">
         <v>0.65</v>
@@ -36628,7 +36628,7 @@
         <v>2.33</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT178" t="n">
         <v>1.82</v>
@@ -37034,7 +37034,7 @@
         <v>1.22</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT180" t="n">
         <v>0.82</v>
@@ -37237,10 +37237,10 @@
         <v>1.22</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU181" t="n">
         <v>1.35</v>
@@ -37440,7 +37440,7 @@
         <v>2.63</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT182" t="n">
         <v>2.35</v>
@@ -37646,7 +37646,7 @@
         <v>1.47</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU183" t="n">
         <v>1.8</v>
@@ -37846,7 +37846,7 @@
         <v>1.22</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT184" t="n">
         <v>1.41</v>
@@ -38661,7 +38661,7 @@
         <v>2.35</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU188" t="n">
         <v>2.19</v>
@@ -39470,7 +39470,7 @@
         <v>0.89</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT192" t="n">
         <v>0.82</v>
@@ -39879,7 +39879,7 @@
         <v>0.76</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU194" t="n">
         <v>1.4</v>
@@ -40285,7 +40285,7 @@
         <v>1.82</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU196" t="n">
         <v>1.51</v>
@@ -40688,7 +40688,7 @@
         <v>0.67</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT198" t="n">
         <v>0.71</v>
@@ -40894,7 +40894,7 @@
         <v>1.88</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU199" t="n">
         <v>1.62</v>
@@ -41094,7 +41094,7 @@
         <v>1</v>
       </c>
       <c r="AS200" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AT200" t="n">
         <v>1.29</v>
@@ -41500,7 +41500,7 @@
         <v>0.67</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT202" t="n">
         <v>0.88</v>
@@ -41703,7 +41703,7 @@
         <v>1.4</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT203" t="n">
         <v>1.41</v>
@@ -41909,7 +41909,7 @@
         <v>1.47</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU204" t="n">
         <v>1.9</v>
@@ -42312,7 +42312,7 @@
         <v>1.5</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT206" t="n">
         <v>1</v>
@@ -43127,7 +43127,7 @@
         <v>1</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU210" t="n">
         <v>1.56</v>
@@ -43330,7 +43330,7 @@
         <v>2.35</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU211" t="n">
         <v>2.26</v>
@@ -43530,7 +43530,7 @@
         <v>0.3</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT212" t="n">
         <v>0.41</v>
@@ -43736,7 +43736,7 @@
         <v>1.88</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU213" t="n">
         <v>1.62</v>
@@ -43939,7 +43939,7 @@
         <v>1.82</v>
       </c>
       <c r="AT214" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU214" t="n">
         <v>1.54</v>
@@ -44142,7 +44142,7 @@
         <v>1.71</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU215" t="n">
         <v>1.27</v>
@@ -45154,7 +45154,7 @@
         <v>0.8</v>
       </c>
       <c r="AS220" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AT220" t="n">
         <v>0.82</v>
@@ -45357,7 +45357,7 @@
         <v>0.6</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT221" t="n">
         <v>0.71</v>
@@ -45766,7 +45766,7 @@
         <v>1</v>
       </c>
       <c r="AT223" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU223" t="n">
         <v>1.48</v>
@@ -45966,7 +45966,7 @@
         <v>1.45</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT224" t="n">
         <v>1</v>
@@ -46375,7 +46375,7 @@
         <v>1.47</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU226" t="n">
         <v>1.82</v>
@@ -46575,7 +46575,7 @@
         <v>0.6</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT227" t="n">
         <v>0.88</v>
@@ -46781,7 +46781,7 @@
         <v>1.35</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU228" t="n">
         <v>1.65</v>
@@ -46981,7 +46981,7 @@
         <v>2.73</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT229" t="n">
         <v>2.35</v>
@@ -47793,7 +47793,7 @@
         <v>0.82</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT233" t="n">
         <v>0.88</v>
@@ -47996,10 +47996,10 @@
         <v>1</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU234" t="n">
         <v>1.47</v>
@@ -48202,7 +48202,7 @@
         <v>1.71</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU235" t="n">
         <v>1.27</v>
@@ -48808,7 +48808,7 @@
         <v>0.55</v>
       </c>
       <c r="AS238" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AT238" t="n">
         <v>0.71</v>
@@ -49420,7 +49420,7 @@
         <v>1.65</v>
       </c>
       <c r="AT241" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU241" t="n">
         <v>1.77</v>
@@ -49620,7 +49620,7 @@
         <v>0.82</v>
       </c>
       <c r="AS242" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT242" t="n">
         <v>0.65</v>
@@ -50029,7 +50029,7 @@
         <v>0.76</v>
       </c>
       <c r="AT244" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU244" t="n">
         <v>1.42</v>
@@ -50638,7 +50638,7 @@
         <v>1.71</v>
       </c>
       <c r="AT247" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU247" t="n">
         <v>1.27</v>
@@ -51244,7 +51244,7 @@
         <v>2.5</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT250" t="n">
         <v>2.35</v>
@@ -51447,7 +51447,7 @@
         <v>2</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT251" t="n">
         <v>1.94</v>
@@ -51853,7 +51853,7 @@
         <v>0.75</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT253" t="n">
         <v>0.82</v>
@@ -52262,7 +52262,7 @@
         <v>1</v>
       </c>
       <c r="AT255" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU255" t="n">
         <v>1.45</v>
@@ -52668,7 +52668,7 @@
         <v>1.82</v>
       </c>
       <c r="AT257" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU257" t="n">
         <v>1.55</v>
@@ -52871,7 +52871,7 @@
         <v>1.65</v>
       </c>
       <c r="AT258" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU258" t="n">
         <v>1.77</v>
@@ -53074,7 +53074,7 @@
         <v>1.88</v>
       </c>
       <c r="AT259" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU259" t="n">
         <v>1.57</v>
@@ -53274,7 +53274,7 @@
         <v>0.83</v>
       </c>
       <c r="AS260" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT260" t="n">
         <v>1.29</v>
@@ -53477,7 +53477,7 @@
         <v>2.15</v>
       </c>
       <c r="AS261" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AT261" t="n">
         <v>1.82</v>
@@ -53883,7 +53883,7 @@
         <v>1.08</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT263" t="n">
         <v>0.82</v>
@@ -54086,7 +54086,7 @@
         <v>0.83</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT264" t="n">
         <v>0.65</v>
@@ -54289,7 +54289,7 @@
         <v>0.77</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT265" t="n">
         <v>1.29</v>
@@ -54901,7 +54901,7 @@
         <v>2.35</v>
       </c>
       <c r="AT268" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU268" t="n">
         <v>2.39</v>
@@ -55104,7 +55104,7 @@
         <v>2.06</v>
       </c>
       <c r="AT269" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU269" t="n">
         <v>1.81</v>
@@ -55713,7 +55713,7 @@
         <v>1.47</v>
       </c>
       <c r="AT272" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU272" t="n">
         <v>1.98</v>
@@ -55916,7 +55916,7 @@
         <v>1.65</v>
       </c>
       <c r="AT273" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU273" t="n">
         <v>1.74</v>
@@ -56525,7 +56525,7 @@
         <v>2.35</v>
       </c>
       <c r="AT276" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU276" t="n">
         <v>2.46</v>
@@ -56728,7 +56728,7 @@
         <v>1.41</v>
       </c>
       <c r="AT277" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU277" t="n">
         <v>1.55</v>
@@ -57131,7 +57131,7 @@
         <v>0.46</v>
       </c>
       <c r="AS279" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT279" t="n">
         <v>0.71</v>
@@ -57537,7 +57537,7 @@
         <v>0.77</v>
       </c>
       <c r="AS281" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AT281" t="n">
         <v>0.88</v>
@@ -57946,7 +57946,7 @@
         <v>2.06</v>
       </c>
       <c r="AT283" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU283" t="n">
         <v>1.77</v>
@@ -58146,10 +58146,10 @@
         <v>1.86</v>
       </c>
       <c r="AS284" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT284" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU284" t="n">
         <v>2.05</v>
@@ -58552,7 +58552,7 @@
         <v>2</v>
       </c>
       <c r="AS286" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT286" t="n">
         <v>1.82</v>
@@ -58755,10 +58755,10 @@
         <v>0.43</v>
       </c>
       <c r="AS287" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT287" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU287" t="n">
         <v>1.8</v>
@@ -58958,7 +58958,7 @@
         <v>2.57</v>
       </c>
       <c r="AS288" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT288" t="n">
         <v>2.35</v>
@@ -59570,7 +59570,7 @@
         <v>1.35</v>
       </c>
       <c r="AT291" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU291" t="n">
         <v>1.7</v>
@@ -60176,7 +60176,7 @@
         <v>1.36</v>
       </c>
       <c r="AS294" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT294" t="n">
         <v>1.35</v>
@@ -60788,7 +60788,7 @@
         <v>2.35</v>
       </c>
       <c r="AT297" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU297" t="n">
         <v>2.43</v>
@@ -61191,7 +61191,7 @@
         <v>2.14</v>
       </c>
       <c r="AS299" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AT299" t="n">
         <v>1.94</v>
@@ -61600,7 +61600,7 @@
         <v>1.47</v>
       </c>
       <c r="AT301" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU301" t="n">
         <v>1.91</v>
@@ -61800,7 +61800,7 @@
         <v>1.07</v>
       </c>
       <c r="AS302" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT302" t="n">
         <v>1.12</v>
@@ -62003,7 +62003,7 @@
         <v>2.07</v>
       </c>
       <c r="AS303" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT303" t="n">
         <v>1.82</v>
@@ -62209,7 +62209,7 @@
         <v>1.82</v>
       </c>
       <c r="AT304" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU304" t="n">
         <v>1.5</v>
@@ -62409,7 +62409,7 @@
         <v>0.29</v>
       </c>
       <c r="AS305" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT305" t="n">
         <v>0.41</v>
@@ -62615,7 +62615,7 @@
         <v>2.12</v>
       </c>
       <c r="AT306" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU306" t="n">
         <v>1.88</v>
@@ -63021,7 +63021,7 @@
         <v>1.35</v>
       </c>
       <c r="AT308" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU308" t="n">
         <v>1.68</v>
@@ -63427,7 +63427,7 @@
         <v>1.47</v>
       </c>
       <c r="AT310" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU310" t="n">
         <v>1.76</v>
@@ -63627,7 +63627,7 @@
         <v>1.07</v>
       </c>
       <c r="AS311" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT311" t="n">
         <v>1.29</v>
@@ -63833,7 +63833,7 @@
         <v>1.65</v>
       </c>
       <c r="AT312" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AU312" t="n">
         <v>1.77</v>
@@ -64439,7 +64439,7 @@
         <v>1.4</v>
       </c>
       <c r="AS315" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AT315" t="n">
         <v>1.41</v>
@@ -64642,7 +64642,7 @@
         <v>0.6</v>
       </c>
       <c r="AS316" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT316" t="n">
         <v>0.71</v>
@@ -64848,7 +64848,7 @@
         <v>2.06</v>
       </c>
       <c r="AT317" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU317" t="n">
         <v>1.93</v>
@@ -65860,7 +65860,7 @@
         <v>1.19</v>
       </c>
       <c r="AS322" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="AT322" t="n">
         <v>1.12</v>
@@ -66063,10 +66063,10 @@
         <v>0.38</v>
       </c>
       <c r="AS323" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AT323" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="AU323" t="n">
         <v>1.42</v>
@@ -66472,7 +66472,7 @@
         <v>1.47</v>
       </c>
       <c r="AT325" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU325" t="n">
         <v>1.77</v>
@@ -66875,10 +66875,10 @@
         <v>1</v>
       </c>
       <c r="AS327" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT327" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU327" t="n">
         <v>1.27</v>
@@ -67078,10 +67078,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS328" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="AT328" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU328" t="n">
         <v>1.75</v>
@@ -67484,7 +67484,7 @@
         <v>1.31</v>
       </c>
       <c r="AS330" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT330" t="n">
         <v>1.41</v>
@@ -67690,7 +67690,7 @@
         <v>1.71</v>
       </c>
       <c r="AT331" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU331" t="n">
         <v>1.82</v>
@@ -69772,6 +69772,1224 @@
       </c>
       <c r="BK341" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B342" t="n">
+        <v>2711001</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E342" s="2" t="n">
+        <v>45065.66666666666</v>
+      </c>
+      <c r="F342" t="n">
+        <v>35</v>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="I342" t="n">
+        <v>0</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0</v>
+      </c>
+      <c r="L342" t="n">
+        <v>2</v>
+      </c>
+      <c r="M342" t="n">
+        <v>0</v>
+      </c>
+      <c r="N342" t="n">
+        <v>2</v>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>['69', '76']</t>
+        </is>
+      </c>
+      <c r="P342" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q342" t="n">
+        <v>4</v>
+      </c>
+      <c r="R342" t="n">
+        <v>3</v>
+      </c>
+      <c r="S342" t="n">
+        <v>7</v>
+      </c>
+      <c r="T342" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U342" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V342" t="n">
+        <v>4</v>
+      </c>
+      <c r="W342" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X342" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y342" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z342" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA342" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB342" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC342" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AD342" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE342" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF342" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG342" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH342" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI342" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ342" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK342" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL342" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM342" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN342" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO342" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP342" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ342" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AR342" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AS342" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT342" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AU342" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV342" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW342" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX342" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY342" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ342" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BA342" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB342" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BC342" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD342" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE342" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF342" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG342" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH342" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI342" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ342" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK342" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B343" t="n">
+        <v>2711003</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E343" s="2" t="n">
+        <v>45066.375</v>
+      </c>
+      <c r="F343" t="n">
+        <v>35</v>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>Girona FC</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="I343" t="n">
+        <v>1</v>
+      </c>
+      <c r="J343" t="n">
+        <v>1</v>
+      </c>
+      <c r="K343" t="n">
+        <v>2</v>
+      </c>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="n">
+        <v>2</v>
+      </c>
+      <c r="N343" t="n">
+        <v>3</v>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P343" t="inlineStr">
+        <is>
+          <t>['9', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q343" t="n">
+        <v>3</v>
+      </c>
+      <c r="R343" t="n">
+        <v>1</v>
+      </c>
+      <c r="S343" t="n">
+        <v>4</v>
+      </c>
+      <c r="T343" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U343" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V343" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W343" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X343" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y343" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z343" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA343" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB343" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC343" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD343" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE343" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF343" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG343" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH343" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI343" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ343" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK343" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL343" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM343" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN343" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO343" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP343" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ343" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AR343" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS343" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT343" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AU343" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV343" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW343" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX343" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AY343" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ343" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BA343" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB343" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC343" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BD343" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE343" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF343" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG343" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH343" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI343" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ343" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK343" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B344" t="n">
+        <v>2710998</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E344" s="2" t="n">
+        <v>45066.46875</v>
+      </c>
+      <c r="F344" t="n">
+        <v>35</v>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>Athletic Club Bilbao</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>Celta de Vigo</t>
+        </is>
+      </c>
+      <c r="I344" t="n">
+        <v>1</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0</v>
+      </c>
+      <c r="K344" t="n">
+        <v>1</v>
+      </c>
+      <c r="L344" t="n">
+        <v>2</v>
+      </c>
+      <c r="M344" t="n">
+        <v>1</v>
+      </c>
+      <c r="N344" t="n">
+        <v>3</v>
+      </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>['5', '54']</t>
+        </is>
+      </c>
+      <c r="P344" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q344" t="n">
+        <v>8</v>
+      </c>
+      <c r="R344" t="n">
+        <v>5</v>
+      </c>
+      <c r="S344" t="n">
+        <v>13</v>
+      </c>
+      <c r="T344" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U344" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V344" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W344" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X344" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y344" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z344" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA344" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB344" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC344" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD344" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE344" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF344" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG344" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH344" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI344" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ344" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK344" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL344" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM344" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN344" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO344" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP344" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ344" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AR344" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS344" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT344" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU344" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV344" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW344" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX344" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY344" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ344" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BA344" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB344" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC344" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD344" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE344" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF344" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG344" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH344" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI344" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ344" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK344" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B345" t="n">
+        <v>2711005</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E345" s="2" t="n">
+        <v>45066.5625</v>
+      </c>
+      <c r="F345" t="n">
+        <v>35</v>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>Getafe CF</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>Elche CF</t>
+        </is>
+      </c>
+      <c r="I345" t="n">
+        <v>1</v>
+      </c>
+      <c r="J345" t="n">
+        <v>1</v>
+      </c>
+      <c r="K345" t="n">
+        <v>2</v>
+      </c>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="n">
+        <v>1</v>
+      </c>
+      <c r="N345" t="n">
+        <v>2</v>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="P345" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="Q345" t="n">
+        <v>5</v>
+      </c>
+      <c r="R345" t="n">
+        <v>6</v>
+      </c>
+      <c r="S345" t="n">
+        <v>11</v>
+      </c>
+      <c r="T345" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U345" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V345" t="n">
+        <v>7</v>
+      </c>
+      <c r="W345" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X345" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y345" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z345" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA345" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB345" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC345" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD345" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE345" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF345" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG345" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH345" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI345" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ345" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK345" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL345" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM345" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN345" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO345" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP345" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ345" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AR345" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AS345" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT345" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AU345" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV345" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW345" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AX345" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY345" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ345" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BA345" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB345" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC345" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD345" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE345" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BF345" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG345" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH345" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI345" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ345" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK345" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B346" t="n">
+        <v>2711002</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E346" s="2" t="n">
+        <v>45066.5625</v>
+      </c>
+      <c r="F346" t="n">
+        <v>35</v>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>RCD Mallorca</t>
+        </is>
+      </c>
+      <c r="I346" t="n">
+        <v>2</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0</v>
+      </c>
+      <c r="K346" t="n">
+        <v>2</v>
+      </c>
+      <c r="L346" t="n">
+        <v>3</v>
+      </c>
+      <c r="M346" t="n">
+        <v>0</v>
+      </c>
+      <c r="N346" t="n">
+        <v>3</v>
+      </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>['12', '42', '58']</t>
+        </is>
+      </c>
+      <c r="P346" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q346" t="n">
+        <v>4</v>
+      </c>
+      <c r="R346" t="n">
+        <v>6</v>
+      </c>
+      <c r="S346" t="n">
+        <v>10</v>
+      </c>
+      <c r="T346" t="n">
+        <v>3</v>
+      </c>
+      <c r="U346" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V346" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W346" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X346" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y346" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z346" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA346" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB346" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC346" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD346" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE346" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF346" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG346" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH346" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI346" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ346" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK346" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL346" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM346" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN346" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO346" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP346" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ346" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR346" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS346" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT346" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU346" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV346" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW346" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX346" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AY346" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ346" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA346" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB346" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC346" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD346" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE346" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BF346" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG346" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH346" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI346" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ346" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK346" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B347" t="n">
+        <v>2711000</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E347" s="2" t="n">
+        <v>45066.66666666666</v>
+      </c>
+      <c r="F347" t="n">
+        <v>35</v>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="I347" t="n">
+        <v>0</v>
+      </c>
+      <c r="J347" t="n">
+        <v>1</v>
+      </c>
+      <c r="K347" t="n">
+        <v>1</v>
+      </c>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="n">
+        <v>2</v>
+      </c>
+      <c r="N347" t="n">
+        <v>3</v>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P347" t="inlineStr">
+        <is>
+          <t>['5', '72']</t>
+        </is>
+      </c>
+      <c r="Q347" t="n">
+        <v>8</v>
+      </c>
+      <c r="R347" t="n">
+        <v>2</v>
+      </c>
+      <c r="S347" t="n">
+        <v>10</v>
+      </c>
+      <c r="T347" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U347" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V347" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W347" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X347" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y347" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z347" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA347" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB347" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC347" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD347" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE347" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF347" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG347" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH347" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI347" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ347" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK347" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL347" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM347" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN347" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO347" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP347" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AQ347" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AR347" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS347" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT347" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU347" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AV347" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW347" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AX347" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY347" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ347" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BA347" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB347" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC347" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD347" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE347" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF347" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG347" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH347" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI347" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ347" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK347" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK347"/>
+  <dimension ref="A1:BK351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.35</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT7" t="n">
         <v>0.88</v>
@@ -2121,7 +2121,7 @@
         <v>1.78</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT13" t="n">
         <v>0.61</v>
@@ -3542,7 +3542,7 @@
         <v>1.71</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.35</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU16" t="n">
         <v>1.09</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT18" t="n">
         <v>1.39</v>
@@ -5166,7 +5166,7 @@
         <v>1.82</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU23" t="n">
         <v>2.21</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT25" t="n">
         <v>0.83</v>
@@ -6384,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU29" t="n">
         <v>1.51</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT31" t="n">
         <v>1.94</v>
@@ -7399,7 +7399,7 @@
         <v>2.35</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AU34" t="n">
         <v>0</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT36" t="n">
         <v>2.35</v>
@@ -8211,7 +8211,7 @@
         <v>1.5</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU38" t="n">
         <v>2.14</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT40" t="n">
         <v>0.65</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT43" t="n">
         <v>0.71</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT46" t="n">
         <v>0.89</v>
@@ -10850,7 +10850,7 @@
         <v>1.78</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU51" t="n">
         <v>1.4</v>
@@ -11659,7 +11659,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT55" t="n">
         <v>0.89</v>
@@ -12677,7 +12677,7 @@
         <v>1.88</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU60" t="n">
         <v>1.62</v>
@@ -12877,10 +12877,10 @@
         <v>3</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU61" t="n">
         <v>1.78</v>
@@ -13689,7 +13689,7 @@
         <v>2.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT65" t="n">
         <v>1.94</v>
@@ -14301,7 +14301,7 @@
         <v>1.35</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AU68" t="n">
         <v>1.34</v>
@@ -14707,7 +14707,7 @@
         <v>2.35</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU70" t="n">
         <v>2.46</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT71" t="n">
         <v>0.39</v>
@@ -15516,7 +15516,7 @@
         <v>0.33</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT74" t="n">
         <v>0.88</v>
@@ -15719,7 +15719,7 @@
         <v>3</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT75" t="n">
         <v>1.35</v>
@@ -15925,7 +15925,7 @@
         <v>1.33</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU76" t="n">
         <v>1.18</v>
@@ -16128,7 +16128,7 @@
         <v>1.41</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AU77" t="n">
         <v>1.57</v>
@@ -16331,7 +16331,7 @@
         <v>1.33</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU78" t="n">
         <v>1.08</v>
@@ -17140,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT82" t="n">
         <v>0.65</v>
@@ -17546,7 +17546,7 @@
         <v>0</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT84" t="n">
         <v>0.39</v>
@@ -18970,7 +18970,7 @@
         <v>2.06</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU91" t="n">
         <v>2.05</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT92" t="n">
         <v>0.71</v>
@@ -19576,7 +19576,7 @@
         <v>0.8</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT94" t="n">
         <v>1</v>
@@ -19782,7 +19782,7 @@
         <v>1.33</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AU95" t="n">
         <v>1.14</v>
@@ -20391,7 +20391,7 @@
         <v>0.76</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU98" t="n">
         <v>1.29</v>
@@ -20797,7 +20797,7 @@
         <v>1.65</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU100" t="n">
         <v>1.63</v>
@@ -21200,7 +21200,7 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT102" t="n">
         <v>0.82</v>
@@ -21606,7 +21606,7 @@
         <v>1</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT104" t="n">
         <v>0.83</v>
@@ -22421,7 +22421,7 @@
         <v>1.83</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU108" t="n">
         <v>1.88</v>
@@ -23233,7 +23233,7 @@
         <v>1.71</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU112" t="n">
         <v>1.29</v>
@@ -23839,7 +23839,7 @@
         <v>0.83</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT115" t="n">
         <v>1</v>
@@ -24042,7 +24042,7 @@
         <v>2.4</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT116" t="n">
         <v>2.35</v>
@@ -24857,7 +24857,7 @@
         <v>1.88</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AU120" t="n">
         <v>1.75</v>
@@ -25872,7 +25872,7 @@
         <v>1.35</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU125" t="n">
         <v>1.57</v>
@@ -26275,10 +26275,10 @@
         <v>1</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU127" t="n">
         <v>1.64</v>
@@ -27087,10 +27087,10 @@
         <v>3</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU131" t="n">
         <v>2.15</v>
@@ -27899,7 +27899,7 @@
         <v>2</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT135" t="n">
         <v>1.83</v>
@@ -28711,7 +28711,7 @@
         <v>0.5</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT139" t="n">
         <v>0.89</v>
@@ -28914,10 +28914,10 @@
         <v>1.33</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AU140" t="n">
         <v>1.82</v>
@@ -29726,7 +29726,7 @@
         <v>0.29</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT144" t="n">
         <v>0.39</v>
@@ -30541,7 +30541,7 @@
         <v>1.41</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU148" t="n">
         <v>1.58</v>
@@ -30744,7 +30744,7 @@
         <v>2.5</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU149" t="n">
         <v>2.45</v>
@@ -30947,7 +30947,7 @@
         <v>1.88</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU150" t="n">
         <v>1.71</v>
@@ -31553,7 +31553,7 @@
         <v>0.71</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT153" t="n">
         <v>0.82</v>
@@ -31759,7 +31759,7 @@
         <v>2.06</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU154" t="n">
         <v>1.84</v>
@@ -32568,10 +32568,10 @@
         <v>1.14</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AU158" t="n">
         <v>2.04</v>
@@ -32771,7 +32771,7 @@
         <v>1.14</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT159" t="n">
         <v>0.65</v>
@@ -32974,7 +32974,7 @@
         <v>2.57</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT160" t="n">
         <v>2.35</v>
@@ -33180,7 +33180,7 @@
         <v>1.5</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU161" t="n">
         <v>2.13</v>
@@ -34398,7 +34398,7 @@
         <v>1.33</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU167" t="n">
         <v>1.2</v>
@@ -35207,7 +35207,7 @@
         <v>2.25</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT171" t="n">
         <v>1.83</v>
@@ -35413,7 +35413,7 @@
         <v>1</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AU172" t="n">
         <v>1.65</v>
@@ -35613,7 +35613,7 @@
         <v>0.5</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT173" t="n">
         <v>0.61</v>
@@ -35816,7 +35816,7 @@
         <v>1</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT174" t="n">
         <v>0.82</v>
@@ -36225,7 +36225,7 @@
         <v>0.76</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU176" t="n">
         <v>1.38</v>
@@ -36631,7 +36631,7 @@
         <v>1.5</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU178" t="n">
         <v>2.08</v>
@@ -36831,7 +36831,7 @@
         <v>0.25</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT179" t="n">
         <v>0.41</v>
@@ -37037,7 +37037,7 @@
         <v>1.78</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU180" t="n">
         <v>1.37</v>
@@ -37643,7 +37643,7 @@
         <v>0.33</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT183" t="n">
         <v>0.39</v>
@@ -37849,7 +37849,7 @@
         <v>1.33</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AU184" t="n">
         <v>1.22</v>
@@ -39676,7 +39676,7 @@
         <v>1</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU193" t="n">
         <v>1.59</v>
@@ -40079,7 +40079,7 @@
         <v>0.89</v>
       </c>
       <c r="AS195" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT195" t="n">
         <v>0.65</v>
@@ -40488,7 +40488,7 @@
         <v>1.71</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU197" t="n">
         <v>1.32</v>
@@ -41297,7 +41297,7 @@
         <v>0.33</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT201" t="n">
         <v>0.41</v>
@@ -41706,7 +41706,7 @@
         <v>1.78</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AU203" t="n">
         <v>1.42</v>
@@ -41906,7 +41906,7 @@
         <v>1.1</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT204" t="n">
         <v>0.83</v>
@@ -42109,7 +42109,7 @@
         <v>1</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT205" t="n">
         <v>1.35</v>
@@ -42721,7 +42721,7 @@
         <v>1.41</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU208" t="n">
         <v>1.52</v>
@@ -44345,7 +44345,7 @@
         <v>1.65</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU216" t="n">
         <v>1.8</v>
@@ -44548,7 +44548,7 @@
         <v>0.76</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU217" t="n">
         <v>1.47</v>
@@ -44748,7 +44748,7 @@
         <v>0.9</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT218" t="n">
         <v>1.29</v>
@@ -44951,7 +44951,7 @@
         <v>1.2</v>
       </c>
       <c r="AS219" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT219" t="n">
         <v>1.35</v>
@@ -45563,7 +45563,7 @@
         <v>0.76</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AU222" t="n">
         <v>1.47</v>
@@ -46372,7 +46372,7 @@
         <v>2.27</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT226" t="n">
         <v>1.83</v>
@@ -47184,10 +47184,10 @@
         <v>1.09</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU230" t="n">
         <v>1.92</v>
@@ -48402,7 +48402,7 @@
         <v>0.91</v>
       </c>
       <c r="AS236" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT236" t="n">
         <v>1.29</v>
@@ -48608,7 +48608,7 @@
         <v>1.41</v>
       </c>
       <c r="AT237" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU237" t="n">
         <v>1.55</v>
@@ -49011,7 +49011,7 @@
         <v>1.09</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT239" t="n">
         <v>1.35</v>
@@ -49217,7 +49217,7 @@
         <v>1.82</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU240" t="n">
         <v>1.58</v>
@@ -49826,7 +49826,7 @@
         <v>2.35</v>
       </c>
       <c r="AT243" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU243" t="n">
         <v>2.36</v>
@@ -50432,10 +50432,10 @@
         <v>1.25</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU246" t="n">
         <v>1.78</v>
@@ -50838,7 +50838,7 @@
         <v>0.27</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT248" t="n">
         <v>0.41</v>
@@ -51044,7 +51044,7 @@
         <v>2.06</v>
       </c>
       <c r="AT249" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AU249" t="n">
         <v>1.84</v>
@@ -52056,7 +52056,7 @@
         <v>0.75</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT254" t="n">
         <v>0.88</v>
@@ -52462,7 +52462,7 @@
         <v>0.5</v>
       </c>
       <c r="AS256" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT256" t="n">
         <v>0.71</v>
@@ -53480,7 +53480,7 @@
         <v>2.5</v>
       </c>
       <c r="AT261" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU261" t="n">
         <v>2.17</v>
@@ -53683,7 +53683,7 @@
         <v>1.71</v>
       </c>
       <c r="AT262" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU262" t="n">
         <v>1.24</v>
@@ -53886,7 +53886,7 @@
         <v>1.83</v>
       </c>
       <c r="AT263" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU263" t="n">
         <v>1.83</v>
@@ -55304,10 +55304,10 @@
         <v>1.62</v>
       </c>
       <c r="AS270" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT270" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AU270" t="n">
         <v>1.82</v>
@@ -55507,7 +55507,7 @@
         <v>1.23</v>
       </c>
       <c r="AS271" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT271" t="n">
         <v>1</v>
@@ -55710,7 +55710,7 @@
         <v>1.15</v>
       </c>
       <c r="AS272" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT272" t="n">
         <v>0.89</v>
@@ -57334,7 +57334,7 @@
         <v>2.08</v>
       </c>
       <c r="AS280" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT280" t="n">
         <v>1.94</v>
@@ -57740,10 +57740,10 @@
         <v>1.14</v>
       </c>
       <c r="AS282" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT282" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU282" t="n">
         <v>1.85</v>
@@ -58352,7 +58352,7 @@
         <v>1.82</v>
       </c>
       <c r="AT285" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU285" t="n">
         <v>1.48</v>
@@ -58555,7 +58555,7 @@
         <v>1.33</v>
       </c>
       <c r="AT286" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU286" t="n">
         <v>1.34</v>
@@ -59161,7 +59161,7 @@
         <v>0.31</v>
       </c>
       <c r="AS289" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT289" t="n">
         <v>0.41</v>
@@ -59364,7 +59364,7 @@
         <v>0.93</v>
       </c>
       <c r="AS290" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT290" t="n">
         <v>1.29</v>
@@ -59976,7 +59976,7 @@
         <v>1.65</v>
       </c>
       <c r="AT293" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AU293" t="n">
         <v>1.8</v>
@@ -61597,7 +61597,7 @@
         <v>1.4</v>
       </c>
       <c r="AS301" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT301" t="n">
         <v>1.39</v>
@@ -61803,7 +61803,7 @@
         <v>1.33</v>
       </c>
       <c r="AT302" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU302" t="n">
         <v>1.33</v>
@@ -62006,7 +62006,7 @@
         <v>1.83</v>
       </c>
       <c r="AT303" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU303" t="n">
         <v>1.78</v>
@@ -62612,7 +62612,7 @@
         <v>1</v>
       </c>
       <c r="AS306" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT306" t="n">
         <v>0.83</v>
@@ -62815,7 +62815,7 @@
         <v>2.47</v>
       </c>
       <c r="AS307" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT307" t="n">
         <v>2.35</v>
@@ -63224,7 +63224,7 @@
         <v>2.06</v>
       </c>
       <c r="AT309" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU309" t="n">
         <v>1.85</v>
@@ -63424,7 +63424,7 @@
         <v>0.73</v>
       </c>
       <c r="AS310" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT310" t="n">
         <v>0.61</v>
@@ -64442,7 +64442,7 @@
         <v>2.5</v>
       </c>
       <c r="AT315" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AU315" t="n">
         <v>2.12</v>
@@ -65657,7 +65657,7 @@
         <v>0.73</v>
       </c>
       <c r="AS321" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT321" t="n">
         <v>0.88</v>
@@ -65863,7 +65863,7 @@
         <v>2.5</v>
       </c>
       <c r="AT322" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU322" t="n">
         <v>2.11</v>
@@ -66269,7 +66269,7 @@
         <v>1.88</v>
       </c>
       <c r="AT324" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU324" t="n">
         <v>1.52</v>
@@ -66469,7 +66469,7 @@
         <v>1.31</v>
       </c>
       <c r="AS325" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT325" t="n">
         <v>1.39</v>
@@ -66672,7 +66672,7 @@
         <v>0.93</v>
       </c>
       <c r="AS326" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="AT326" t="n">
         <v>0.82</v>
@@ -67281,10 +67281,10 @@
         <v>0.88</v>
       </c>
       <c r="AS329" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT329" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU329" t="n">
         <v>1.92</v>
@@ -67487,7 +67487,7 @@
         <v>1.5</v>
       </c>
       <c r="AT330" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AU330" t="n">
         <v>1.97</v>
@@ -67687,7 +67687,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS331" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT331" t="n">
         <v>0.61</v>
@@ -70990,6 +70990,818 @@
       </c>
       <c r="BK347" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B348" t="n">
+        <v>2711006</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E348" s="2" t="n">
+        <v>45067.375</v>
+      </c>
+      <c r="F348" t="n">
+        <v>35</v>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>RCD Espanyol</t>
+        </is>
+      </c>
+      <c r="I348" t="n">
+        <v>1</v>
+      </c>
+      <c r="J348" t="n">
+        <v>1</v>
+      </c>
+      <c r="K348" t="n">
+        <v>2</v>
+      </c>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="n">
+        <v>2</v>
+      </c>
+      <c r="N348" t="n">
+        <v>3</v>
+      </c>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="P348" t="inlineStr">
+        <is>
+          <t>['23', '59']</t>
+        </is>
+      </c>
+      <c r="Q348" t="n">
+        <v>4</v>
+      </c>
+      <c r="R348" t="n">
+        <v>4</v>
+      </c>
+      <c r="S348" t="n">
+        <v>8</v>
+      </c>
+      <c r="T348" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U348" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V348" t="n">
+        <v>4</v>
+      </c>
+      <c r="W348" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X348" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y348" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z348" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA348" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB348" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC348" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AD348" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AE348" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AF348" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG348" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH348" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI348" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ348" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK348" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL348" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM348" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN348" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO348" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP348" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ348" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR348" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS348" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AT348" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU348" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV348" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW348" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX348" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY348" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ348" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA348" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB348" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC348" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD348" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE348" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF348" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG348" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH348" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI348" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ348" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK348" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B349" t="n">
+        <v>2710999</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E349" s="2" t="n">
+        <v>45067.46875</v>
+      </c>
+      <c r="F349" t="n">
+        <v>35</v>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>CA Osasuna</t>
+        </is>
+      </c>
+      <c r="I349" t="n">
+        <v>1</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0</v>
+      </c>
+      <c r="K349" t="n">
+        <v>1</v>
+      </c>
+      <c r="L349" t="n">
+        <v>3</v>
+      </c>
+      <c r="M349" t="n">
+        <v>0</v>
+      </c>
+      <c r="N349" t="n">
+        <v>3</v>
+      </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>['44', '62', '82']</t>
+        </is>
+      </c>
+      <c r="P349" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q349" t="n">
+        <v>8</v>
+      </c>
+      <c r="R349" t="n">
+        <v>10</v>
+      </c>
+      <c r="S349" t="n">
+        <v>18</v>
+      </c>
+      <c r="T349" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U349" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V349" t="n">
+        <v>8</v>
+      </c>
+      <c r="W349" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X349" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y349" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z349" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA349" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB349" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC349" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD349" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE349" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF349" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG349" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH349" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI349" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ349" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK349" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL349" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM349" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN349" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO349" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP349" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AQ349" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AR349" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS349" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT349" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU349" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV349" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW349" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX349" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AY349" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ349" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA349" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB349" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC349" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD349" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE349" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF349" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG349" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH349" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI349" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ349" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK349" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B350" t="n">
+        <v>2711007</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E350" s="2" t="n">
+        <v>45067.5625</v>
+      </c>
+      <c r="F350" t="n">
+        <v>35</v>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>Valencia CF</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="I350" t="n">
+        <v>1</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0</v>
+      </c>
+      <c r="K350" t="n">
+        <v>1</v>
+      </c>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N350" t="n">
+        <v>1</v>
+      </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P350" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q350" t="n">
+        <v>2</v>
+      </c>
+      <c r="R350" t="n">
+        <v>9</v>
+      </c>
+      <c r="S350" t="n">
+        <v>11</v>
+      </c>
+      <c r="T350" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U350" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V350" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W350" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X350" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y350" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z350" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA350" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB350" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC350" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AD350" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AE350" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AF350" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG350" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH350" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI350" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ350" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK350" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL350" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM350" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN350" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AO350" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP350" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ350" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR350" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS350" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT350" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AU350" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV350" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AW350" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AX350" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY350" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ350" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA350" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB350" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC350" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD350" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE350" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF350" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG350" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH350" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI350" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ350" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK350" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B351" t="n">
+        <v>2711004</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E351" s="2" t="n">
+        <v>45067.66666666666</v>
+      </c>
+      <c r="F351" t="n">
+        <v>35</v>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>Sevilla FC</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="I351" t="n">
+        <v>0</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0</v>
+      </c>
+      <c r="L351" t="n">
+        <v>0</v>
+      </c>
+      <c r="M351" t="n">
+        <v>0</v>
+      </c>
+      <c r="N351" t="n">
+        <v>0</v>
+      </c>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P351" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q351" t="n">
+        <v>4</v>
+      </c>
+      <c r="R351" t="n">
+        <v>3</v>
+      </c>
+      <c r="S351" t="n">
+        <v>7</v>
+      </c>
+      <c r="T351" t="n">
+        <v>3</v>
+      </c>
+      <c r="U351" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V351" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W351" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X351" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y351" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z351" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA351" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB351" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC351" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD351" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE351" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF351" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG351" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH351" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI351" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AJ351" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK351" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL351" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM351" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN351" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO351" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP351" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ351" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR351" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS351" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT351" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AU351" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV351" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW351" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX351" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY351" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ351" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BA351" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB351" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC351" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BD351" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE351" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF351" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG351" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH351" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI351" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ351" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK351" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK351"/>
+  <dimension ref="A1:BK359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.65</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT3" t="n">
         <v>0.9399999999999999</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT4" t="n">
         <v>1.39</v>
@@ -1512,7 +1512,7 @@
         <v>2.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.56</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.33</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT11" t="n">
         <v>0.39</v>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.65</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU14" t="n">
         <v>1.45</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT16" t="n">
         <v>1.72</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.83</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT23" t="n">
         <v>1.06</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT24" t="n">
         <v>1.83</v>
@@ -5775,7 +5775,7 @@
         <v>1.78</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU26" t="n">
         <v>1.31</v>
@@ -6790,7 +6790,7 @@
         <v>1.56</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AU31" t="n">
         <v>1.68</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU32" t="n">
         <v>1.37</v>
@@ -7196,7 +7196,7 @@
         <v>1.71</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU33" t="n">
         <v>1.45</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT34" t="n">
         <v>1.39</v>
@@ -7599,10 +7599,10 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AU35" t="n">
         <v>1.54</v>
@@ -7805,7 +7805,7 @@
         <v>1.44</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AU36" t="n">
         <v>2.23</v>
@@ -8008,7 +8008,7 @@
         <v>1.65</v>
       </c>
       <c r="AT37" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU37" t="n">
         <v>1.69</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT39" t="n">
         <v>0.39</v>
@@ -8617,7 +8617,7 @@
         <v>1.56</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU40" t="n">
         <v>1.71</v>
@@ -8817,10 +8817,10 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU41" t="n">
         <v>1.67</v>
@@ -9429,7 +9429,7 @@
         <v>1</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU44" t="n">
         <v>1.52</v>
@@ -9632,7 +9632,7 @@
         <v>1.33</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AU45" t="n">
         <v>1.15</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT47" t="n">
         <v>0.83</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT48" t="n">
         <v>1.35</v>
@@ -10644,7 +10644,7 @@
         <v>2.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT50" t="n">
         <v>1.39</v>
@@ -11050,10 +11050,10 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU52" t="n">
         <v>1.27</v>
@@ -11256,7 +11256,7 @@
         <v>1.71</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU53" t="n">
         <v>1.46</v>
@@ -11865,7 +11865,7 @@
         <v>1.5</v>
       </c>
       <c r="AT56" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU56" t="n">
         <v>2.1</v>
@@ -12068,7 +12068,7 @@
         <v>1.65</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU57" t="n">
         <v>1.76</v>
@@ -12268,10 +12268,10 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU58" t="n">
         <v>2.19</v>
@@ -12471,10 +12471,10 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU59" t="n">
         <v>1.68</v>
@@ -12674,7 +12674,7 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT60" t="n">
         <v>0.9399999999999999</v>
@@ -13083,7 +13083,7 @@
         <v>1.5</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU62" t="n">
         <v>2.11</v>
@@ -13692,7 +13692,7 @@
         <v>1.44</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AU65" t="n">
         <v>2.05</v>
@@ -13895,7 +13895,7 @@
         <v>1.71</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AU66" t="n">
         <v>1.23</v>
@@ -14298,7 +14298,7 @@
         <v>1.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT68" t="n">
         <v>1.39</v>
@@ -14704,7 +14704,7 @@
         <v>1.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT70" t="n">
         <v>1.06</v>
@@ -15316,7 +15316,7 @@
         <v>1.78</v>
       </c>
       <c r="AT73" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU73" t="n">
         <v>1.28</v>
@@ -15519,7 +15519,7 @@
         <v>2.17</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU74" t="n">
         <v>1.71</v>
@@ -16125,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT77" t="n">
         <v>1.39</v>
@@ -16531,7 +16531,7 @@
         <v>1.6</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT79" t="n">
         <v>1.39</v>
@@ -16937,7 +16937,7 @@
         <v>1.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT81" t="n">
         <v>0.83</v>
@@ -17143,7 +17143,7 @@
         <v>1.61</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU82" t="n">
         <v>1.93</v>
@@ -17346,7 +17346,7 @@
         <v>1.83</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU83" t="n">
         <v>1.65</v>
@@ -17752,7 +17752,7 @@
         <v>1.71</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU85" t="n">
         <v>1.27</v>
@@ -17955,7 +17955,7 @@
         <v>1.5</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AU86" t="n">
         <v>2.15</v>
@@ -18155,7 +18155,7 @@
         <v>2.25</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT87" t="n">
         <v>1.83</v>
@@ -18358,10 +18358,10 @@
         <v>3</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AU88" t="n">
         <v>2.54</v>
@@ -18764,10 +18764,10 @@
         <v>0.25</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU90" t="n">
         <v>1.57</v>
@@ -18967,7 +18967,7 @@
         <v>1.33</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT91" t="n">
         <v>1.06</v>
@@ -19579,7 +19579,7 @@
         <v>2.17</v>
       </c>
       <c r="AT94" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU94" t="n">
         <v>1.66</v>
@@ -19982,7 +19982,7 @@
         <v>0.75</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT96" t="n">
         <v>0.89</v>
@@ -20185,7 +20185,7 @@
         <v>1.25</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT97" t="n">
         <v>0.83</v>
@@ -20388,7 +20388,7 @@
         <v>3</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT98" t="n">
         <v>1.72</v>
@@ -20594,7 +20594,7 @@
         <v>1.78</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU99" t="n">
         <v>1.25</v>
@@ -21203,7 +21203,7 @@
         <v>1.61</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU102" t="n">
         <v>1.89</v>
@@ -21403,7 +21403,7 @@
         <v>2.4</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT103" t="n">
         <v>1.83</v>
@@ -21809,10 +21809,10 @@
         <v>1.4</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU105" t="n">
         <v>2.23</v>
@@ -22215,10 +22215,10 @@
         <v>2.6</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AU107" t="n">
         <v>1.66</v>
@@ -22621,10 +22621,10 @@
         <v>0.2</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU109" t="n">
         <v>1.96</v>
@@ -23027,10 +23027,10 @@
         <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU111" t="n">
         <v>1.39</v>
@@ -23639,7 +23639,7 @@
         <v>1.33</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AU114" t="n">
         <v>1.22</v>
@@ -23842,7 +23842,7 @@
         <v>1.44</v>
       </c>
       <c r="AT115" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU115" t="n">
         <v>1.85</v>
@@ -24045,7 +24045,7 @@
         <v>1.56</v>
       </c>
       <c r="AT116" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AU116" t="n">
         <v>1.99</v>
@@ -24448,10 +24448,10 @@
         <v>0.2</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU118" t="n">
         <v>2.16</v>
@@ -24854,7 +24854,7 @@
         <v>1</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT120" t="n">
         <v>1.39</v>
@@ -25057,10 +25057,10 @@
         <v>1</v>
       </c>
       <c r="AS121" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU121" t="n">
         <v>1.26</v>
@@ -25466,7 +25466,7 @@
         <v>1.33</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU123" t="n">
         <v>1.16</v>
@@ -25666,7 +25666,7 @@
         <v>0.33</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT124" t="n">
         <v>0.39</v>
@@ -25869,7 +25869,7 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT125" t="n">
         <v>1.06</v>
@@ -26075,7 +26075,7 @@
         <v>2.5</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU126" t="n">
         <v>2.29</v>
@@ -26478,7 +26478,7 @@
         <v>1</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT128" t="n">
         <v>0.71</v>
@@ -26681,7 +26681,7 @@
         <v>1.33</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT129" t="n">
         <v>0.83</v>
@@ -26884,10 +26884,10 @@
         <v>1.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU130" t="n">
         <v>1.71</v>
@@ -27290,10 +27290,10 @@
         <v>0.33</v>
       </c>
       <c r="AS132" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU132" t="n">
         <v>1.33</v>
@@ -27699,7 +27699,7 @@
         <v>1.65</v>
       </c>
       <c r="AT134" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AU134" t="n">
         <v>1.86</v>
@@ -28105,7 +28105,7 @@
         <v>1.78</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU136" t="n">
         <v>1.45</v>
@@ -28511,7 +28511,7 @@
         <v>1.71</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AU138" t="n">
         <v>1.36</v>
@@ -29117,10 +29117,10 @@
         <v>0.83</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU141" t="n">
         <v>2.2</v>
@@ -29323,7 +29323,7 @@
         <v>1.83</v>
       </c>
       <c r="AT142" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU142" t="n">
         <v>1.89</v>
@@ -29523,7 +29523,7 @@
         <v>1.33</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT143" t="n">
         <v>1.35</v>
@@ -30132,10 +30132,10 @@
         <v>1.14</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU146" t="n">
         <v>1.58</v>
@@ -30338,7 +30338,7 @@
         <v>1.33</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU147" t="n">
         <v>1.26</v>
@@ -30538,7 +30538,7 @@
         <v>2.57</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT148" t="n">
         <v>1.72</v>
@@ -30944,7 +30944,7 @@
         <v>1.33</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT150" t="n">
         <v>1.06</v>
@@ -31147,7 +31147,7 @@
         <v>1</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT151" t="n">
         <v>0.71</v>
@@ -31350,7 +31350,7 @@
         <v>0.57</v>
       </c>
       <c r="AS152" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT152" t="n">
         <v>0.89</v>
@@ -31556,7 +31556,7 @@
         <v>1.56</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU153" t="n">
         <v>1.84</v>
@@ -31756,7 +31756,7 @@
         <v>2.63</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT154" t="n">
         <v>1.72</v>
@@ -32165,7 +32165,7 @@
         <v>1</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU156" t="n">
         <v>1.67</v>
@@ -32774,7 +32774,7 @@
         <v>1.44</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU159" t="n">
         <v>1.69</v>
@@ -32977,7 +32977,7 @@
         <v>2.17</v>
       </c>
       <c r="AT160" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AU160" t="n">
         <v>1.75</v>
@@ -33380,7 +33380,7 @@
         <v>1.22</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT162" t="n">
         <v>1.39</v>
@@ -33583,10 +33583,10 @@
         <v>1.13</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT163" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU163" t="n">
         <v>1.56</v>
@@ -33789,7 +33789,7 @@
         <v>1.83</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU164" t="n">
         <v>1.95</v>
@@ -34192,7 +34192,7 @@
         <v>1.29</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT166" t="n">
         <v>1.35</v>
@@ -34601,7 +34601,7 @@
         <v>1.78</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AU168" t="n">
         <v>1.33</v>
@@ -35819,7 +35819,7 @@
         <v>1.44</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU174" t="n">
         <v>1.68</v>
@@ -36019,10 +36019,10 @@
         <v>0.75</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU175" t="n">
         <v>1.85</v>
@@ -36222,7 +36222,7 @@
         <v>1.13</v>
       </c>
       <c r="AS176" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT176" t="n">
         <v>1.06</v>
@@ -36428,7 +36428,7 @@
         <v>2.5</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU177" t="n">
         <v>2.43</v>
@@ -36834,7 +36834,7 @@
         <v>1.56</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU179" t="n">
         <v>1.82</v>
@@ -37443,7 +37443,7 @@
         <v>1.83</v>
       </c>
       <c r="AT182" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AU182" t="n">
         <v>1.92</v>
@@ -38049,7 +38049,7 @@
         <v>0.86</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT185" t="n">
         <v>0.71</v>
@@ -38255,7 +38255,7 @@
         <v>1.65</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AU186" t="n">
         <v>1.79</v>
@@ -38455,7 +38455,7 @@
         <v>1.13</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT187" t="n">
         <v>1.35</v>
@@ -38658,7 +38658,7 @@
         <v>2.33</v>
       </c>
       <c r="AS188" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT188" t="n">
         <v>1.83</v>
@@ -38861,10 +38861,10 @@
         <v>1.33</v>
       </c>
       <c r="AS189" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT189" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU189" t="n">
         <v>1.94</v>
@@ -39064,10 +39064,10 @@
         <v>2.67</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT190" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AU190" t="n">
         <v>1.61</v>
@@ -39267,7 +39267,7 @@
         <v>0.75</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT191" t="n">
         <v>0.71</v>
@@ -39473,7 +39473,7 @@
         <v>1.5</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU192" t="n">
         <v>2.08</v>
@@ -39876,7 +39876,7 @@
         <v>1.2</v>
       </c>
       <c r="AS194" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT194" t="n">
         <v>1.39</v>
@@ -40082,7 +40082,7 @@
         <v>2.17</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU195" t="n">
         <v>1.8</v>
@@ -40282,7 +40282,7 @@
         <v>0.78</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT196" t="n">
         <v>0.89</v>
@@ -40891,7 +40891,7 @@
         <v>0.44</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT199" t="n">
         <v>0.61</v>
@@ -41097,7 +41097,7 @@
         <v>2.5</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU200" t="n">
         <v>2.34</v>
@@ -41300,7 +41300,7 @@
         <v>1.61</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU201" t="n">
         <v>1.95</v>
@@ -41503,7 +41503,7 @@
         <v>1.33</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU202" t="n">
         <v>1.34</v>
@@ -42315,7 +42315,7 @@
         <v>1.33</v>
       </c>
       <c r="AT206" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU206" t="n">
         <v>1.18</v>
@@ -42515,10 +42515,10 @@
         <v>2</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AU207" t="n">
         <v>1.66</v>
@@ -42718,7 +42718,7 @@
         <v>1.1</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT208" t="n">
         <v>1.06</v>
@@ -42921,10 +42921,10 @@
         <v>2.7</v>
       </c>
       <c r="AS209" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT209" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AU209" t="n">
         <v>1.91</v>
@@ -43327,7 +43327,7 @@
         <v>0.3</v>
       </c>
       <c r="AS211" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT211" t="n">
         <v>0.39</v>
@@ -43533,7 +43533,7 @@
         <v>1.83</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU212" t="n">
         <v>1.9</v>
@@ -43733,7 +43733,7 @@
         <v>1</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT213" t="n">
         <v>0.89</v>
@@ -43936,7 +43936,7 @@
         <v>0.7</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT214" t="n">
         <v>0.61</v>
@@ -44545,7 +44545,7 @@
         <v>1.1</v>
       </c>
       <c r="AS217" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT217" t="n">
         <v>0.9399999999999999</v>
@@ -44751,7 +44751,7 @@
         <v>1.61</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU218" t="n">
         <v>1.97</v>
@@ -45157,7 +45157,7 @@
         <v>2.5</v>
       </c>
       <c r="AT220" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU220" t="n">
         <v>2.32</v>
@@ -45560,7 +45560,7 @@
         <v>1.55</v>
       </c>
       <c r="AS222" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT222" t="n">
         <v>1.39</v>
@@ -45969,7 +45969,7 @@
         <v>1.33</v>
       </c>
       <c r="AT224" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU224" t="n">
         <v>1.34</v>
@@ -46169,10 +46169,10 @@
         <v>2.09</v>
       </c>
       <c r="AS225" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AU225" t="n">
         <v>2.36</v>
@@ -46578,7 +46578,7 @@
         <v>1.5</v>
       </c>
       <c r="AT227" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU227" t="n">
         <v>2.07</v>
@@ -46778,7 +46778,7 @@
         <v>0.64</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT228" t="n">
         <v>0.61</v>
@@ -46984,7 +46984,7 @@
         <v>1.78</v>
       </c>
       <c r="AT229" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AU229" t="n">
         <v>1.51</v>
@@ -47387,10 +47387,10 @@
         <v>0.9</v>
       </c>
       <c r="AS231" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU231" t="n">
         <v>1.86</v>
@@ -47590,10 +47590,10 @@
         <v>0.73</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT232" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU232" t="n">
         <v>1.58</v>
@@ -47796,7 +47796,7 @@
         <v>1.33</v>
       </c>
       <c r="AT233" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU233" t="n">
         <v>1.23</v>
@@ -48405,7 +48405,7 @@
         <v>2.17</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU236" t="n">
         <v>1.82</v>
@@ -48605,7 +48605,7 @@
         <v>1.27</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT237" t="n">
         <v>0.9399999999999999</v>
@@ -49214,7 +49214,7 @@
         <v>2.25</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT240" t="n">
         <v>1.72</v>
@@ -49623,7 +49623,7 @@
         <v>1.33</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU242" t="n">
         <v>1.31</v>
@@ -49823,7 +49823,7 @@
         <v>1.17</v>
       </c>
       <c r="AS243" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT243" t="n">
         <v>0.9399999999999999</v>
@@ -50026,7 +50026,7 @@
         <v>0.58</v>
       </c>
       <c r="AS244" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT244" t="n">
         <v>0.61</v>
@@ -50229,10 +50229,10 @@
         <v>1.33</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT245" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU245" t="n">
         <v>1.68</v>
@@ -50841,7 +50841,7 @@
         <v>1.44</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU248" t="n">
         <v>1.95</v>
@@ -51041,7 +51041,7 @@
         <v>1.67</v>
       </c>
       <c r="AS249" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT249" t="n">
         <v>1.39</v>
@@ -51247,7 +51247,7 @@
         <v>1.5</v>
       </c>
       <c r="AT250" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AU250" t="n">
         <v>2.1</v>
@@ -51450,7 +51450,7 @@
         <v>1.83</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AU251" t="n">
         <v>1.89</v>
@@ -51650,7 +51650,7 @@
         <v>1.08</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT252" t="n">
         <v>1.35</v>
@@ -51856,7 +51856,7 @@
         <v>1.78</v>
       </c>
       <c r="AT253" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU253" t="n">
         <v>1.41</v>
@@ -52059,7 +52059,7 @@
         <v>1.61</v>
       </c>
       <c r="AT254" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU254" t="n">
         <v>1.9</v>
@@ -52665,7 +52665,7 @@
         <v>0.92</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT257" t="n">
         <v>0.83</v>
@@ -53071,7 +53071,7 @@
         <v>0.5</v>
       </c>
       <c r="AS259" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT259" t="n">
         <v>0.39</v>
@@ -53277,7 +53277,7 @@
         <v>1.33</v>
       </c>
       <c r="AT260" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU260" t="n">
         <v>1.22</v>
@@ -54089,7 +54089,7 @@
         <v>1.5</v>
       </c>
       <c r="AT264" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU264" t="n">
         <v>2.08</v>
@@ -54292,7 +54292,7 @@
         <v>1.33</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU265" t="n">
         <v>1.33</v>
@@ -54492,10 +54492,10 @@
         <v>2.54</v>
       </c>
       <c r="AS266" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT266" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AU266" t="n">
         <v>1.51</v>
@@ -54695,10 +54695,10 @@
         <v>0.25</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT267" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU267" t="n">
         <v>1.66</v>
@@ -54898,7 +54898,7 @@
         <v>0.62</v>
       </c>
       <c r="AS268" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT268" t="n">
         <v>0.61</v>
@@ -55101,7 +55101,7 @@
         <v>2</v>
       </c>
       <c r="AS269" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT269" t="n">
         <v>1.83</v>
@@ -55510,7 +55510,7 @@
         <v>1.56</v>
       </c>
       <c r="AT271" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU271" t="n">
         <v>1.76</v>
@@ -56319,10 +56319,10 @@
         <v>0.85</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT275" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU275" t="n">
         <v>1.57</v>
@@ -56522,7 +56522,7 @@
         <v>1.29</v>
       </c>
       <c r="AS276" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT276" t="n">
         <v>1.39</v>
@@ -56725,7 +56725,7 @@
         <v>0.85</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT277" t="n">
         <v>0.83</v>
@@ -56928,10 +56928,10 @@
         <v>0.77</v>
       </c>
       <c r="AS278" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT278" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU278" t="n">
         <v>1.52</v>
@@ -57337,7 +57337,7 @@
         <v>1.61</v>
       </c>
       <c r="AT280" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AU280" t="n">
         <v>1.86</v>
@@ -57540,7 +57540,7 @@
         <v>2.5</v>
       </c>
       <c r="AT281" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU281" t="n">
         <v>2.18</v>
@@ -57943,7 +57943,7 @@
         <v>0.57</v>
       </c>
       <c r="AS283" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT283" t="n">
         <v>0.61</v>
@@ -58349,7 +58349,7 @@
         <v>1</v>
       </c>
       <c r="AS285" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT285" t="n">
         <v>0.9399999999999999</v>
@@ -58961,7 +58961,7 @@
         <v>1.33</v>
       </c>
       <c r="AT288" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AU288" t="n">
         <v>1.23</v>
@@ -59164,7 +59164,7 @@
         <v>2.17</v>
       </c>
       <c r="AT289" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU289" t="n">
         <v>1.84</v>
@@ -59367,7 +59367,7 @@
         <v>1.56</v>
       </c>
       <c r="AT290" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU290" t="n">
         <v>1.76</v>
@@ -59567,7 +59567,7 @@
         <v>0.86</v>
       </c>
       <c r="AS291" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT291" t="n">
         <v>0.83</v>
@@ -59773,7 +59773,7 @@
         <v>1</v>
       </c>
       <c r="AT292" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU292" t="n">
         <v>1.4</v>
@@ -60379,10 +60379,10 @@
         <v>1.21</v>
       </c>
       <c r="AS295" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT295" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU295" t="n">
         <v>1.57</v>
@@ -60582,10 +60582,10 @@
         <v>0.79</v>
       </c>
       <c r="AS296" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT296" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU296" t="n">
         <v>1.54</v>
@@ -60785,7 +60785,7 @@
         <v>1.14</v>
       </c>
       <c r="AS297" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT297" t="n">
         <v>0.89</v>
@@ -60988,7 +60988,7 @@
         <v>0.43</v>
       </c>
       <c r="AS298" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT298" t="n">
         <v>0.71</v>
@@ -61194,7 +61194,7 @@
         <v>2.5</v>
       </c>
       <c r="AT299" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AU299" t="n">
         <v>2.15</v>
@@ -61397,7 +61397,7 @@
         <v>1.71</v>
       </c>
       <c r="AT300" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU300" t="n">
         <v>1.22</v>
@@ -62206,7 +62206,7 @@
         <v>1.73</v>
       </c>
       <c r="AS304" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT304" t="n">
         <v>1.83</v>
@@ -62412,7 +62412,7 @@
         <v>1.33</v>
       </c>
       <c r="AT305" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU305" t="n">
         <v>1.19</v>
@@ -62818,7 +62818,7 @@
         <v>1.61</v>
       </c>
       <c r="AT307" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AU307" t="n">
         <v>1.83</v>
@@ -63018,7 +63018,7 @@
         <v>0.4</v>
       </c>
       <c r="AS308" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT308" t="n">
         <v>0.39</v>
@@ -63221,7 +63221,7 @@
         <v>0.93</v>
       </c>
       <c r="AS309" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT309" t="n">
         <v>0.9399999999999999</v>
@@ -63630,7 +63630,7 @@
         <v>1.5</v>
       </c>
       <c r="AT311" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU311" t="n">
         <v>2.03</v>
@@ -64033,10 +64033,10 @@
         <v>1.13</v>
       </c>
       <c r="AS313" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT313" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU313" t="n">
         <v>1.45</v>
@@ -64236,10 +64236,10 @@
         <v>0.47</v>
       </c>
       <c r="AS314" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT314" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU314" t="n">
         <v>2.39</v>
@@ -64845,7 +64845,7 @@
         <v>1.07</v>
       </c>
       <c r="AS317" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT317" t="n">
         <v>0.89</v>
@@ -65051,7 +65051,7 @@
         <v>1</v>
       </c>
       <c r="AT318" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU318" t="n">
         <v>1.43</v>
@@ -65251,10 +65251,10 @@
         <v>2</v>
       </c>
       <c r="AS319" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT319" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AU319" t="n">
         <v>1.54</v>
@@ -65660,7 +65660,7 @@
         <v>1.44</v>
       </c>
       <c r="AT321" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU321" t="n">
         <v>1.89</v>
@@ -66266,7 +66266,7 @@
         <v>1.94</v>
       </c>
       <c r="AS324" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT324" t="n">
         <v>1.72</v>
@@ -66675,7 +66675,7 @@
         <v>2.17</v>
       </c>
       <c r="AT326" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU326" t="n">
         <v>1.92</v>
@@ -67893,7 +67893,7 @@
         <v>1.71</v>
       </c>
       <c r="AT332" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU332" t="n">
         <v>1.19</v>
@@ -68093,10 +68093,10 @@
         <v>0.88</v>
       </c>
       <c r="AS333" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT333" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU333" t="n">
         <v>1.51</v>
@@ -68299,7 +68299,7 @@
         <v>1.65</v>
       </c>
       <c r="AT334" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU334" t="n">
         <v>1.74</v>
@@ -68499,7 +68499,7 @@
         <v>1.44</v>
       </c>
       <c r="AS335" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AT335" t="n">
         <v>1.35</v>
@@ -68702,10 +68702,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS336" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="AT336" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="AU336" t="n">
         <v>2.37</v>
@@ -68905,7 +68905,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS337" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT337" t="n">
         <v>0.71</v>
@@ -69108,10 +69108,10 @@
         <v>2.06</v>
       </c>
       <c r="AS338" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT338" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AU338" t="n">
         <v>1.5</v>
@@ -69311,10 +69311,10 @@
         <v>1.19</v>
       </c>
       <c r="AS339" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT339" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AU339" t="n">
         <v>1.59</v>
@@ -69517,7 +69517,7 @@
         <v>1</v>
       </c>
       <c r="AT340" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="AU340" t="n">
         <v>1.48</v>
@@ -69717,10 +69717,10 @@
         <v>1.06</v>
       </c>
       <c r="AS341" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT341" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU341" t="n">
         <v>1.48</v>
@@ -71802,6 +71802,1630 @@
       </c>
       <c r="BK351" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B352" t="n">
+        <v>2711017</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E352" s="2" t="n">
+        <v>45069.60416666666</v>
+      </c>
+      <c r="F352" t="n">
+        <v>36</v>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="I352" t="n">
+        <v>1</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0</v>
+      </c>
+      <c r="K352" t="n">
+        <v>1</v>
+      </c>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="n">
+        <v>0</v>
+      </c>
+      <c r="N352" t="n">
+        <v>1</v>
+      </c>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>['45+4']</t>
+        </is>
+      </c>
+      <c r="P352" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q352" t="n">
+        <v>10</v>
+      </c>
+      <c r="R352" t="n">
+        <v>2</v>
+      </c>
+      <c r="S352" t="n">
+        <v>12</v>
+      </c>
+      <c r="T352" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U352" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V352" t="n">
+        <v>5</v>
+      </c>
+      <c r="W352" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X352" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y352" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z352" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA352" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB352" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC352" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AD352" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE352" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="AF352" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG352" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH352" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI352" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="AJ352" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK352" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AL352" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM352" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN352" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO352" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP352" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AQ352" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR352" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AS352" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AT352" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AU352" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV352" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW352" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX352" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY352" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ352" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA352" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB352" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC352" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD352" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE352" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF352" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG352" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH352" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI352" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ352" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK352" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B353" t="n">
+        <v>2711009</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E353" s="2" t="n">
+        <v>45069.60416666666</v>
+      </c>
+      <c r="F353" t="n">
+        <v>36</v>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>Celta de Vigo</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>Girona FC</t>
+        </is>
+      </c>
+      <c r="I353" t="n">
+        <v>1</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0</v>
+      </c>
+      <c r="K353" t="n">
+        <v>1</v>
+      </c>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="n">
+        <v>1</v>
+      </c>
+      <c r="N353" t="n">
+        <v>2</v>
+      </c>
+      <c r="O353" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="P353" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q353" t="n">
+        <v>9</v>
+      </c>
+      <c r="R353" t="n">
+        <v>3</v>
+      </c>
+      <c r="S353" t="n">
+        <v>12</v>
+      </c>
+      <c r="T353" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U353" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V353" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W353" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X353" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y353" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z353" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA353" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB353" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC353" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AD353" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE353" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AF353" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG353" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH353" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI353" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ353" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK353" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL353" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM353" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN353" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO353" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP353" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ353" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AR353" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS353" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT353" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU353" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV353" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW353" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX353" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY353" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ353" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA353" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB353" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC353" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD353" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE353" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF353" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG353" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH353" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI353" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ353" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK353" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B354" t="n">
+        <v>2711014</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E354" s="2" t="n">
+        <v>45069.70833333334</v>
+      </c>
+      <c r="F354" t="n">
+        <v>36</v>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>Real Valladolid</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="I354" t="n">
+        <v>2</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0</v>
+      </c>
+      <c r="K354" t="n">
+        <v>2</v>
+      </c>
+      <c r="L354" t="n">
+        <v>3</v>
+      </c>
+      <c r="M354" t="n">
+        <v>1</v>
+      </c>
+      <c r="N354" t="n">
+        <v>4</v>
+      </c>
+      <c r="O354" t="inlineStr">
+        <is>
+          <t>['2', '22', '73']</t>
+        </is>
+      </c>
+      <c r="P354" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q354" t="n">
+        <v>2</v>
+      </c>
+      <c r="R354" t="n">
+        <v>6</v>
+      </c>
+      <c r="S354" t="n">
+        <v>8</v>
+      </c>
+      <c r="T354" t="n">
+        <v>4</v>
+      </c>
+      <c r="U354" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V354" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W354" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X354" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y354" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z354" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA354" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB354" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC354" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AD354" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AE354" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF354" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG354" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH354" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI354" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ354" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK354" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AL354" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM354" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN354" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AO354" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP354" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ354" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AR354" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AS354" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT354" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU354" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV354" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW354" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX354" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY354" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ354" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BA354" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB354" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC354" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD354" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BE354" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF354" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG354" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH354" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI354" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ354" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK354" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B355" t="n">
+        <v>2711015</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E355" s="2" t="n">
+        <v>45070.60416666666</v>
+      </c>
+      <c r="F355" t="n">
+        <v>36</v>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="I355" t="n">
+        <v>2</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0</v>
+      </c>
+      <c r="K355" t="n">
+        <v>2</v>
+      </c>
+      <c r="L355" t="n">
+        <v>2</v>
+      </c>
+      <c r="M355" t="n">
+        <v>0</v>
+      </c>
+      <c r="N355" t="n">
+        <v>2</v>
+      </c>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>['20', '45+2']</t>
+        </is>
+      </c>
+      <c r="P355" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q355" t="n">
+        <v>7</v>
+      </c>
+      <c r="R355" t="n">
+        <v>6</v>
+      </c>
+      <c r="S355" t="n">
+        <v>13</v>
+      </c>
+      <c r="T355" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U355" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V355" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W355" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X355" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y355" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z355" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA355" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB355" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC355" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD355" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE355" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF355" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG355" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH355" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI355" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AJ355" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK355" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AL355" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM355" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN355" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO355" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP355" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ355" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AR355" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS355" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT355" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU355" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV355" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW355" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX355" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY355" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ355" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA355" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB355" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC355" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD355" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE355" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF355" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG355" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH355" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI355" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ355" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK355" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B356" t="n">
+        <v>2711016</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E356" s="2" t="n">
+        <v>45070.60416666666</v>
+      </c>
+      <c r="F356" t="n">
+        <v>36</v>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="I356" t="n">
+        <v>1</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0</v>
+      </c>
+      <c r="K356" t="n">
+        <v>1</v>
+      </c>
+      <c r="L356" t="n">
+        <v>2</v>
+      </c>
+      <c r="M356" t="n">
+        <v>1</v>
+      </c>
+      <c r="N356" t="n">
+        <v>3</v>
+      </c>
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>['31', '89']</t>
+        </is>
+      </c>
+      <c r="P356" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q356" t="n">
+        <v>5</v>
+      </c>
+      <c r="R356" t="n">
+        <v>2</v>
+      </c>
+      <c r="S356" t="n">
+        <v>7</v>
+      </c>
+      <c r="T356" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U356" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V356" t="n">
+        <v>5</v>
+      </c>
+      <c r="W356" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X356" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y356" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z356" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA356" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB356" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC356" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD356" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE356" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF356" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG356" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH356" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI356" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ356" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK356" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AL356" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM356" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN356" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO356" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP356" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AQ356" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AR356" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS356" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AT356" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU356" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AV356" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW356" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AX356" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY356" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ356" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA356" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB356" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC356" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD356" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE356" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF356" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG356" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH356" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI356" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ356" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK356" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B357" t="n">
+        <v>2711010</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E357" s="2" t="n">
+        <v>45070.60416666666</v>
+      </c>
+      <c r="F357" t="n">
+        <v>36</v>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>Elche CF</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>Sevilla FC</t>
+        </is>
+      </c>
+      <c r="I357" t="n">
+        <v>1</v>
+      </c>
+      <c r="J357" t="n">
+        <v>1</v>
+      </c>
+      <c r="K357" t="n">
+        <v>2</v>
+      </c>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="n">
+        <v>1</v>
+      </c>
+      <c r="N357" t="n">
+        <v>2</v>
+      </c>
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P357" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q357" t="n">
+        <v>9</v>
+      </c>
+      <c r="R357" t="n">
+        <v>5</v>
+      </c>
+      <c r="S357" t="n">
+        <v>14</v>
+      </c>
+      <c r="T357" t="n">
+        <v>5</v>
+      </c>
+      <c r="U357" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V357" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W357" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X357" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y357" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z357" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA357" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB357" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC357" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AD357" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE357" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF357" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG357" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH357" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI357" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AJ357" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK357" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL357" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM357" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN357" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AO357" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP357" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AQ357" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AR357" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS357" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AT357" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AU357" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV357" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW357" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX357" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY357" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ357" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA357" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB357" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC357" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BD357" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE357" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BF357" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG357" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH357" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI357" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ357" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK357" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B358" t="n">
+        <v>2711013</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E358" s="2" t="n">
+        <v>45070.70833333334</v>
+      </c>
+      <c r="F358" t="n">
+        <v>36</v>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>RCD Espanyol</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
+      </c>
+      <c r="I358" t="n">
+        <v>0</v>
+      </c>
+      <c r="J358" t="n">
+        <v>2</v>
+      </c>
+      <c r="K358" t="n">
+        <v>2</v>
+      </c>
+      <c r="L358" t="n">
+        <v>3</v>
+      </c>
+      <c r="M358" t="n">
+        <v>3</v>
+      </c>
+      <c r="N358" t="n">
+        <v>6</v>
+      </c>
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>['64', '76', '79']</t>
+        </is>
+      </c>
+      <c r="P358" t="inlineStr">
+        <is>
+          <t>['21', '44', '46']</t>
+        </is>
+      </c>
+      <c r="Q358" t="n">
+        <v>16</v>
+      </c>
+      <c r="R358" t="n">
+        <v>1</v>
+      </c>
+      <c r="S358" t="n">
+        <v>17</v>
+      </c>
+      <c r="T358" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U358" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V358" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W358" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X358" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y358" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z358" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA358" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB358" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC358" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD358" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE358" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AF358" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG358" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH358" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI358" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ358" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK358" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL358" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM358" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN358" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO358" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP358" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ358" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR358" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AS358" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT358" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AU358" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV358" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW358" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX358" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY358" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ358" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA358" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB358" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC358" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD358" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BE358" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BF358" t="n">
+        <v>14</v>
+      </c>
+      <c r="BG358" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH358" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI358" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ358" t="n">
+        <v>30</v>
+      </c>
+      <c r="BK358" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B359" t="n">
+        <v>2711008</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Spain La Liga</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E359" s="2" t="n">
+        <v>45070.70833333334</v>
+      </c>
+      <c r="F359" t="n">
+        <v>36</v>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>Getafe CF</t>
+        </is>
+      </c>
+      <c r="I359" t="n">
+        <v>0</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0</v>
+      </c>
+      <c r="L359" t="n">
+        <v>0</v>
+      </c>
+      <c r="M359" t="n">
+        <v>1</v>
+      </c>
+      <c r="N359" t="n">
+        <v>1</v>
+      </c>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P359" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q359" t="n">
+        <v>2</v>
+      </c>
+      <c r="R359" t="n">
+        <v>5</v>
+      </c>
+      <c r="S359" t="n">
+        <v>7</v>
+      </c>
+      <c r="T359" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U359" t="n">
+        <v>2</v>
+      </c>
+      <c r="V359" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W359" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X359" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y359" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z359" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA359" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB359" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC359" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD359" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE359" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF359" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG359" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH359" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI359" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ359" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK359" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL359" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM359" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN359" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO359" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP359" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ359" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR359" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AS359" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AT359" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU359" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV359" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW359" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX359" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY359" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ359" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA359" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB359" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BC359" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD359" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE359" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BF359" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG359" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH359" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI359" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ359" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK359" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain La Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="448">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -961,6 +961,27 @@
     <t>['53']</t>
   </si>
   <si>
+    <t>['50', '71', '90+3']</t>
+  </si>
+  <si>
+    <t>['27', '73']</t>
+  </si>
+  <si>
+    <t>['9', '90+2']</t>
+  </si>
+  <si>
+    <t>['52', '55']</t>
+  </si>
+  <si>
+    <t>['13', '49', '73']</t>
+  </si>
+  <si>
+    <t>['1']</t>
+  </si>
+  <si>
+    <t>['42', '65']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
@@ -1329,6 +1350,15 @@
   <si>
     <t>['47', '77']</t>
   </si>
+  <si>
+    <t>['18', '56']</t>
+  </si>
+  <si>
+    <t>['10', '58', '87']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
 </sst>
 </file>
 
@@ -1689,7 +1719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK371"/>
+  <dimension ref="A1:BK381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1933,7 +1963,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -2020,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT2">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2124,7 +2154,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2211,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT3">
         <v>0.95</v>
@@ -2315,7 +2345,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2402,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT4">
         <v>1.32</v>
@@ -2596,7 +2626,7 @@
         <v>2.53</v>
       </c>
       <c r="AT5">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2978,7 +3008,7 @@
         <v>1.53</v>
       </c>
       <c r="AT7">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3079,7 +3109,7 @@
         <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -3461,7 +3491,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3551,7 +3581,7 @@
         <v>1.42</v>
       </c>
       <c r="AT10">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3739,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT11">
         <v>0.53</v>
@@ -3843,7 +3873,7 @@
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="Q12">
         <v>9</v>
@@ -3933,7 +3963,7 @@
         <v>1</v>
       </c>
       <c r="AT12">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -4034,7 +4064,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Q13">
         <v>12</v>
@@ -4312,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT14">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU14">
         <v>1.45</v>
@@ -4416,7 +4446,7 @@
         <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4503,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT15">
         <v>1.47</v>
@@ -4607,7 +4637,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -4694,7 +4724,7 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT16">
         <v>1.79</v>
@@ -4888,7 +4918,7 @@
         <v>1.42</v>
       </c>
       <c r="AT17">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU17">
         <v>2.62</v>
@@ -4989,7 +5019,7 @@
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -5180,7 +5210,7 @@
         <v>89</v>
       </c>
       <c r="P19" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5267,10 +5297,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT19">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5458,10 +5488,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AT20">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5652,7 +5682,7 @@
         <v>1.74</v>
       </c>
       <c r="AT21">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5753,7 +5783,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -6031,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT23">
         <v>1</v>
@@ -6222,7 +6252,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AT24">
         <v>1.74</v>
@@ -6326,7 +6356,7 @@
         <v>87</v>
       </c>
       <c r="P25" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -6607,7 +6637,7 @@
         <v>1.74</v>
       </c>
       <c r="AT26">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU26">
         <v>1.31</v>
@@ -7090,7 +7120,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -7281,7 +7311,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -7371,7 +7401,7 @@
         <v>1.42</v>
       </c>
       <c r="AT30">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU30">
         <v>1.1</v>
@@ -7472,7 +7502,7 @@
         <v>87</v>
       </c>
       <c r="P31" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7562,7 +7592,7 @@
         <v>1.53</v>
       </c>
       <c r="AT31">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU31">
         <v>1.68</v>
@@ -7750,10 +7780,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT32">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU32">
         <v>1.37</v>
@@ -7941,10 +7971,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT33">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU33">
         <v>1.45</v>
@@ -8132,7 +8162,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT34">
         <v>1.47</v>
@@ -8323,10 +8353,10 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT35">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU35">
         <v>1.54</v>
@@ -8427,7 +8457,7 @@
         <v>87</v>
       </c>
       <c r="P36" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8517,7 +8547,7 @@
         <v>1.37</v>
       </c>
       <c r="AT36">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AU36">
         <v>2.23</v>
@@ -8618,7 +8648,7 @@
         <v>105</v>
       </c>
       <c r="P37" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -8705,10 +8735,10 @@
         <v>2</v>
       </c>
       <c r="AS37">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT37">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU37">
         <v>1.69</v>
@@ -9087,7 +9117,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT39">
         <v>0.53</v>
@@ -9281,7 +9311,7 @@
         <v>1.53</v>
       </c>
       <c r="AT40">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU40">
         <v>1.71</v>
@@ -9469,10 +9499,10 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT41">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU41">
         <v>1.67</v>
@@ -9854,7 +9884,7 @@
         <v>1.68</v>
       </c>
       <c r="AT43">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU43">
         <v>1.56</v>
@@ -9955,7 +9985,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="Q44">
         <v>9</v>
@@ -10045,7 +10075,7 @@
         <v>1</v>
       </c>
       <c r="AT44">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU44">
         <v>1.52</v>
@@ -10146,7 +10176,7 @@
         <v>87</v>
       </c>
       <c r="P45" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -10236,7 +10266,7 @@
         <v>1.42</v>
       </c>
       <c r="AT45">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AU45">
         <v>1.15</v>
@@ -10615,7 +10645,7 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT47">
         <v>0.79</v>
@@ -10719,7 +10749,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10806,10 +10836,10 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AT48">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU48">
         <v>1.59</v>
@@ -11188,7 +11218,7 @@
         <v>2.33</v>
       </c>
       <c r="AS50">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT50">
         <v>1.32</v>
@@ -11292,7 +11322,7 @@
         <v>87</v>
       </c>
       <c r="P51" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="Q51">
         <v>5</v>
@@ -11570,10 +11600,10 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT52">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU52">
         <v>1.27</v>
@@ -11761,10 +11791,10 @@
         <v>0.5</v>
       </c>
       <c r="AS53">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT53">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU53">
         <v>1.46</v>
@@ -12247,7 +12277,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="Q56">
         <v>2</v>
@@ -12337,7 +12367,7 @@
         <v>1.42</v>
       </c>
       <c r="AT56">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU56">
         <v>2.1</v>
@@ -12438,7 +12468,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12525,10 +12555,10 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT57">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU57">
         <v>1.76</v>
@@ -12716,10 +12746,10 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT58">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU58">
         <v>2.19</v>
@@ -12907,10 +12937,10 @@
         <v>0.5</v>
       </c>
       <c r="AS59">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT59">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU59">
         <v>1.68</v>
@@ -13098,7 +13128,7 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT60">
         <v>0.95</v>
@@ -13202,7 +13232,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -13483,7 +13513,7 @@
         <v>1.42</v>
       </c>
       <c r="AT62">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU62">
         <v>2.11</v>
@@ -13775,7 +13805,7 @@
         <v>126</v>
       </c>
       <c r="P64" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13966,7 +13996,7 @@
         <v>87</v>
       </c>
       <c r="P65" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -14056,7 +14086,7 @@
         <v>1.37</v>
       </c>
       <c r="AT65">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU65">
         <v>2.05</v>
@@ -14244,10 +14274,10 @@
         <v>3</v>
       </c>
       <c r="AS66">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT66">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AU66">
         <v>1.23</v>
@@ -14348,7 +14378,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="Q67">
         <v>6</v>
@@ -14438,7 +14468,7 @@
         <v>1</v>
       </c>
       <c r="AT67">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU67">
         <v>1.75</v>
@@ -14626,7 +14656,7 @@
         <v>1.5</v>
       </c>
       <c r="AS68">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT68">
         <v>1.47</v>
@@ -14730,7 +14760,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -15008,7 +15038,7 @@
         <v>1.5</v>
       </c>
       <c r="AS70">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT70">
         <v>1</v>
@@ -15112,7 +15142,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="Q71">
         <v>13</v>
@@ -15303,7 +15333,7 @@
         <v>108</v>
       </c>
       <c r="P72" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -15390,10 +15420,10 @@
         <v>0.33</v>
       </c>
       <c r="AS72">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT72">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU72">
         <v>1.72</v>
@@ -15494,7 +15524,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15584,7 +15614,7 @@
         <v>1.74</v>
       </c>
       <c r="AT73">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU73">
         <v>1.28</v>
@@ -15685,7 +15715,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15775,7 +15805,7 @@
         <v>2.21</v>
       </c>
       <c r="AT74">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU74">
         <v>1.71</v>
@@ -15966,7 +15996,7 @@
         <v>1.37</v>
       </c>
       <c r="AT75">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU75">
         <v>1.91</v>
@@ -16345,7 +16375,7 @@
         <v>1</v>
       </c>
       <c r="AS77">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT77">
         <v>1.47</v>
@@ -16449,7 +16479,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="Q78">
         <v>8</v>
@@ -16727,7 +16757,7 @@
         <v>1.6</v>
       </c>
       <c r="AS79">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT79">
         <v>1.32</v>
@@ -17109,7 +17139,7 @@
         <v>1.33</v>
       </c>
       <c r="AS81">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AT81">
         <v>0.79</v>
@@ -17303,7 +17333,7 @@
         <v>1.68</v>
       </c>
       <c r="AT82">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU82">
         <v>1.93</v>
@@ -17404,7 +17434,7 @@
         <v>139</v>
       </c>
       <c r="P83" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17494,7 +17524,7 @@
         <v>1.74</v>
       </c>
       <c r="AT83">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU83">
         <v>1.65</v>
@@ -17595,7 +17625,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17873,10 +17903,10 @@
         <v>1</v>
       </c>
       <c r="AS85">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT85">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU85">
         <v>1.27</v>
@@ -18067,7 +18097,7 @@
         <v>1.42</v>
       </c>
       <c r="AT86">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU86">
         <v>2.15</v>
@@ -18168,7 +18198,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -18255,7 +18285,7 @@
         <v>2.25</v>
       </c>
       <c r="AS87">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT87">
         <v>1.74</v>
@@ -18446,10 +18476,10 @@
         <v>3</v>
       </c>
       <c r="AS88">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT88">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AU88">
         <v>2.54</v>
@@ -18828,10 +18858,10 @@
         <v>0.25</v>
       </c>
       <c r="AS90">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT90">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU90">
         <v>1.57</v>
@@ -19019,7 +19049,7 @@
         <v>1.33</v>
       </c>
       <c r="AS91">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT91">
         <v>1</v>
@@ -19213,7 +19243,7 @@
         <v>1.37</v>
       </c>
       <c r="AT92">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU92">
         <v>1.74</v>
@@ -19314,7 +19344,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -19404,7 +19434,7 @@
         <v>1.42</v>
       </c>
       <c r="AT93">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU93">
         <v>1.14</v>
@@ -19595,7 +19625,7 @@
         <v>2.21</v>
       </c>
       <c r="AT94">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU94">
         <v>1.66</v>
@@ -19974,7 +20004,7 @@
         <v>0.75</v>
       </c>
       <c r="AS96">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT96">
         <v>0.84</v>
@@ -20165,7 +20195,7 @@
         <v>1.25</v>
       </c>
       <c r="AS97">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT97">
         <v>0.79</v>
@@ -20269,7 +20299,7 @@
         <v>87</v>
       </c>
       <c r="P98" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -20356,7 +20386,7 @@
         <v>3</v>
       </c>
       <c r="AS98">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AT98">
         <v>1.79</v>
@@ -20460,7 +20490,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20550,7 +20580,7 @@
         <v>1.74</v>
       </c>
       <c r="AT99">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU99">
         <v>1.25</v>
@@ -20738,7 +20768,7 @@
         <v>1.25</v>
       </c>
       <c r="AS100">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT100">
         <v>0.95</v>
@@ -21123,7 +21153,7 @@
         <v>1.68</v>
       </c>
       <c r="AT102">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU102">
         <v>1.89</v>
@@ -21311,7 +21341,7 @@
         <v>2.4</v>
       </c>
       <c r="AS103">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT103">
         <v>1.74</v>
@@ -21415,7 +21445,7 @@
         <v>153</v>
       </c>
       <c r="P104" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21606,7 +21636,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21693,10 +21723,10 @@
         <v>1.4</v>
       </c>
       <c r="AS105">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT105">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU105">
         <v>2.23</v>
@@ -21797,7 +21827,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21988,7 +22018,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -22075,10 +22105,10 @@
         <v>2.6</v>
       </c>
       <c r="AS107">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT107">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU107">
         <v>1.66</v>
@@ -22370,7 +22400,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="Q109">
         <v>10</v>
@@ -22457,10 +22487,10 @@
         <v>0.2</v>
       </c>
       <c r="AS109">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT109">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU109">
         <v>1.96</v>
@@ -22651,7 +22681,7 @@
         <v>2.53</v>
       </c>
       <c r="AT110">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU110">
         <v>2.49</v>
@@ -22839,10 +22869,10 @@
         <v>1</v>
       </c>
       <c r="AS111">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT111">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU111">
         <v>1.39</v>
@@ -23030,7 +23060,7 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT112">
         <v>0.95</v>
@@ -23325,7 +23355,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="Q114">
         <v>5</v>
@@ -23415,7 +23445,7 @@
         <v>1.42</v>
       </c>
       <c r="AT114">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU114">
         <v>1.22</v>
@@ -23606,7 +23636,7 @@
         <v>1.37</v>
       </c>
       <c r="AT115">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU115">
         <v>1.85</v>
@@ -23797,7 +23827,7 @@
         <v>1.53</v>
       </c>
       <c r="AT116">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AU116">
         <v>1.99</v>
@@ -23985,7 +24015,7 @@
         <v>0.8</v>
       </c>
       <c r="AS117">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT117">
         <v>0.63</v>
@@ -24089,7 +24119,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -24176,10 +24206,10 @@
         <v>0.2</v>
       </c>
       <c r="AS118">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT118">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU118">
         <v>2.16</v>
@@ -24471,7 +24501,7 @@
         <v>87</v>
       </c>
       <c r="P120" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24558,7 +24588,7 @@
         <v>1</v>
       </c>
       <c r="AS120">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT120">
         <v>1.47</v>
@@ -24662,7 +24692,7 @@
         <v>87</v>
       </c>
       <c r="P121" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24749,10 +24779,10 @@
         <v>1</v>
       </c>
       <c r="AS121">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AT121">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU121">
         <v>1.26</v>
@@ -24943,7 +24973,7 @@
         <v>1.74</v>
       </c>
       <c r="AT122">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU122">
         <v>1.78</v>
@@ -25134,7 +25164,7 @@
         <v>1.42</v>
       </c>
       <c r="AT123">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU123">
         <v>1.16</v>
@@ -25322,7 +25352,7 @@
         <v>0.33</v>
       </c>
       <c r="AS124">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT124">
         <v>0.53</v>
@@ -25426,7 +25456,7 @@
         <v>167</v>
       </c>
       <c r="P125" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25513,7 +25543,7 @@
         <v>1</v>
       </c>
       <c r="AS125">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT125">
         <v>1</v>
@@ -25707,7 +25737,7 @@
         <v>2.53</v>
       </c>
       <c r="AT126">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU126">
         <v>2.29</v>
@@ -25808,7 +25838,7 @@
         <v>143</v>
       </c>
       <c r="P127" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="Q127">
         <v>12</v>
@@ -26086,10 +26116,10 @@
         <v>1</v>
       </c>
       <c r="AS128">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT128">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU128">
         <v>1.78</v>
@@ -26190,7 +26220,7 @@
         <v>87</v>
       </c>
       <c r="P129" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -26277,7 +26307,7 @@
         <v>1.33</v>
       </c>
       <c r="AS129">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT129">
         <v>0.79</v>
@@ -26381,7 +26411,7 @@
         <v>95</v>
       </c>
       <c r="P130" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26468,10 +26498,10 @@
         <v>1.17</v>
       </c>
       <c r="AS130">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT130">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU130">
         <v>1.71</v>
@@ -26572,7 +26602,7 @@
         <v>170</v>
       </c>
       <c r="P131" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="Q131">
         <v>4</v>
@@ -26763,7 +26793,7 @@
         <v>152</v>
       </c>
       <c r="P132" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="Q132">
         <v>2</v>
@@ -26850,10 +26880,10 @@
         <v>0.33</v>
       </c>
       <c r="AS132">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AT132">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU132">
         <v>1.33</v>
@@ -27145,7 +27175,7 @@
         <v>89</v>
       </c>
       <c r="P134" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27232,10 +27262,10 @@
         <v>2.5</v>
       </c>
       <c r="AS134">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT134">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AU134">
         <v>1.86</v>
@@ -27336,7 +27366,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="Q135">
         <v>2</v>
@@ -27617,7 +27647,7 @@
         <v>1.74</v>
       </c>
       <c r="AT136">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU136">
         <v>1.45</v>
@@ -27996,10 +28026,10 @@
         <v>2.29</v>
       </c>
       <c r="AS138">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT138">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU138">
         <v>1.36</v>
@@ -28482,7 +28512,7 @@
         <v>175</v>
       </c>
       <c r="P141" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="Q141">
         <v>7</v>
@@ -28569,10 +28599,10 @@
         <v>0.83</v>
       </c>
       <c r="AS141">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT141">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU141">
         <v>2.2</v>
@@ -28673,7 +28703,7 @@
         <v>176</v>
       </c>
       <c r="P142" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28763,7 +28793,7 @@
         <v>1.74</v>
       </c>
       <c r="AT142">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU142">
         <v>1.89</v>
@@ -28951,10 +28981,10 @@
         <v>1.33</v>
       </c>
       <c r="AS143">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT143">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU143">
         <v>1.63</v>
@@ -29437,7 +29467,7 @@
         <v>136</v>
       </c>
       <c r="P146" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29524,10 +29554,10 @@
         <v>1.14</v>
       </c>
       <c r="AS146">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT146">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU146">
         <v>1.58</v>
@@ -29718,7 +29748,7 @@
         <v>1.42</v>
       </c>
       <c r="AT147">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU147">
         <v>1.26</v>
@@ -29819,7 +29849,7 @@
         <v>87</v>
       </c>
       <c r="P148" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="Q148">
         <v>5</v>
@@ -29906,7 +29936,7 @@
         <v>2.57</v>
       </c>
       <c r="AS148">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT148">
         <v>1.79</v>
@@ -30288,7 +30318,7 @@
         <v>1.33</v>
       </c>
       <c r="AS150">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT150">
         <v>1</v>
@@ -30392,7 +30422,7 @@
         <v>181</v>
       </c>
       <c r="P151" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -30479,10 +30509,10 @@
         <v>1</v>
       </c>
       <c r="AS151">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT151">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU151">
         <v>1.82</v>
@@ -30670,7 +30700,7 @@
         <v>0.57</v>
       </c>
       <c r="AS152">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AT152">
         <v>0.84</v>
@@ -30864,7 +30894,7 @@
         <v>1.53</v>
       </c>
       <c r="AT153">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU153">
         <v>1.84</v>
@@ -31052,7 +31082,7 @@
         <v>2.63</v>
       </c>
       <c r="AS154">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT154">
         <v>1.79</v>
@@ -31243,7 +31273,7 @@
         <v>0.57</v>
       </c>
       <c r="AS155">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT155">
         <v>0.63</v>
@@ -31347,7 +31377,7 @@
         <v>184</v>
       </c>
       <c r="P156" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -31437,7 +31467,7 @@
         <v>1</v>
       </c>
       <c r="AT156">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU156">
         <v>1.67</v>
@@ -31538,7 +31568,7 @@
         <v>87</v>
       </c>
       <c r="P157" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31729,7 +31759,7 @@
         <v>147</v>
       </c>
       <c r="P158" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -32010,7 +32040,7 @@
         <v>1.37</v>
       </c>
       <c r="AT159">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU159">
         <v>1.69</v>
@@ -32111,7 +32141,7 @@
         <v>87</v>
       </c>
       <c r="P160" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -32201,7 +32231,7 @@
         <v>2.21</v>
       </c>
       <c r="AT160">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AU160">
         <v>1.75</v>
@@ -32580,7 +32610,7 @@
         <v>1.22</v>
       </c>
       <c r="AS162">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT162">
         <v>1.32</v>
@@ -32771,10 +32801,10 @@
         <v>1.13</v>
       </c>
       <c r="AS163">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT163">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU163">
         <v>1.56</v>
@@ -32965,7 +32995,7 @@
         <v>1.74</v>
       </c>
       <c r="AT164">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU164">
         <v>1.95</v>
@@ -33153,7 +33183,7 @@
         <v>1.38</v>
       </c>
       <c r="AS165">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT165">
         <v>0.79</v>
@@ -33344,10 +33374,10 @@
         <v>1.29</v>
       </c>
       <c r="AS166">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT166">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU166">
         <v>1.65</v>
@@ -33448,7 +33478,7 @@
         <v>179</v>
       </c>
       <c r="P167" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33639,7 +33669,7 @@
         <v>190</v>
       </c>
       <c r="P168" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33729,7 +33759,7 @@
         <v>1.74</v>
       </c>
       <c r="AT168">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU168">
         <v>1.33</v>
@@ -33830,7 +33860,7 @@
         <v>179</v>
       </c>
       <c r="P169" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -34108,7 +34138,7 @@
         <v>0.88</v>
       </c>
       <c r="AS170">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT170">
         <v>0.84</v>
@@ -34212,7 +34242,7 @@
         <v>87</v>
       </c>
       <c r="P171" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34875,7 +34905,7 @@
         <v>1.37</v>
       </c>
       <c r="AT174">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU174">
         <v>1.68</v>
@@ -35063,10 +35093,10 @@
         <v>0.75</v>
       </c>
       <c r="AS175">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT175">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU175">
         <v>1.85</v>
@@ -35254,7 +35284,7 @@
         <v>1.13</v>
       </c>
       <c r="AS176">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AT176">
         <v>1</v>
@@ -35448,7 +35478,7 @@
         <v>2.53</v>
       </c>
       <c r="AT177">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU177">
         <v>2.43</v>
@@ -35549,7 +35579,7 @@
         <v>87</v>
       </c>
       <c r="P178" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="Q178">
         <v>12</v>
@@ -35740,7 +35770,7 @@
         <v>195</v>
       </c>
       <c r="P179" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="Q179">
         <v>6</v>
@@ -35830,7 +35860,7 @@
         <v>1.53</v>
       </c>
       <c r="AT179">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU179">
         <v>1.82</v>
@@ -36403,7 +36433,7 @@
         <v>1.74</v>
       </c>
       <c r="AT182">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AU182">
         <v>1.92</v>
@@ -36973,10 +37003,10 @@
         <v>0.86</v>
       </c>
       <c r="AS185">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT185">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU185">
         <v>1.51</v>
@@ -37164,10 +37194,10 @@
         <v>1.89</v>
       </c>
       <c r="AS186">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT186">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU186">
         <v>1.79</v>
@@ -37355,10 +37385,10 @@
         <v>1.13</v>
       </c>
       <c r="AS187">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT187">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU187">
         <v>1.69</v>
@@ -37546,7 +37576,7 @@
         <v>2.33</v>
       </c>
       <c r="AS188">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT188">
         <v>1.74</v>
@@ -37737,10 +37767,10 @@
         <v>1.33</v>
       </c>
       <c r="AS189">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT189">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU189">
         <v>1.94</v>
@@ -37841,7 +37871,7 @@
         <v>201</v>
       </c>
       <c r="P190" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="Q190">
         <v>1</v>
@@ -37928,10 +37958,10 @@
         <v>2.67</v>
       </c>
       <c r="AS190">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT190">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AU190">
         <v>1.61</v>
@@ -38119,10 +38149,10 @@
         <v>0.75</v>
       </c>
       <c r="AS191">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT191">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU191">
         <v>2.24</v>
@@ -38313,7 +38343,7 @@
         <v>1.42</v>
       </c>
       <c r="AT192">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU192">
         <v>2.08</v>
@@ -38414,7 +38444,7 @@
         <v>114</v>
       </c>
       <c r="P193" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38605,7 +38635,7 @@
         <v>204</v>
       </c>
       <c r="P194" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38692,7 +38722,7 @@
         <v>1.2</v>
       </c>
       <c r="AS194">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AT194">
         <v>1.32</v>
@@ -38886,7 +38916,7 @@
         <v>2.21</v>
       </c>
       <c r="AT195">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU195">
         <v>1.8</v>
@@ -38987,7 +39017,7 @@
         <v>206</v>
       </c>
       <c r="P196" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="Q196">
         <v>5</v>
@@ -39074,7 +39104,7 @@
         <v>0.78</v>
       </c>
       <c r="AS196">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT196">
         <v>0.84</v>
@@ -39265,7 +39295,7 @@
         <v>2.4</v>
       </c>
       <c r="AS197">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT197">
         <v>1.79</v>
@@ -39459,7 +39489,7 @@
         <v>1.74</v>
       </c>
       <c r="AT198">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU198">
         <v>1.86</v>
@@ -39647,7 +39677,7 @@
         <v>0.44</v>
       </c>
       <c r="AS199">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT199">
         <v>0.63</v>
@@ -39841,7 +39871,7 @@
         <v>2.53</v>
       </c>
       <c r="AT200">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU200">
         <v>2.34</v>
@@ -40032,7 +40062,7 @@
         <v>1.68</v>
       </c>
       <c r="AT201">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU201">
         <v>1.95</v>
@@ -40223,7 +40253,7 @@
         <v>1.42</v>
       </c>
       <c r="AT202">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU202">
         <v>1.34</v>
@@ -40324,7 +40354,7 @@
         <v>212</v>
       </c>
       <c r="P203" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="Q203">
         <v>8</v>
@@ -40706,7 +40736,7 @@
         <v>137</v>
       </c>
       <c r="P205" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="Q205">
         <v>7</v>
@@ -40796,7 +40826,7 @@
         <v>1.53</v>
       </c>
       <c r="AT205">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU205">
         <v>1.77</v>
@@ -40987,7 +41017,7 @@
         <v>1.42</v>
       </c>
       <c r="AT206">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU206">
         <v>1.18</v>
@@ -41175,10 +41205,10 @@
         <v>2</v>
       </c>
       <c r="AS207">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT207">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU207">
         <v>1.66</v>
@@ -41366,7 +41396,7 @@
         <v>1.1</v>
       </c>
       <c r="AS208">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT208">
         <v>1</v>
@@ -41470,7 +41500,7 @@
         <v>87</v>
       </c>
       <c r="P209" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="Q209">
         <v>6</v>
@@ -41557,10 +41587,10 @@
         <v>2.7</v>
       </c>
       <c r="AS209">
+        <v>2.05</v>
+      </c>
+      <c r="AT209">
         <v>2.11</v>
-      </c>
-      <c r="AT209">
-        <v>2.22</v>
       </c>
       <c r="AU209">
         <v>1.91</v>
@@ -41661,7 +41691,7 @@
         <v>215</v>
       </c>
       <c r="P210" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="Q210">
         <v>4</v>
@@ -41939,7 +41969,7 @@
         <v>0.3</v>
       </c>
       <c r="AS211">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT211">
         <v>0.53</v>
@@ -42043,7 +42073,7 @@
         <v>217</v>
       </c>
       <c r="P212" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="Q212">
         <v>1</v>
@@ -42133,7 +42163,7 @@
         <v>1.74</v>
       </c>
       <c r="AT212">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU212">
         <v>1.9</v>
@@ -42321,7 +42351,7 @@
         <v>1</v>
       </c>
       <c r="AS213">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT213">
         <v>0.84</v>
@@ -42512,7 +42542,7 @@
         <v>0.7</v>
       </c>
       <c r="AS214">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT214">
         <v>0.63</v>
@@ -42616,7 +42646,7 @@
         <v>220</v>
       </c>
       <c r="P215" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="Q215">
         <v>4</v>
@@ -42703,7 +42733,7 @@
         <v>1.09</v>
       </c>
       <c r="AS215">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT215">
         <v>1.32</v>
@@ -42807,7 +42837,7 @@
         <v>87</v>
       </c>
       <c r="P216" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="Q216">
         <v>5</v>
@@ -42894,7 +42924,7 @@
         <v>2.18</v>
       </c>
       <c r="AS216">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT216">
         <v>1.79</v>
@@ -43085,7 +43115,7 @@
         <v>1.1</v>
       </c>
       <c r="AS217">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AT217">
         <v>0.95</v>
@@ -43189,7 +43219,7 @@
         <v>221</v>
       </c>
       <c r="P218" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="Q218">
         <v>7</v>
@@ -43279,7 +43309,7 @@
         <v>1.68</v>
       </c>
       <c r="AT218">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU218">
         <v>1.97</v>
@@ -43470,7 +43500,7 @@
         <v>2.21</v>
       </c>
       <c r="AT219">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU219">
         <v>1.83</v>
@@ -43661,7 +43691,7 @@
         <v>2.53</v>
       </c>
       <c r="AT220">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU220">
         <v>2.32</v>
@@ -43852,7 +43882,7 @@
         <v>1.42</v>
       </c>
       <c r="AT221">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU221">
         <v>1.2</v>
@@ -43953,7 +43983,7 @@
         <v>225</v>
       </c>
       <c r="P222" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="Q222">
         <v>3</v>
@@ -44040,7 +44070,7 @@
         <v>1.55</v>
       </c>
       <c r="AS222">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AT222">
         <v>1.47</v>
@@ -44425,7 +44455,7 @@
         <v>1.42</v>
       </c>
       <c r="AT224">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU224">
         <v>1.34</v>
@@ -44613,10 +44643,10 @@
         <v>2.09</v>
       </c>
       <c r="AS225">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT225">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU225">
         <v>2.36</v>
@@ -44908,7 +44938,7 @@
         <v>229</v>
       </c>
       <c r="P227" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="Q227">
         <v>11</v>
@@ -44998,7 +45028,7 @@
         <v>1.42</v>
       </c>
       <c r="AT227">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU227">
         <v>2.07</v>
@@ -45186,7 +45216,7 @@
         <v>0.64</v>
       </c>
       <c r="AS228">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT228">
         <v>0.63</v>
@@ -45380,7 +45410,7 @@
         <v>1.74</v>
       </c>
       <c r="AT229">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AU229">
         <v>1.51</v>
@@ -45481,7 +45511,7 @@
         <v>232</v>
       </c>
       <c r="P230" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="Q230">
         <v>10</v>
@@ -45759,10 +45789,10 @@
         <v>0.9</v>
       </c>
       <c r="AS231">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT231">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU231">
         <v>1.86</v>
@@ -45950,10 +45980,10 @@
         <v>0.73</v>
       </c>
       <c r="AS232">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT232">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU232">
         <v>1.58</v>
@@ -46054,7 +46084,7 @@
         <v>234</v>
       </c>
       <c r="P233" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="Q233">
         <v>3</v>
@@ -46144,7 +46174,7 @@
         <v>1.42</v>
       </c>
       <c r="AT233">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU233">
         <v>1.23</v>
@@ -46245,7 +46275,7 @@
         <v>87</v>
       </c>
       <c r="P234" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="Q234">
         <v>2</v>
@@ -46436,7 +46466,7 @@
         <v>87</v>
       </c>
       <c r="P235" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="Q235">
         <v>6</v>
@@ -46523,7 +46553,7 @@
         <v>0.27</v>
       </c>
       <c r="AS235">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT235">
         <v>0.53</v>
@@ -46717,7 +46747,7 @@
         <v>2.21</v>
       </c>
       <c r="AT236">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU236">
         <v>1.82</v>
@@ -46905,7 +46935,7 @@
         <v>1.27</v>
       </c>
       <c r="AS237">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT237">
         <v>0.95</v>
@@ -47099,7 +47129,7 @@
         <v>2.53</v>
       </c>
       <c r="AT238">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU238">
         <v>2.27</v>
@@ -47290,7 +47320,7 @@
         <v>1.68</v>
       </c>
       <c r="AT239">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU239">
         <v>1.94</v>
@@ -47478,7 +47508,7 @@
         <v>2.25</v>
       </c>
       <c r="AS240">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT240">
         <v>1.79</v>
@@ -47669,7 +47699,7 @@
         <v>1</v>
       </c>
       <c r="AS241">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT241">
         <v>0.84</v>
@@ -47773,7 +47803,7 @@
         <v>237</v>
       </c>
       <c r="P242" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="Q242">
         <v>2</v>
@@ -47863,7 +47893,7 @@
         <v>1.42</v>
       </c>
       <c r="AT242">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU242">
         <v>1.31</v>
@@ -48051,7 +48081,7 @@
         <v>1.17</v>
       </c>
       <c r="AS243">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT243">
         <v>0.95</v>
@@ -48242,7 +48272,7 @@
         <v>0.58</v>
       </c>
       <c r="AS244">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AT244">
         <v>0.63</v>
@@ -48433,10 +48463,10 @@
         <v>1.33</v>
       </c>
       <c r="AS245">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT245">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU245">
         <v>1.68</v>
@@ -48815,7 +48845,7 @@
         <v>2.08</v>
       </c>
       <c r="AS247">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT247">
         <v>1.74</v>
@@ -48919,7 +48949,7 @@
         <v>242</v>
       </c>
       <c r="P248" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="Q248">
         <v>6</v>
@@ -49009,7 +49039,7 @@
         <v>1.37</v>
       </c>
       <c r="AT248">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU248">
         <v>1.95</v>
@@ -49197,7 +49227,7 @@
         <v>1.67</v>
       </c>
       <c r="AS249">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT249">
         <v>1.47</v>
@@ -49391,7 +49421,7 @@
         <v>1.42</v>
       </c>
       <c r="AT250">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AU250">
         <v>2.1</v>
@@ -49492,7 +49522,7 @@
         <v>87</v>
       </c>
       <c r="P251" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="Q251">
         <v>1</v>
@@ -49582,7 +49612,7 @@
         <v>1.74</v>
       </c>
       <c r="AT251">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU251">
         <v>1.89</v>
@@ -49683,7 +49713,7 @@
         <v>227</v>
       </c>
       <c r="P252" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="Q252">
         <v>2</v>
@@ -49770,10 +49800,10 @@
         <v>1.08</v>
       </c>
       <c r="AS252">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT252">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU252">
         <v>1.55</v>
@@ -49874,7 +49904,7 @@
         <v>239</v>
       </c>
       <c r="P253" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Q253">
         <v>5</v>
@@ -49964,7 +49994,7 @@
         <v>1.74</v>
       </c>
       <c r="AT253">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU253">
         <v>1.41</v>
@@ -50065,7 +50095,7 @@
         <v>243</v>
       </c>
       <c r="P254" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="Q254">
         <v>3</v>
@@ -50155,7 +50185,7 @@
         <v>1.68</v>
       </c>
       <c r="AT254">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU254">
         <v>1.9</v>
@@ -50256,7 +50286,7 @@
         <v>91</v>
       </c>
       <c r="P255" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="Q255">
         <v>4</v>
@@ -50537,7 +50567,7 @@
         <v>2.21</v>
       </c>
       <c r="AT256">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU256">
         <v>1.83</v>
@@ -50725,7 +50755,7 @@
         <v>0.92</v>
       </c>
       <c r="AS257">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT257">
         <v>0.79</v>
@@ -50829,7 +50859,7 @@
         <v>87</v>
       </c>
       <c r="P258" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="Q258">
         <v>7</v>
@@ -50916,7 +50946,7 @@
         <v>1.15</v>
       </c>
       <c r="AS258">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT258">
         <v>1.32</v>
@@ -51107,7 +51137,7 @@
         <v>0.5</v>
       </c>
       <c r="AS259">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT259">
         <v>0.53</v>
@@ -51301,7 +51331,7 @@
         <v>1.42</v>
       </c>
       <c r="AT260">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU260">
         <v>1.22</v>
@@ -51680,7 +51710,7 @@
         <v>1.15</v>
       </c>
       <c r="AS262">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT262">
         <v>1</v>
@@ -52065,7 +52095,7 @@
         <v>1.42</v>
       </c>
       <c r="AT264">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU264">
         <v>2.08</v>
@@ -52166,7 +52196,7 @@
         <v>87</v>
       </c>
       <c r="P265" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="Q265">
         <v>8</v>
@@ -52256,7 +52286,7 @@
         <v>1.42</v>
       </c>
       <c r="AT265">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU265">
         <v>1.33</v>
@@ -52357,7 +52387,7 @@
         <v>87</v>
       </c>
       <c r="P266" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="Q266">
         <v>11</v>
@@ -52444,10 +52474,10 @@
         <v>2.54</v>
       </c>
       <c r="AS266">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AT266">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AU266">
         <v>1.51</v>
@@ -52548,7 +52578,7 @@
         <v>249</v>
       </c>
       <c r="P267" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="Q267">
         <v>4</v>
@@ -52635,10 +52665,10 @@
         <v>0.25</v>
       </c>
       <c r="AS267">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT267">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU267">
         <v>1.66</v>
@@ -52826,7 +52856,7 @@
         <v>0.62</v>
       </c>
       <c r="AS268">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT268">
         <v>0.63</v>
@@ -53017,7 +53047,7 @@
         <v>2</v>
       </c>
       <c r="AS269">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT269">
         <v>1.74</v>
@@ -53402,7 +53432,7 @@
         <v>1.53</v>
       </c>
       <c r="AT271">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU271">
         <v>1.76</v>
@@ -53503,7 +53533,7 @@
         <v>252</v>
       </c>
       <c r="P272" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="Q272">
         <v>8</v>
@@ -53781,7 +53811,7 @@
         <v>0.46</v>
       </c>
       <c r="AS273">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT273">
         <v>0.53</v>
@@ -53885,7 +53915,7 @@
         <v>199</v>
       </c>
       <c r="P274" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="Q274">
         <v>8</v>
@@ -53975,7 +54005,7 @@
         <v>1</v>
       </c>
       <c r="AT274">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU274">
         <v>1.42</v>
@@ -54163,10 +54193,10 @@
         <v>0.85</v>
       </c>
       <c r="AS275">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT275">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU275">
         <v>1.57</v>
@@ -54267,7 +54297,7 @@
         <v>255</v>
       </c>
       <c r="P276" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="Q276">
         <v>6</v>
@@ -54354,7 +54384,7 @@
         <v>1.29</v>
       </c>
       <c r="AS276">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT276">
         <v>1.32</v>
@@ -54458,7 +54488,7 @@
         <v>256</v>
       </c>
       <c r="P277" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="Q277">
         <v>1</v>
@@ -54545,7 +54575,7 @@
         <v>0.85</v>
       </c>
       <c r="AS277">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT277">
         <v>0.79</v>
@@ -54649,7 +54679,7 @@
         <v>87</v>
       </c>
       <c r="P278" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="Q278">
         <v>5</v>
@@ -54736,10 +54766,10 @@
         <v>0.77</v>
       </c>
       <c r="AS278">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT278">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU278">
         <v>1.52</v>
@@ -54930,7 +54960,7 @@
         <v>1.74</v>
       </c>
       <c r="AT279">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU279">
         <v>1.44</v>
@@ -55031,7 +55061,7 @@
         <v>201</v>
       </c>
       <c r="P280" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="Q280">
         <v>8</v>
@@ -55121,7 +55151,7 @@
         <v>1.68</v>
       </c>
       <c r="AT280">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU280">
         <v>1.86</v>
@@ -55312,7 +55342,7 @@
         <v>2.53</v>
       </c>
       <c r="AT281">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU281">
         <v>2.18</v>
@@ -55413,7 +55443,7 @@
         <v>258</v>
       </c>
       <c r="P282" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Q282">
         <v>2</v>
@@ -55604,7 +55634,7 @@
         <v>227</v>
       </c>
       <c r="P283" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="Q283">
         <v>8</v>
@@ -55691,7 +55721,7 @@
         <v>0.57</v>
       </c>
       <c r="AS283">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT283">
         <v>0.63</v>
@@ -56073,7 +56103,7 @@
         <v>1</v>
       </c>
       <c r="AS285">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT285">
         <v>0.95</v>
@@ -56177,7 +56207,7 @@
         <v>87</v>
       </c>
       <c r="P286" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="Q286">
         <v>2</v>
@@ -56649,7 +56679,7 @@
         <v>1.42</v>
       </c>
       <c r="AT288">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AU288">
         <v>1.23</v>
@@ -56840,7 +56870,7 @@
         <v>2.21</v>
       </c>
       <c r="AT289">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU289">
         <v>1.84</v>
@@ -56941,7 +56971,7 @@
         <v>87</v>
       </c>
       <c r="P290" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="Q290">
         <v>6</v>
@@ -57031,7 +57061,7 @@
         <v>1.53</v>
       </c>
       <c r="AT290">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU290">
         <v>1.76</v>
@@ -57132,7 +57162,7 @@
         <v>87</v>
       </c>
       <c r="P291" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="Q291">
         <v>7</v>
@@ -57219,7 +57249,7 @@
         <v>0.86</v>
       </c>
       <c r="AS291">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT291">
         <v>0.79</v>
@@ -57413,7 +57443,7 @@
         <v>1</v>
       </c>
       <c r="AT292">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU292">
         <v>1.4</v>
@@ -57514,7 +57544,7 @@
         <v>263</v>
       </c>
       <c r="P293" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="Q293">
         <v>5</v>
@@ -57601,7 +57631,7 @@
         <v>1.5</v>
       </c>
       <c r="AS293">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT293">
         <v>1.47</v>
@@ -57705,7 +57735,7 @@
         <v>264</v>
       </c>
       <c r="P294" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="Q294">
         <v>3</v>
@@ -57795,7 +57825,7 @@
         <v>1.74</v>
       </c>
       <c r="AT294">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU294">
         <v>1.42</v>
@@ -57896,7 +57926,7 @@
         <v>265</v>
       </c>
       <c r="P295" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="Q295">
         <v>3</v>
@@ -57983,10 +58013,10 @@
         <v>1.21</v>
       </c>
       <c r="AS295">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT295">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU295">
         <v>1.57</v>
@@ -58174,10 +58204,10 @@
         <v>0.79</v>
       </c>
       <c r="AS296">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT296">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU296">
         <v>1.54</v>
@@ -58365,7 +58395,7 @@
         <v>1.14</v>
       </c>
       <c r="AS297">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT297">
         <v>0.84</v>
@@ -58469,7 +58499,7 @@
         <v>87</v>
       </c>
       <c r="P298" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="Q298">
         <v>11</v>
@@ -58556,10 +58586,10 @@
         <v>0.43</v>
       </c>
       <c r="AS298">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AT298">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU298">
         <v>1.48</v>
@@ -58750,7 +58780,7 @@
         <v>2.53</v>
       </c>
       <c r="AT299">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU299">
         <v>2.15</v>
@@ -58938,10 +58968,10 @@
         <v>0.79</v>
       </c>
       <c r="AS300">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT300">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU300">
         <v>1.22</v>
@@ -59233,7 +59263,7 @@
         <v>87</v>
       </c>
       <c r="P302" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="Q302">
         <v>11</v>
@@ -59424,7 +59454,7 @@
         <v>269</v>
       </c>
       <c r="P303" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="Q303">
         <v>3</v>
@@ -59702,7 +59732,7 @@
         <v>1.73</v>
       </c>
       <c r="AS304">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT304">
         <v>1.74</v>
@@ -59806,7 +59836,7 @@
         <v>200</v>
       </c>
       <c r="P305" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="Q305">
         <v>4</v>
@@ -59896,7 +59926,7 @@
         <v>1.42</v>
       </c>
       <c r="AT305">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU305">
         <v>1.19</v>
@@ -60278,7 +60308,7 @@
         <v>1.68</v>
       </c>
       <c r="AT307">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AU307">
         <v>1.83</v>
@@ -60466,7 +60496,7 @@
         <v>0.4</v>
       </c>
       <c r="AS308">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT308">
         <v>0.53</v>
@@ -60570,7 +60600,7 @@
         <v>272</v>
       </c>
       <c r="P309" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="Q309">
         <v>9</v>
@@ -60657,7 +60687,7 @@
         <v>0.93</v>
       </c>
       <c r="AS309">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT309">
         <v>0.95</v>
@@ -61042,7 +61072,7 @@
         <v>1.42</v>
       </c>
       <c r="AT311">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU311">
         <v>2.03</v>
@@ -61143,7 +61173,7 @@
         <v>87</v>
       </c>
       <c r="P312" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="Q312">
         <v>4</v>
@@ -61230,7 +61260,7 @@
         <v>1.69</v>
       </c>
       <c r="AS312">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT312">
         <v>1.74</v>
@@ -61421,10 +61451,10 @@
         <v>1.13</v>
       </c>
       <c r="AS313">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AT313">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU313">
         <v>1.45</v>
@@ -61525,7 +61555,7 @@
         <v>275</v>
       </c>
       <c r="P314" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="Q314">
         <v>7</v>
@@ -61612,10 +61642,10 @@
         <v>0.47</v>
       </c>
       <c r="AS314">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT314">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU314">
         <v>2.39</v>
@@ -61997,7 +62027,7 @@
         <v>1.42</v>
       </c>
       <c r="AT316">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU316">
         <v>1.36</v>
@@ -62098,7 +62128,7 @@
         <v>278</v>
       </c>
       <c r="P317" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="Q317">
         <v>4</v>
@@ -62185,7 +62215,7 @@
         <v>1.07</v>
       </c>
       <c r="AS317">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT317">
         <v>0.84</v>
@@ -62379,7 +62409,7 @@
         <v>1</v>
       </c>
       <c r="AT318">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU318">
         <v>1.43</v>
@@ -62480,7 +62510,7 @@
         <v>280</v>
       </c>
       <c r="P319" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="Q319">
         <v>9</v>
@@ -62567,10 +62597,10 @@
         <v>2</v>
       </c>
       <c r="AS319">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT319">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU319">
         <v>1.54</v>
@@ -62758,10 +62788,10 @@
         <v>1.47</v>
       </c>
       <c r="AS320">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT320">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU320">
         <v>1.22</v>
@@ -62862,7 +62892,7 @@
         <v>87</v>
       </c>
       <c r="P321" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="Q321">
         <v>6</v>
@@ -62952,7 +62982,7 @@
         <v>1.37</v>
       </c>
       <c r="AT321">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU321">
         <v>1.89</v>
@@ -63522,7 +63552,7 @@
         <v>1.94</v>
       </c>
       <c r="AS324">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT324">
         <v>1.79</v>
@@ -63626,7 +63656,7 @@
         <v>284</v>
       </c>
       <c r="P325" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="Q325">
         <v>6</v>
@@ -63907,7 +63937,7 @@
         <v>2.21</v>
       </c>
       <c r="AT326">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU326">
         <v>1.92</v>
@@ -64199,7 +64229,7 @@
         <v>287</v>
       </c>
       <c r="P328" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Q328">
         <v>9</v>
@@ -64390,7 +64420,7 @@
         <v>288</v>
       </c>
       <c r="P329" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="Q329">
         <v>9</v>
@@ -65050,10 +65080,10 @@
         <v>0.88</v>
       </c>
       <c r="AS332">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT332">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU332">
         <v>1.19</v>
@@ -65154,7 +65184,7 @@
         <v>290</v>
       </c>
       <c r="P333" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="Q333">
         <v>7</v>
@@ -65241,10 +65271,10 @@
         <v>0.88</v>
       </c>
       <c r="AS333">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT333">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU333">
         <v>1.51</v>
@@ -65432,10 +65462,10 @@
         <v>0.44</v>
       </c>
       <c r="AS334">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT334">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU334">
         <v>1.74</v>
@@ -65536,7 +65566,7 @@
         <v>292</v>
       </c>
       <c r="P335" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="Q335">
         <v>7</v>
@@ -65623,10 +65653,10 @@
         <v>1.44</v>
       </c>
       <c r="AS335">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT335">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU335">
         <v>1.88</v>
@@ -65814,10 +65844,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS336">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT336">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU336">
         <v>2.37</v>
@@ -65918,7 +65948,7 @@
         <v>205</v>
       </c>
       <c r="P337" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="Q337">
         <v>5</v>
@@ -66005,10 +66035,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS337">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT337">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU337">
         <v>1.73</v>
@@ -66196,10 +66226,10 @@
         <v>2.06</v>
       </c>
       <c r="AS338">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AT338">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU338">
         <v>1.5</v>
@@ -66300,7 +66330,7 @@
         <v>87</v>
       </c>
       <c r="P339" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="Q339">
         <v>8</v>
@@ -66387,10 +66417,10 @@
         <v>1.19</v>
       </c>
       <c r="AS339">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT339">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU339">
         <v>1.59</v>
@@ -66491,7 +66521,7 @@
         <v>294</v>
       </c>
       <c r="P340" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="Q340">
         <v>4</v>
@@ -66581,7 +66611,7 @@
         <v>1</v>
       </c>
       <c r="AT340">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AU340">
         <v>1.48</v>
@@ -66769,10 +66799,10 @@
         <v>1.06</v>
       </c>
       <c r="AS341">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT341">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU341">
         <v>1.48</v>
@@ -67064,7 +67094,7 @@
         <v>231</v>
       </c>
       <c r="P343" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="Q343">
         <v>3</v>
@@ -67828,7 +67858,7 @@
         <v>199</v>
       </c>
       <c r="P347" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="Q347">
         <v>8</v>
@@ -68019,7 +68049,7 @@
         <v>130</v>
       </c>
       <c r="P348" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="Q348">
         <v>4</v>
@@ -68870,10 +68900,10 @@
         <v>0.41</v>
       </c>
       <c r="AS352">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT352">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AU352">
         <v>1.54</v>
@@ -69061,10 +69091,10 @@
         <v>0.88</v>
       </c>
       <c r="AS353">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT353">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU353">
         <v>1.72</v>
@@ -69252,10 +69282,10 @@
         <v>2.35</v>
       </c>
       <c r="AS354">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT354">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="AU354">
         <v>1.65</v>
@@ -69443,10 +69473,10 @@
         <v>0.82</v>
       </c>
       <c r="AS355">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT355">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU355">
         <v>1.91</v>
@@ -69634,10 +69664,10 @@
         <v>1</v>
       </c>
       <c r="AS356">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AT356">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU356">
         <v>2.36</v>
@@ -69825,10 +69855,10 @@
         <v>1.29</v>
       </c>
       <c r="AS357">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AT357">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AU357">
         <v>1.52</v>
@@ -69929,7 +69959,7 @@
         <v>305</v>
       </c>
       <c r="P358" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="Q358">
         <v>16</v>
@@ -70019,7 +70049,7 @@
         <v>1</v>
       </c>
       <c r="AT358">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU358">
         <v>1.49</v>
@@ -70207,10 +70237,10 @@
         <v>0.65</v>
       </c>
       <c r="AS359">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT359">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="AU359">
         <v>1.48</v>
@@ -70398,10 +70428,10 @@
         <v>0.71</v>
       </c>
       <c r="AS360">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT360">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU360">
         <v>1.19</v>
@@ -70589,10 +70619,10 @@
         <v>1.35</v>
       </c>
       <c r="AS361">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT361">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU361">
         <v>1.78</v>
@@ -70693,7 +70723,7 @@
         <v>286</v>
       </c>
       <c r="P362" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="Q362">
         <v>1</v>
@@ -70884,7 +70914,7 @@
         <v>308</v>
       </c>
       <c r="P363" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="Q363">
         <v>10</v>
@@ -71075,7 +71105,7 @@
         <v>309</v>
       </c>
       <c r="P364" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="Q364">
         <v>8</v>
@@ -71648,7 +71678,7 @@
         <v>311</v>
       </c>
       <c r="P367" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="Q367">
         <v>1</v>
@@ -72030,7 +72060,7 @@
         <v>313</v>
       </c>
       <c r="P369" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="Q369">
         <v>6</v>
@@ -72554,6 +72584,1916 @@
       </c>
       <c r="BK371">
         <v>10</v>
+      </c>
+    </row>
+    <row r="372" spans="1:63">
+      <c r="A372" s="1">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>2711029</v>
+      </c>
+      <c r="C372" t="s">
+        <v>63</v>
+      </c>
+      <c r="D372" t="s">
+        <v>64</v>
+      </c>
+      <c r="E372" s="2">
+        <v>45081.5625</v>
+      </c>
+      <c r="F372">
+        <v>38</v>
+      </c>
+      <c r="G372" t="s">
+        <v>77</v>
+      </c>
+      <c r="H372" t="s">
+        <v>82</v>
+      </c>
+      <c r="I372">
+        <v>0</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+      <c r="K372">
+        <v>0</v>
+      </c>
+      <c r="L372">
+        <v>3</v>
+      </c>
+      <c r="M372">
+        <v>0</v>
+      </c>
+      <c r="N372">
+        <v>3</v>
+      </c>
+      <c r="O372" t="s">
+        <v>315</v>
+      </c>
+      <c r="P372" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q372">
+        <v>2</v>
+      </c>
+      <c r="R372">
+        <v>6</v>
+      </c>
+      <c r="S372">
+        <v>8</v>
+      </c>
+      <c r="T372">
+        <v>3.75</v>
+      </c>
+      <c r="U372">
+        <v>2.05</v>
+      </c>
+      <c r="V372">
+        <v>3.1</v>
+      </c>
+      <c r="W372">
+        <v>1.44</v>
+      </c>
+      <c r="X372">
+        <v>2.63</v>
+      </c>
+      <c r="Y372">
+        <v>3.25</v>
+      </c>
+      <c r="Z372">
+        <v>1.33</v>
+      </c>
+      <c r="AA372">
+        <v>10</v>
+      </c>
+      <c r="AB372">
+        <v>1.06</v>
+      </c>
+      <c r="AC372">
+        <v>3.25</v>
+      </c>
+      <c r="AD372">
+        <v>3.2</v>
+      </c>
+      <c r="AE372">
+        <v>2.3</v>
+      </c>
+      <c r="AF372">
+        <v>1.07</v>
+      </c>
+      <c r="AG372">
+        <v>7.5</v>
+      </c>
+      <c r="AH372">
+        <v>1.36</v>
+      </c>
+      <c r="AI372">
+        <v>2.9</v>
+      </c>
+      <c r="AJ372">
+        <v>2.05</v>
+      </c>
+      <c r="AK372">
+        <v>1.63</v>
+      </c>
+      <c r="AL372">
+        <v>1.91</v>
+      </c>
+      <c r="AM372">
+        <v>1.91</v>
+      </c>
+      <c r="AN372">
+        <v>1.64</v>
+      </c>
+      <c r="AO372">
+        <v>1.35</v>
+      </c>
+      <c r="AP372">
+        <v>1.37</v>
+      </c>
+      <c r="AQ372">
+        <v>1.78</v>
+      </c>
+      <c r="AR372">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS372">
+        <v>1.84</v>
+      </c>
+      <c r="AT372">
+        <v>0.89</v>
+      </c>
+      <c r="AU372">
+        <v>1.17</v>
+      </c>
+      <c r="AV372">
+        <v>1.41</v>
+      </c>
+      <c r="AW372">
+        <v>2.58</v>
+      </c>
+      <c r="AX372">
+        <v>2.18</v>
+      </c>
+      <c r="AY372">
+        <v>7.5</v>
+      </c>
+      <c r="AZ372">
+        <v>1.91</v>
+      </c>
+      <c r="BA372">
+        <v>1.42</v>
+      </c>
+      <c r="BB372">
+        <v>1.75</v>
+      </c>
+      <c r="BC372">
+        <v>2.23</v>
+      </c>
+      <c r="BD372">
+        <v>2.9</v>
+      </c>
+      <c r="BE372">
+        <v>4</v>
+      </c>
+      <c r="BF372">
+        <v>5</v>
+      </c>
+      <c r="BG372">
+        <v>5</v>
+      </c>
+      <c r="BH372">
+        <v>4</v>
+      </c>
+      <c r="BI372">
+        <v>12</v>
+      </c>
+      <c r="BJ372">
+        <v>9</v>
+      </c>
+      <c r="BK372">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="373" spans="1:63">
+      <c r="A373" s="1">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>2711030</v>
+      </c>
+      <c r="C373" t="s">
+        <v>63</v>
+      </c>
+      <c r="D373" t="s">
+        <v>64</v>
+      </c>
+      <c r="E373" s="2">
+        <v>45081.5625</v>
+      </c>
+      <c r="F373">
+        <v>38</v>
+      </c>
+      <c r="G373" t="s">
+        <v>79</v>
+      </c>
+      <c r="H373" t="s">
+        <v>76</v>
+      </c>
+      <c r="I373">
+        <v>1</v>
+      </c>
+      <c r="J373">
+        <v>0</v>
+      </c>
+      <c r="K373">
+        <v>1</v>
+      </c>
+      <c r="L373">
+        <v>2</v>
+      </c>
+      <c r="M373">
+        <v>1</v>
+      </c>
+      <c r="N373">
+        <v>3</v>
+      </c>
+      <c r="O373" t="s">
+        <v>316</v>
+      </c>
+      <c r="P373" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q373">
+        <v>5</v>
+      </c>
+      <c r="R373">
+        <v>2</v>
+      </c>
+      <c r="S373">
+        <v>7</v>
+      </c>
+      <c r="T373">
+        <v>2.38</v>
+      </c>
+      <c r="U373">
+        <v>2.25</v>
+      </c>
+      <c r="V373">
+        <v>4.75</v>
+      </c>
+      <c r="W373">
+        <v>1.36</v>
+      </c>
+      <c r="X373">
+        <v>3</v>
+      </c>
+      <c r="Y373">
+        <v>2.63</v>
+      </c>
+      <c r="Z373">
+        <v>1.44</v>
+      </c>
+      <c r="AA373">
+        <v>7</v>
+      </c>
+      <c r="AB373">
+        <v>1.1</v>
+      </c>
+      <c r="AC373">
+        <v>2.15</v>
+      </c>
+      <c r="AD373">
+        <v>3.5</v>
+      </c>
+      <c r="AE373">
+        <v>3.2</v>
+      </c>
+      <c r="AF373">
+        <v>1.04</v>
+      </c>
+      <c r="AG373">
+        <v>9.5</v>
+      </c>
+      <c r="AH373">
+        <v>1.25</v>
+      </c>
+      <c r="AI373">
+        <v>3.8</v>
+      </c>
+      <c r="AJ373">
+        <v>1.93</v>
+      </c>
+      <c r="AK373">
+        <v>1.95</v>
+      </c>
+      <c r="AL373">
+        <v>1.8</v>
+      </c>
+      <c r="AM373">
+        <v>1.95</v>
+      </c>
+      <c r="AN373">
+        <v>1.24</v>
+      </c>
+      <c r="AO373">
+        <v>1.26</v>
+      </c>
+      <c r="AP373">
+        <v>2.1</v>
+      </c>
+      <c r="AQ373">
+        <v>1.94</v>
+      </c>
+      <c r="AR373">
+        <v>1.28</v>
+      </c>
+      <c r="AS373">
+        <v>2</v>
+      </c>
+      <c r="AT373">
+        <v>1.21</v>
+      </c>
+      <c r="AU373">
+        <v>1.57</v>
+      </c>
+      <c r="AV373">
+        <v>1.24</v>
+      </c>
+      <c r="AW373">
+        <v>2.81</v>
+      </c>
+      <c r="AX373">
+        <v>1.57</v>
+      </c>
+      <c r="AY373">
+        <v>8</v>
+      </c>
+      <c r="AZ373">
+        <v>2.85</v>
+      </c>
+      <c r="BA373">
+        <v>1.33</v>
+      </c>
+      <c r="BB373">
+        <v>1.6</v>
+      </c>
+      <c r="BC373">
+        <v>2</v>
+      </c>
+      <c r="BD373">
+        <v>2.55</v>
+      </c>
+      <c r="BE373">
+        <v>3.45</v>
+      </c>
+      <c r="BF373">
+        <v>7</v>
+      </c>
+      <c r="BG373">
+        <v>5</v>
+      </c>
+      <c r="BH373">
+        <v>7</v>
+      </c>
+      <c r="BI373">
+        <v>4</v>
+      </c>
+      <c r="BJ373">
+        <v>14</v>
+      </c>
+      <c r="BK373">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="374" spans="1:63">
+      <c r="A374" s="1">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>2711031</v>
+      </c>
+      <c r="C374" t="s">
+        <v>63</v>
+      </c>
+      <c r="D374" t="s">
+        <v>64</v>
+      </c>
+      <c r="E374" s="2">
+        <v>45081.5625</v>
+      </c>
+      <c r="F374">
+        <v>38</v>
+      </c>
+      <c r="G374" t="s">
+        <v>83</v>
+      </c>
+      <c r="H374" t="s">
+        <v>72</v>
+      </c>
+      <c r="I374">
+        <v>0</v>
+      </c>
+      <c r="J374">
+        <v>0</v>
+      </c>
+      <c r="K374">
+        <v>0</v>
+      </c>
+      <c r="L374">
+        <v>1</v>
+      </c>
+      <c r="M374">
+        <v>1</v>
+      </c>
+      <c r="N374">
+        <v>2</v>
+      </c>
+      <c r="O374" t="s">
+        <v>284</v>
+      </c>
+      <c r="P374" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q374">
+        <v>5</v>
+      </c>
+      <c r="R374">
+        <v>6</v>
+      </c>
+      <c r="S374">
+        <v>11</v>
+      </c>
+      <c r="T374">
+        <v>2.5</v>
+      </c>
+      <c r="U374">
+        <v>2.3</v>
+      </c>
+      <c r="V374">
+        <v>4</v>
+      </c>
+      <c r="W374">
+        <v>1.3</v>
+      </c>
+      <c r="X374">
+        <v>3.4</v>
+      </c>
+      <c r="Y374">
+        <v>2.5</v>
+      </c>
+      <c r="Z374">
+        <v>1.5</v>
+      </c>
+      <c r="AA374">
+        <v>6</v>
+      </c>
+      <c r="AB374">
+        <v>1.13</v>
+      </c>
+      <c r="AC374">
+        <v>1.95</v>
+      </c>
+      <c r="AD374">
+        <v>3.7</v>
+      </c>
+      <c r="AE374">
+        <v>3.6</v>
+      </c>
+      <c r="AF374">
+        <v>1.01</v>
+      </c>
+      <c r="AG374">
+        <v>12.5</v>
+      </c>
+      <c r="AH374">
+        <v>1.21</v>
+      </c>
+      <c r="AI374">
+        <v>4.2</v>
+      </c>
+      <c r="AJ374">
+        <v>1.58</v>
+      </c>
+      <c r="AK374">
+        <v>2.14</v>
+      </c>
+      <c r="AL374">
+        <v>1.57</v>
+      </c>
+      <c r="AM374">
+        <v>2.25</v>
+      </c>
+      <c r="AN374">
+        <v>1.35</v>
+      </c>
+      <c r="AO374">
+        <v>1.32</v>
+      </c>
+      <c r="AP374">
+        <v>1.93</v>
+      </c>
+      <c r="AQ374">
+        <v>2.39</v>
+      </c>
+      <c r="AR374">
+        <v>1.28</v>
+      </c>
+      <c r="AS374">
+        <v>2.32</v>
+      </c>
+      <c r="AT374">
+        <v>1.26</v>
+      </c>
+      <c r="AU374">
+        <v>2.33</v>
+      </c>
+      <c r="AV374">
+        <v>1.54</v>
+      </c>
+      <c r="AW374">
+        <v>3.87</v>
+      </c>
+      <c r="AX374">
+        <v>1.76</v>
+      </c>
+      <c r="AY374">
+        <v>7.5</v>
+      </c>
+      <c r="AZ374">
+        <v>2.38</v>
+      </c>
+      <c r="BA374">
+        <v>1.26</v>
+      </c>
+      <c r="BB374">
+        <v>1.49</v>
+      </c>
+      <c r="BC374">
+        <v>1.85</v>
+      </c>
+      <c r="BD374">
+        <v>2.32</v>
+      </c>
+      <c r="BE374">
+        <v>3.05</v>
+      </c>
+      <c r="BF374">
+        <v>3</v>
+      </c>
+      <c r="BG374">
+        <v>10</v>
+      </c>
+      <c r="BH374">
+        <v>4</v>
+      </c>
+      <c r="BI374">
+        <v>2</v>
+      </c>
+      <c r="BJ374">
+        <v>7</v>
+      </c>
+      <c r="BK374">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="375" spans="1:63">
+      <c r="A375" s="1">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>2711032</v>
+      </c>
+      <c r="C375" t="s">
+        <v>63</v>
+      </c>
+      <c r="D375" t="s">
+        <v>64</v>
+      </c>
+      <c r="E375" s="2">
+        <v>45081.5625</v>
+      </c>
+      <c r="F375">
+        <v>38</v>
+      </c>
+      <c r="G375" t="s">
+        <v>84</v>
+      </c>
+      <c r="H375" t="s">
+        <v>78</v>
+      </c>
+      <c r="I375">
+        <v>1</v>
+      </c>
+      <c r="J375">
+        <v>1</v>
+      </c>
+      <c r="K375">
+        <v>2</v>
+      </c>
+      <c r="L375">
+        <v>2</v>
+      </c>
+      <c r="M375">
+        <v>2</v>
+      </c>
+      <c r="N375">
+        <v>4</v>
+      </c>
+      <c r="O375" t="s">
+        <v>317</v>
+      </c>
+      <c r="P375" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q375">
+        <v>12</v>
+      </c>
+      <c r="R375">
+        <v>1</v>
+      </c>
+      <c r="S375">
+        <v>13</v>
+      </c>
+      <c r="T375">
+        <v>3.1</v>
+      </c>
+      <c r="U375">
+        <v>2.38</v>
+      </c>
+      <c r="V375">
+        <v>3</v>
+      </c>
+      <c r="W375">
+        <v>1.3</v>
+      </c>
+      <c r="X375">
+        <v>3.4</v>
+      </c>
+      <c r="Y375">
+        <v>2.38</v>
+      </c>
+      <c r="Z375">
+        <v>1.53</v>
+      </c>
+      <c r="AA375">
+        <v>6</v>
+      </c>
+      <c r="AB375">
+        <v>1.13</v>
+      </c>
+      <c r="AC375">
+        <v>2.75</v>
+      </c>
+      <c r="AD375">
+        <v>3.6</v>
+      </c>
+      <c r="AE375">
+        <v>2.4</v>
+      </c>
+      <c r="AF375">
+        <v>1.03</v>
+      </c>
+      <c r="AG375">
+        <v>16.75</v>
+      </c>
+      <c r="AH375">
+        <v>1.19</v>
+      </c>
+      <c r="AI375">
+        <v>4.75</v>
+      </c>
+      <c r="AJ375">
+        <v>1.74</v>
+      </c>
+      <c r="AK375">
+        <v>1.9</v>
+      </c>
+      <c r="AL375">
+        <v>1.5</v>
+      </c>
+      <c r="AM375">
+        <v>2.5</v>
+      </c>
+      <c r="AN375">
+        <v>1.53</v>
+      </c>
+      <c r="AO375">
+        <v>1.3</v>
+      </c>
+      <c r="AP375">
+        <v>1.48</v>
+      </c>
+      <c r="AQ375">
+        <v>2.11</v>
+      </c>
+      <c r="AR375">
+        <v>1.89</v>
+      </c>
+      <c r="AS375">
+        <v>2.05</v>
+      </c>
+      <c r="AT375">
+        <v>1.84</v>
+      </c>
+      <c r="AU375">
+        <v>1.91</v>
+      </c>
+      <c r="AV375">
+        <v>1.61</v>
+      </c>
+      <c r="AW375">
+        <v>3.52</v>
+      </c>
+      <c r="AX375">
+        <v>1.72</v>
+      </c>
+      <c r="AY375">
+        <v>8</v>
+      </c>
+      <c r="AZ375">
+        <v>2.45</v>
+      </c>
+      <c r="BA375">
+        <v>1.23</v>
+      </c>
+      <c r="BB375">
+        <v>1.43</v>
+      </c>
+      <c r="BC375">
+        <v>1.75</v>
+      </c>
+      <c r="BD375">
+        <v>2.18</v>
+      </c>
+      <c r="BE375">
+        <v>2.8</v>
+      </c>
+      <c r="BF375">
+        <v>8</v>
+      </c>
+      <c r="BG375">
+        <v>4</v>
+      </c>
+      <c r="BH375">
+        <v>12</v>
+      </c>
+      <c r="BI375">
+        <v>2</v>
+      </c>
+      <c r="BJ375">
+        <v>20</v>
+      </c>
+      <c r="BK375">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="376" spans="1:63">
+      <c r="A376" s="1">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>2711037</v>
+      </c>
+      <c r="C376" t="s">
+        <v>63</v>
+      </c>
+      <c r="D376" t="s">
+        <v>64</v>
+      </c>
+      <c r="E376" s="2">
+        <v>45081.5625</v>
+      </c>
+      <c r="F376">
+        <v>38</v>
+      </c>
+      <c r="G376" t="s">
+        <v>65</v>
+      </c>
+      <c r="H376" t="s">
+        <v>81</v>
+      </c>
+      <c r="I376">
+        <v>0</v>
+      </c>
+      <c r="J376">
+        <v>0</v>
+      </c>
+      <c r="K376">
+        <v>0</v>
+      </c>
+      <c r="L376">
+        <v>2</v>
+      </c>
+      <c r="M376">
+        <v>1</v>
+      </c>
+      <c r="N376">
+        <v>3</v>
+      </c>
+      <c r="O376" t="s">
+        <v>318</v>
+      </c>
+      <c r="P376" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q376">
+        <v>5</v>
+      </c>
+      <c r="R376">
+        <v>2</v>
+      </c>
+      <c r="S376">
+        <v>7</v>
+      </c>
+      <c r="T376">
+        <v>2.75</v>
+      </c>
+      <c r="U376">
+        <v>2.2</v>
+      </c>
+      <c r="V376">
+        <v>4</v>
+      </c>
+      <c r="W376">
+        <v>1.4</v>
+      </c>
+      <c r="X376">
+        <v>2.75</v>
+      </c>
+      <c r="Y376">
+        <v>2.75</v>
+      </c>
+      <c r="Z376">
+        <v>1.4</v>
+      </c>
+      <c r="AA376">
+        <v>8</v>
+      </c>
+      <c r="AB376">
+        <v>1.08</v>
+      </c>
+      <c r="AC376">
+        <v>2.2</v>
+      </c>
+      <c r="AD376">
+        <v>3.3</v>
+      </c>
+      <c r="AE376">
+        <v>3.3</v>
+      </c>
+      <c r="AF376">
+        <v>1.05</v>
+      </c>
+      <c r="AG376">
+        <v>9</v>
+      </c>
+      <c r="AH376">
+        <v>1.29</v>
+      </c>
+      <c r="AI376">
+        <v>3.5</v>
+      </c>
+      <c r="AJ376">
+        <v>1.97</v>
+      </c>
+      <c r="AK376">
+        <v>1.91</v>
+      </c>
+      <c r="AL376">
+        <v>1.75</v>
+      </c>
+      <c r="AM376">
+        <v>2</v>
+      </c>
+      <c r="AN376">
+        <v>1.33</v>
+      </c>
+      <c r="AO376">
+        <v>1.3</v>
+      </c>
+      <c r="AP376">
+        <v>1.75</v>
+      </c>
+      <c r="AQ376">
+        <v>1.72</v>
+      </c>
+      <c r="AR376">
+        <v>0.89</v>
+      </c>
+      <c r="AS376">
+        <v>1.79</v>
+      </c>
+      <c r="AT376">
+        <v>0.84</v>
+      </c>
+      <c r="AU376">
+        <v>1.74</v>
+      </c>
+      <c r="AV376">
+        <v>1.29</v>
+      </c>
+      <c r="AW376">
+        <v>3.03</v>
+      </c>
+      <c r="AX376">
+        <v>1.66</v>
+      </c>
+      <c r="AY376">
+        <v>7.5</v>
+      </c>
+      <c r="AZ376">
+        <v>2.6</v>
+      </c>
+      <c r="BA376">
+        <v>1.36</v>
+      </c>
+      <c r="BB376">
+        <v>1.65</v>
+      </c>
+      <c r="BC376">
+        <v>2.07</v>
+      </c>
+      <c r="BD376">
+        <v>2.65</v>
+      </c>
+      <c r="BE376">
+        <v>3.6</v>
+      </c>
+      <c r="BF376">
+        <v>8</v>
+      </c>
+      <c r="BG376">
+        <v>7</v>
+      </c>
+      <c r="BH376">
+        <v>5</v>
+      </c>
+      <c r="BI376">
+        <v>3</v>
+      </c>
+      <c r="BJ376">
+        <v>13</v>
+      </c>
+      <c r="BK376">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="377" spans="1:63">
+      <c r="A377" s="1">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>2711036</v>
+      </c>
+      <c r="C377" t="s">
+        <v>63</v>
+      </c>
+      <c r="D377" t="s">
+        <v>64</v>
+      </c>
+      <c r="E377" s="2">
+        <v>45081.66666666666</v>
+      </c>
+      <c r="F377">
+        <v>38</v>
+      </c>
+      <c r="G377" t="s">
+        <v>75</v>
+      </c>
+      <c r="H377" t="s">
+        <v>71</v>
+      </c>
+      <c r="I377">
+        <v>1</v>
+      </c>
+      <c r="J377">
+        <v>1</v>
+      </c>
+      <c r="K377">
+        <v>2</v>
+      </c>
+      <c r="L377">
+        <v>3</v>
+      </c>
+      <c r="M377">
+        <v>3</v>
+      </c>
+      <c r="N377">
+        <v>6</v>
+      </c>
+      <c r="O377" t="s">
+        <v>319</v>
+      </c>
+      <c r="P377" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q377">
+        <v>7</v>
+      </c>
+      <c r="R377">
+        <v>5</v>
+      </c>
+      <c r="S377">
+        <v>12</v>
+      </c>
+      <c r="T377">
+        <v>3.2</v>
+      </c>
+      <c r="U377">
+        <v>2.4</v>
+      </c>
+      <c r="V377">
+        <v>2.88</v>
+      </c>
+      <c r="W377">
+        <v>1.25</v>
+      </c>
+      <c r="X377">
+        <v>3.75</v>
+      </c>
+      <c r="Y377">
+        <v>2.25</v>
+      </c>
+      <c r="Z377">
+        <v>1.57</v>
+      </c>
+      <c r="AA377">
+        <v>5.5</v>
+      </c>
+      <c r="AB377">
+        <v>1.14</v>
+      </c>
+      <c r="AC377">
+        <v>3</v>
+      </c>
+      <c r="AD377">
+        <v>3.5</v>
+      </c>
+      <c r="AE377">
+        <v>2.3</v>
+      </c>
+      <c r="AF377">
+        <v>1.01</v>
+      </c>
+      <c r="AG377">
+        <v>13</v>
+      </c>
+      <c r="AH377">
+        <v>1.14</v>
+      </c>
+      <c r="AI377">
+        <v>5.25</v>
+      </c>
+      <c r="AJ377">
+        <v>1.51</v>
+      </c>
+      <c r="AK377">
+        <v>2.29</v>
+      </c>
+      <c r="AL377">
+        <v>1.44</v>
+      </c>
+      <c r="AM377">
+        <v>2.63</v>
+      </c>
+      <c r="AN377">
+        <v>1.6</v>
+      </c>
+      <c r="AO377">
+        <v>1.29</v>
+      </c>
+      <c r="AP377">
+        <v>1.44</v>
+      </c>
+      <c r="AQ377">
+        <v>1</v>
+      </c>
+      <c r="AR377">
+        <v>0.39</v>
+      </c>
+      <c r="AS377">
+        <v>1</v>
+      </c>
+      <c r="AT377">
+        <v>0.42</v>
+      </c>
+      <c r="AU377">
+        <v>1.61</v>
+      </c>
+      <c r="AV377">
+        <v>1.23</v>
+      </c>
+      <c r="AW377">
+        <v>2.84</v>
+      </c>
+      <c r="AX377">
+        <v>2.1</v>
+      </c>
+      <c r="AY377">
+        <v>8</v>
+      </c>
+      <c r="AZ377">
+        <v>1.95</v>
+      </c>
+      <c r="BA377">
+        <v>1.2</v>
+      </c>
+      <c r="BB377">
+        <v>1.38</v>
+      </c>
+      <c r="BC377">
+        <v>1.67</v>
+      </c>
+      <c r="BD377">
+        <v>2.07</v>
+      </c>
+      <c r="BE377">
+        <v>2.6</v>
+      </c>
+      <c r="BF377">
+        <v>9</v>
+      </c>
+      <c r="BG377">
+        <v>5</v>
+      </c>
+      <c r="BH377">
+        <v>3</v>
+      </c>
+      <c r="BI377">
+        <v>5</v>
+      </c>
+      <c r="BJ377">
+        <v>12</v>
+      </c>
+      <c r="BK377">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="378" spans="1:63">
+      <c r="A378" s="1">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>2711028</v>
+      </c>
+      <c r="C378" t="s">
+        <v>63</v>
+      </c>
+      <c r="D378" t="s">
+        <v>64</v>
+      </c>
+      <c r="E378" s="2">
+        <v>45081.66666666666</v>
+      </c>
+      <c r="F378">
+        <v>38</v>
+      </c>
+      <c r="G378" t="s">
+        <v>74</v>
+      </c>
+      <c r="H378" t="s">
+        <v>70</v>
+      </c>
+      <c r="I378">
+        <v>1</v>
+      </c>
+      <c r="J378">
+        <v>0</v>
+      </c>
+      <c r="K378">
+        <v>1</v>
+      </c>
+      <c r="L378">
+        <v>1</v>
+      </c>
+      <c r="M378">
+        <v>1</v>
+      </c>
+      <c r="N378">
+        <v>2</v>
+      </c>
+      <c r="O378" t="s">
+        <v>320</v>
+      </c>
+      <c r="P378" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q378">
+        <v>4</v>
+      </c>
+      <c r="R378">
+        <v>4</v>
+      </c>
+      <c r="S378">
+        <v>8</v>
+      </c>
+      <c r="T378">
+        <v>3.25</v>
+      </c>
+      <c r="U378">
+        <v>2.3</v>
+      </c>
+      <c r="V378">
+        <v>3</v>
+      </c>
+      <c r="W378">
+        <v>1.33</v>
+      </c>
+      <c r="X378">
+        <v>3.25</v>
+      </c>
+      <c r="Y378">
+        <v>2.5</v>
+      </c>
+      <c r="Z378">
+        <v>1.5</v>
+      </c>
+      <c r="AA378">
+        <v>6.5</v>
+      </c>
+      <c r="AB378">
+        <v>1.11</v>
+      </c>
+      <c r="AC378">
+        <v>2.9</v>
+      </c>
+      <c r="AD378">
+        <v>3.25</v>
+      </c>
+      <c r="AE378">
+        <v>2.45</v>
+      </c>
+      <c r="AF378">
+        <v>1</v>
+      </c>
+      <c r="AG378">
+        <v>11.25</v>
+      </c>
+      <c r="AH378">
+        <v>1.2</v>
+      </c>
+      <c r="AI378">
+        <v>4.2</v>
+      </c>
+      <c r="AJ378">
+        <v>2.03</v>
+      </c>
+      <c r="AK378">
+        <v>1.79</v>
+      </c>
+      <c r="AL378">
+        <v>1.57</v>
+      </c>
+      <c r="AM378">
+        <v>2.25</v>
+      </c>
+      <c r="AN378">
+        <v>1.59</v>
+      </c>
+      <c r="AO378">
+        <v>1.29</v>
+      </c>
+      <c r="AP378">
+        <v>1.45</v>
+      </c>
+      <c r="AQ378">
+        <v>1.72</v>
+      </c>
+      <c r="AR378">
+        <v>0.67</v>
+      </c>
+      <c r="AS378">
+        <v>1.68</v>
+      </c>
+      <c r="AT378">
+        <v>0.68</v>
+      </c>
+      <c r="AU378">
+        <v>1.49</v>
+      </c>
+      <c r="AV378">
+        <v>1.43</v>
+      </c>
+      <c r="AW378">
+        <v>2.92</v>
+      </c>
+      <c r="AX378">
+        <v>2.28</v>
+      </c>
+      <c r="AY378">
+        <v>8</v>
+      </c>
+      <c r="AZ378">
+        <v>1.81</v>
+      </c>
+      <c r="BA378">
+        <v>1.17</v>
+      </c>
+      <c r="BB378">
+        <v>1.3</v>
+      </c>
+      <c r="BC378">
+        <v>1.56</v>
+      </c>
+      <c r="BD378">
+        <v>1.92</v>
+      </c>
+      <c r="BE378">
+        <v>2.4</v>
+      </c>
+      <c r="BF378">
+        <v>4</v>
+      </c>
+      <c r="BG378">
+        <v>4</v>
+      </c>
+      <c r="BH378">
+        <v>3</v>
+      </c>
+      <c r="BI378">
+        <v>5</v>
+      </c>
+      <c r="BJ378">
+        <v>7</v>
+      </c>
+      <c r="BK378">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="379" spans="1:63">
+      <c r="A379" s="1">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>2711033</v>
+      </c>
+      <c r="C379" t="s">
+        <v>63</v>
+      </c>
+      <c r="D379" t="s">
+        <v>64</v>
+      </c>
+      <c r="E379" s="2">
+        <v>45081.66666666666</v>
+      </c>
+      <c r="F379">
+        <v>38</v>
+      </c>
+      <c r="G379" t="s">
+        <v>66</v>
+      </c>
+      <c r="H379" t="s">
+        <v>68</v>
+      </c>
+      <c r="I379">
+        <v>1</v>
+      </c>
+      <c r="J379">
+        <v>0</v>
+      </c>
+      <c r="K379">
+        <v>1</v>
+      </c>
+      <c r="L379">
+        <v>2</v>
+      </c>
+      <c r="M379">
+        <v>1</v>
+      </c>
+      <c r="N379">
+        <v>3</v>
+      </c>
+      <c r="O379" t="s">
+        <v>321</v>
+      </c>
+      <c r="P379" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q379">
+        <v>2</v>
+      </c>
+      <c r="R379">
+        <v>4</v>
+      </c>
+      <c r="S379">
+        <v>6</v>
+      </c>
+      <c r="T379">
+        <v>3.25</v>
+      </c>
+      <c r="U379">
+        <v>2.25</v>
+      </c>
+      <c r="V379">
+        <v>3</v>
+      </c>
+      <c r="W379">
+        <v>1.33</v>
+      </c>
+      <c r="X379">
+        <v>3.25</v>
+      </c>
+      <c r="Y379">
+        <v>2.63</v>
+      </c>
+      <c r="Z379">
+        <v>1.44</v>
+      </c>
+      <c r="AA379">
+        <v>6.5</v>
+      </c>
+      <c r="AB379">
+        <v>1.11</v>
+      </c>
+      <c r="AC379">
+        <v>2.9</v>
+      </c>
+      <c r="AD379">
+        <v>3.6</v>
+      </c>
+      <c r="AE379">
+        <v>2.3</v>
+      </c>
+      <c r="AF379">
+        <v>1.03</v>
+      </c>
+      <c r="AG379">
+        <v>11</v>
+      </c>
+      <c r="AH379">
+        <v>1.25</v>
+      </c>
+      <c r="AI379">
+        <v>3.8</v>
+      </c>
+      <c r="AJ379">
+        <v>1.63</v>
+      </c>
+      <c r="AK379">
+        <v>2.06</v>
+      </c>
+      <c r="AL379">
+        <v>1.62</v>
+      </c>
+      <c r="AM379">
+        <v>2.2</v>
+      </c>
+      <c r="AN379">
+        <v>1.6</v>
+      </c>
+      <c r="AO379">
+        <v>1.29</v>
+      </c>
+      <c r="AP379">
+        <v>1.48</v>
+      </c>
+      <c r="AQ379">
+        <v>1.33</v>
+      </c>
+      <c r="AR379">
+        <v>2.22</v>
+      </c>
+      <c r="AS379">
+        <v>1.42</v>
+      </c>
+      <c r="AT379">
+        <v>2.11</v>
+      </c>
+      <c r="AU379">
+        <v>1.74</v>
+      </c>
+      <c r="AV379">
+        <v>1.63</v>
+      </c>
+      <c r="AW379">
+        <v>3.37</v>
+      </c>
+      <c r="AX379">
+        <v>1.92</v>
+      </c>
+      <c r="AY379">
+        <v>7.5</v>
+      </c>
+      <c r="AZ379">
+        <v>2.15</v>
+      </c>
+      <c r="BA379">
+        <v>1.3</v>
+      </c>
+      <c r="BB379">
+        <v>1.57</v>
+      </c>
+      <c r="BC379">
+        <v>1.96</v>
+      </c>
+      <c r="BD379">
+        <v>2.5</v>
+      </c>
+      <c r="BE379">
+        <v>3.3</v>
+      </c>
+      <c r="BF379">
+        <v>10</v>
+      </c>
+      <c r="BG379">
+        <v>3</v>
+      </c>
+      <c r="BH379">
+        <v>3</v>
+      </c>
+      <c r="BI379">
+        <v>5</v>
+      </c>
+      <c r="BJ379">
+        <v>13</v>
+      </c>
+      <c r="BK379">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="380" spans="1:63">
+      <c r="A380" s="1">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>2711034</v>
+      </c>
+      <c r="C380" t="s">
+        <v>63</v>
+      </c>
+      <c r="D380" t="s">
+        <v>64</v>
+      </c>
+      <c r="E380" s="2">
+        <v>45081.66666666666</v>
+      </c>
+      <c r="F380">
+        <v>38</v>
+      </c>
+      <c r="G380" t="s">
+        <v>67</v>
+      </c>
+      <c r="H380" t="s">
+        <v>73</v>
+      </c>
+      <c r="I380">
+        <v>0</v>
+      </c>
+      <c r="J380">
+        <v>0</v>
+      </c>
+      <c r="K380">
+        <v>0</v>
+      </c>
+      <c r="L380">
+        <v>0</v>
+      </c>
+      <c r="M380">
+        <v>0</v>
+      </c>
+      <c r="N380">
+        <v>0</v>
+      </c>
+      <c r="O380" t="s">
+        <v>87</v>
+      </c>
+      <c r="P380" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q380">
+        <v>6</v>
+      </c>
+      <c r="R380">
+        <v>1</v>
+      </c>
+      <c r="S380">
+        <v>7</v>
+      </c>
+      <c r="T380">
+        <v>2.88</v>
+      </c>
+      <c r="U380">
+        <v>2.05</v>
+      </c>
+      <c r="V380">
+        <v>4</v>
+      </c>
+      <c r="W380">
+        <v>1.5</v>
+      </c>
+      <c r="X380">
+        <v>2.5</v>
+      </c>
+      <c r="Y380">
+        <v>3.4</v>
+      </c>
+      <c r="Z380">
+        <v>1.3</v>
+      </c>
+      <c r="AA380">
+        <v>10</v>
+      </c>
+      <c r="AB380">
+        <v>1.06</v>
+      </c>
+      <c r="AC380">
+        <v>2.15</v>
+      </c>
+      <c r="AD380">
+        <v>3.3</v>
+      </c>
+      <c r="AE380">
+        <v>3.4</v>
+      </c>
+      <c r="AF380">
+        <v>1.08</v>
+      </c>
+      <c r="AG380">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH380">
+        <v>1.39</v>
+      </c>
+      <c r="AI380">
+        <v>3.02</v>
+      </c>
+      <c r="AJ380">
+        <v>2.19</v>
+      </c>
+      <c r="AK380">
+        <v>1.55</v>
+      </c>
+      <c r="AL380">
+        <v>1.95</v>
+      </c>
+      <c r="AM380">
+        <v>1.8</v>
+      </c>
+      <c r="AN380">
+        <v>1.32</v>
+      </c>
+      <c r="AO380">
+        <v>1.33</v>
+      </c>
+      <c r="AP380">
+        <v>1.73</v>
+      </c>
+      <c r="AQ380">
+        <v>1.5</v>
+      </c>
+      <c r="AR380">
+        <v>0.78</v>
+      </c>
+      <c r="AS380">
+        <v>1.47</v>
+      </c>
+      <c r="AT380">
+        <v>0.79</v>
+      </c>
+      <c r="AU380">
+        <v>1.63</v>
+      </c>
+      <c r="AV380">
+        <v>1.11</v>
+      </c>
+      <c r="AW380">
+        <v>2.74</v>
+      </c>
+      <c r="AX380">
+        <v>1.61</v>
+      </c>
+      <c r="AY380">
+        <v>8</v>
+      </c>
+      <c r="AZ380">
+        <v>2.7</v>
+      </c>
+      <c r="BA380">
+        <v>1.33</v>
+      </c>
+      <c r="BB380">
+        <v>1.6</v>
+      </c>
+      <c r="BC380">
+        <v>2</v>
+      </c>
+      <c r="BD380">
+        <v>2.55</v>
+      </c>
+      <c r="BE380">
+        <v>3.4</v>
+      </c>
+      <c r="BF380">
+        <v>0</v>
+      </c>
+      <c r="BG380">
+        <v>2</v>
+      </c>
+      <c r="BH380">
+        <v>13</v>
+      </c>
+      <c r="BI380">
+        <v>2</v>
+      </c>
+      <c r="BJ380">
+        <v>13</v>
+      </c>
+      <c r="BK380">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:63">
+      <c r="A381" s="1">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>2711035</v>
+      </c>
+      <c r="C381" t="s">
+        <v>63</v>
+      </c>
+      <c r="D381" t="s">
+        <v>64</v>
+      </c>
+      <c r="E381" s="2">
+        <v>45081.66666666666</v>
+      </c>
+      <c r="F381">
+        <v>38</v>
+      </c>
+      <c r="G381" t="s">
+        <v>80</v>
+      </c>
+      <c r="H381" t="s">
+        <v>69</v>
+      </c>
+      <c r="I381">
+        <v>0</v>
+      </c>
+      <c r="J381">
+        <v>1</v>
+      </c>
+      <c r="K381">
+        <v>1</v>
+      </c>
+      <c r="L381">
+        <v>1</v>
+      </c>
+      <c r="M381">
+        <v>1</v>
+      </c>
+      <c r="N381">
+        <v>2</v>
+      </c>
+      <c r="O381" t="s">
+        <v>200</v>
+      </c>
+      <c r="P381" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q381">
+        <v>7</v>
+      </c>
+      <c r="R381">
+        <v>4</v>
+      </c>
+      <c r="S381">
+        <v>11</v>
+      </c>
+      <c r="T381">
+        <v>3.2</v>
+      </c>
+      <c r="U381">
+        <v>2.2</v>
+      </c>
+      <c r="V381">
+        <v>3.2</v>
+      </c>
+      <c r="W381">
+        <v>1.36</v>
+      </c>
+      <c r="X381">
+        <v>3</v>
+      </c>
+      <c r="Y381">
+        <v>2.75</v>
+      </c>
+      <c r="Z381">
+        <v>1.4</v>
+      </c>
+      <c r="AA381">
+        <v>7</v>
+      </c>
+      <c r="AB381">
+        <v>1.1</v>
+      </c>
+      <c r="AC381">
+        <v>2.62</v>
+      </c>
+      <c r="AD381">
+        <v>3.25</v>
+      </c>
+      <c r="AE381">
+        <v>2.7</v>
+      </c>
+      <c r="AF381">
+        <v>1.04</v>
+      </c>
+      <c r="AG381">
+        <v>10</v>
+      </c>
+      <c r="AH381">
+        <v>1.25</v>
+      </c>
+      <c r="AI381">
+        <v>3.75</v>
+      </c>
+      <c r="AJ381">
+        <v>1.87</v>
+      </c>
+      <c r="AK381">
+        <v>2.01</v>
+      </c>
+      <c r="AL381">
+        <v>1.67</v>
+      </c>
+      <c r="AM381">
+        <v>2.1</v>
+      </c>
+      <c r="AN381">
+        <v>1.53</v>
+      </c>
+      <c r="AO381">
+        <v>1.3</v>
+      </c>
+      <c r="AP381">
+        <v>1.48</v>
+      </c>
+      <c r="AQ381">
+        <v>0.78</v>
+      </c>
+      <c r="AR381">
+        <v>0.78</v>
+      </c>
+      <c r="AS381">
+        <v>0.79</v>
+      </c>
+      <c r="AT381">
+        <v>0.79</v>
+      </c>
+      <c r="AU381">
+        <v>1.57</v>
+      </c>
+      <c r="AV381">
+        <v>1.19</v>
+      </c>
+      <c r="AW381">
+        <v>2.76</v>
+      </c>
+      <c r="AX381">
+        <v>1.66</v>
+      </c>
+      <c r="AY381">
+        <v>8</v>
+      </c>
+      <c r="AZ381">
+        <v>2.55</v>
+      </c>
+      <c r="BA381">
+        <v>1.21</v>
+      </c>
+      <c r="BB381">
+        <v>1.4</v>
+      </c>
+      <c r="BC381">
+        <v>1.68</v>
+      </c>
+      <c r="BD381">
+        <v>2.1</v>
+      </c>
+      <c r="BE381">
+        <v>2.65</v>
+      </c>
+      <c r="BF381">
+        <v>6</v>
+      </c>
+      <c r="BG381">
+        <v>4</v>
+      </c>
+      <c r="BH381">
+        <v>5</v>
+      </c>
+      <c r="BI381">
+        <v>7</v>
+      </c>
+      <c r="BJ381">
+        <v>11</v>
+      </c>
+      <c r="BK381">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
